--- a/TPR.xlsx
+++ b/TPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC56ECD-A3D4-46F1-8D60-BACFB859F362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4866C1-D7AD-43F9-B4A4-D374E4DD5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Tapestry</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>EV</t>
-  </si>
-  <si>
-    <t>FQ125</t>
   </si>
   <si>
     <t>Main</t>
@@ -141,17 +138,51 @@
     <t>Stuart Weitzman</t>
   </si>
   <si>
-    <t>Merger with Capri Holding</t>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Merger with Capri Holding -&gt; terminated</t>
+  </si>
+  <si>
+    <t>Women's Wear -&gt; hand bags, dresses, shoes etc.</t>
+  </si>
+  <si>
+    <t>Coach Growth</t>
+  </si>
+  <si>
+    <t>Kate Spade Growth</t>
+  </si>
+  <si>
+    <t>Stuart Weitzman Growth</t>
+  </si>
+  <si>
+    <t>Revenue Growth</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +206,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -193,11 +240,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -207,10 +255,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -542,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD07F5-F476-4E11-9EC5-14C465BA1847}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>74</v>
+        <v>81.58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -574,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>233.03575000000001</v>
+        <v>207.690147</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -589,7 +647,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>17244.645499999999</v>
+        <v>16943.36219226</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -600,11 +658,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <f>6462.9+842.3</f>
-        <v>7305.2</v>
+        <f>1037.7+19.3</f>
+        <v>1057</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -612,11 +670,11 @@
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <f>7008.3+303.4</f>
-        <v>7311.7</v>
+        <f>2377.1+319.9</f>
+        <v>2697</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -625,15 +683,28 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>17251.145499999999</v>
+        <v>18583.36219226</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J8" s="3"/>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -646,10 +717,10 @@
   <dimension ref="A1:FC370"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,51 +731,59 @@
   <sheetData>
     <row r="1" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:159" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="10">
         <v>1157.4000000000001</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="D3" s="10">
+        <v>1541.9</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1145.5999999999999</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>1170.5999999999999</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="10">
+        <v>1709.3</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1293.5</v>
+      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -857,20 +936,28 @@
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="10">
         <v>303.2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="D4" s="10">
+        <v>460.4</v>
+      </c>
+      <c r="E4" s="10">
+        <v>280.7</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10">
         <v>283.2</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="H4" s="10">
+        <v>416.4</v>
+      </c>
+      <c r="I4" s="10">
+        <v>244.9</v>
+      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1023,20 +1110,28 @@
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>52.6</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="D5" s="10">
+        <v>82.2</v>
+      </c>
+      <c r="E5" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
         <v>53.7</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="H5" s="10">
+        <v>69.7</v>
+      </c>
+      <c r="I5" s="10">
+        <v>46.2</v>
+      </c>
+      <c r="J5" s="10"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1189,20 +1284,28 @@
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="11">
         <v>1513.2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
+      <c r="D6" s="11">
+        <v>2084.5</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1482.4</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11">
         <v>1507.5</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="H6" s="11">
+        <v>2195.4</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1584.6</v>
+      </c>
+      <c r="J6" s="11"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1355,20 +1458,28 @@
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="10">
         <v>415.5</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="D7" s="10">
+        <v>591.29999999999995</v>
+      </c>
+      <c r="E7" s="10">
+        <v>375</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>372.6</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="H7" s="10">
+        <v>562.29999999999995</v>
+      </c>
+      <c r="I7" s="10">
+        <v>378.8</v>
+      </c>
+      <c r="J7" s="10"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1521,37 +1632,37 @@
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <f t="shared" ref="C8:F8" si="0">+C6-C7</f>
         <v>1097.7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
+        <f t="shared" si="0"/>
+        <v>1493.2</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="0"/>
+        <v>1107.4000000000001</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="G8" s="10">
         <f>+G6-G7</f>
         <v>1134.9000000000001</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <f t="shared" ref="H8:J8" si="1">+H6-H7</f>
-        <v>0</v>
+        <v>1633.1000000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1205.8</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1707,20 +1818,28 @@
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>844.5</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="D9" s="10">
+        <v>1045.5999999999999</v>
+      </c>
+      <c r="E9" s="10">
+        <v>903.1</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>882.9</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
+      <c r="H9" s="10">
+        <v>1140.3</v>
+      </c>
+      <c r="I9" s="10">
+        <v>952.1</v>
+      </c>
+      <c r="J9" s="10"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1873,37 +1992,37 @@
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="10">
         <f t="shared" ref="C10:F10" si="2">+C8-C9</f>
         <v>253.20000000000005</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="10">
+        <f t="shared" si="2"/>
+        <v>447.60000000000014</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="2"/>
+        <v>204.30000000000007</v>
+      </c>
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="G10" s="10">
         <f>+G8-G9</f>
         <v>252.00000000000011</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="10">
         <f t="shared" ref="H10:J10" si="3">+H8-H9</f>
-        <v>0</v>
+        <v>492.80000000000018</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>253.69999999999993</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2059,20 +2178,29 @@
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="10">
         <v>13.3</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="D11" s="10">
+        <v>49.2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>32</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>30.7</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="H11" s="10">
+        <f>120.1+24.5</f>
+        <v>144.6</v>
+      </c>
+      <c r="I11" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="J11" s="10"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2225,20 +2353,28 @@
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="10">
         <v>1.4</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="D12" s="10">
+        <v>-4.7</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>-4.4000000000000004</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="H12" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I12" s="10">
+        <v>-0.8</v>
+      </c>
+      <c r="J12" s="10"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2391,37 +2527,37 @@
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="10">
         <f t="shared" ref="C13:F13" si="4">+C10-SUM(C11:C12)</f>
         <v>238.50000000000006</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="10">
+        <f t="shared" si="4"/>
+        <v>403.10000000000014</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="4"/>
+        <v>169.50000000000006</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="G13" s="10">
         <f>+G10-SUM(G11:G12)</f>
         <v>225.7000000000001</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <f t="shared" ref="H13:J13" si="5">+H10-SUM(H11:H12)</f>
-        <v>0</v>
+        <v>345.30000000000018</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>239.09999999999994</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2577,20 +2713,28 @@
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="10">
         <v>43.5</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="D14" s="10">
+        <v>80.8</v>
+      </c>
+      <c r="E14" s="10">
+        <v>30.1</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>39.1</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="I14" s="10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J14" s="10"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -2743,37 +2887,37 @@
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="10">
         <f t="shared" ref="C15:F15" si="6">+C13-C14</f>
         <v>195.00000000000006</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="10">
+        <f t="shared" si="6"/>
+        <v>322.30000000000013</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="6"/>
+        <v>139.40000000000006</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="G15" s="10">
         <f>+G13-G14</f>
         <v>186.60000000000011</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="10">
         <f t="shared" ref="H15:J15" si="7">+H13-H14</f>
-        <v>0</v>
+        <v>310.4000000000002</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>203.29999999999995</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3088,41 +3232,41 @@
     </row>
     <row r="17" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="9">
         <f t="shared" ref="C17:F17" si="8">+C15/C18</f>
         <v>0.85413929040735892</v>
       </c>
-      <c r="D17" s="2" t="e">
+      <c r="D17" s="9">
+        <f t="shared" si="8"/>
+        <v>1.405582206716093</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="8"/>
+        <v>0.60740740740740773</v>
+      </c>
+      <c r="F17" s="9" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E17" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F17" s="2" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <f>+G15/G18</f>
         <v>0.80604751619870452</v>
       </c>
-      <c r="H17" s="2" t="e">
+      <c r="H17" s="9">
         <f t="shared" ref="H17:J17" si="9">+H15/H18</f>
-        <v>#DIV/0!</v>
+        <v>1.4115507048658491</v>
       </c>
-      <c r="I17" s="2" t="e">
+      <c r="I17" s="9">
+        <f t="shared" si="9"/>
+        <v>0.98070429329474162</v>
+      </c>
+      <c r="J17" s="9" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="2" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3279,14 +3423,22 @@
       <c r="C18" s="2">
         <v>228.3</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2">
+        <v>229.3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>229.5</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
         <v>231.5</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="2">
+        <v>219.9</v>
+      </c>
+      <c r="I18" s="2">
+        <v>207.3</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -3598,14 +3750,29 @@
       <c r="FC19" s="2"/>
     </row>
     <row r="20" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
+      <c r="G20" s="12">
+        <f t="shared" ref="G20:H23" si="10">+G3/C3-1</f>
+        <v>1.1404872991187087E-2</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="10"/>
+        <v>0.10856735196835055</v>
+      </c>
+      <c r="I20" s="12">
+        <f>+I3/E3-1</f>
+        <v>0.12910265363128492</v>
+      </c>
+      <c r="J20" s="12" t="e">
+        <f>+J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -3757,14 +3924,29 @@
       <c r="FC20" s="2"/>
     </row>
     <row r="21" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="12">
+        <f t="shared" si="10"/>
+        <v>-6.5963060686015873E-2</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="10"/>
+        <v>-9.5569070373588194E-2</v>
+      </c>
+      <c r="I21" s="12">
+        <f t="shared" ref="I21:J23" si="11">+I4/E4-1</f>
+        <v>-0.12753829711435694</v>
+      </c>
+      <c r="J21" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3916,14 +4098,29 @@
       <c r="FC21" s="2"/>
     </row>
     <row r="22" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="G22" s="12">
+        <f t="shared" si="10"/>
+        <v>2.0912547528517234E-2</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="10"/>
+        <v>-0.15206812652068125</v>
+      </c>
+      <c r="I22" s="12">
+        <f t="shared" si="11"/>
+        <v>-0.17647058823529405</v>
+      </c>
+      <c r="J22" s="12" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -4075,15 +4272,30 @@
       <c r="FC22" s="2"/>
     </row>
     <row r="23" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="13">
+        <f t="shared" si="10"/>
+        <v>-3.7668517049960215E-3</v>
+      </c>
+      <c r="H23" s="13">
+        <f t="shared" si="10"/>
+        <v>5.3202206764212168E-2</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="11"/>
+        <v>6.8942255801403007E-2</v>
+      </c>
+      <c r="J23" s="13" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" s="6"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4234,14 +4446,41 @@
       <c r="FC23" s="2"/>
     </row>
     <row r="24" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" ref="C24:I24" si="12">+C8/C6</f>
+        <v>0.72541633624107849</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.71633485248260975</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.74703184025903946</v>
+      </c>
+      <c r="F24" s="12" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.75283582089552248</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="12"/>
+        <v>0.7438735537942972</v>
+      </c>
+      <c r="I24" s="12">
+        <f>+I8/I6</f>
+        <v>0.76094913542849929</v>
+      </c>
+      <c r="J24" s="12" t="e">
+        <f>+J8/J6</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -4393,14 +4632,41 @@
       <c r="FC24" s="2"/>
     </row>
     <row r="25" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" ref="C25:I25" si="13">+C10/C6</f>
+        <v>0.16732751784298178</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="13"/>
+        <v>0.21472775245862324</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="13"/>
+        <v>0.13781705342687536</v>
+      </c>
+      <c r="F25" s="12" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="12">
+        <f t="shared" si="13"/>
+        <v>0.1671641791044777</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="13"/>
+        <v>0.22446934499407861</v>
+      </c>
+      <c r="I25" s="12">
+        <f>+I10/I6</f>
+        <v>0.16010349615044803</v>
+      </c>
+      <c r="J25" s="12" t="e">
+        <f>+J10/J6</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -4552,14 +4818,41 @@
       <c r="FC25" s="2"/>
     </row>
     <row r="26" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" ref="C26:I26" si="14">+C14/C13</f>
+        <v>0.1823899371069182</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="14"/>
+        <v>0.20044653932026785</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="14"/>
+        <v>0.17758112094395276</v>
+      </c>
+      <c r="F26" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="12">
+        <f t="shared" si="14"/>
+        <v>0.1732388125830748</v>
+      </c>
+      <c r="H26" s="12">
+        <f t="shared" si="14"/>
+        <v>0.10107153200115836</v>
+      </c>
+      <c r="I26" s="12">
+        <f>+I14/I13</f>
+        <v>0.14972814721873695</v>
+      </c>
+      <c r="J26" s="12" t="e">
+        <f>+J14/J13</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>

--- a/TPR.xlsx
+++ b/TPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4866C1-D7AD-43F9-B4A4-D374E4DD5A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB1339-B4D5-4319-96C5-D142488111D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
   </bookViews>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6EF150BE-C524-4506-884D-CEFBED0BBE0C}</author>
+  </authors>
+  <commentList>
+    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    854,8 Million USD Impairment of Goodwill</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>Tapestry</t>
   </si>
@@ -138,9 +156,6 @@
     <t>Stuart Weitzman</t>
   </si>
   <si>
-    <t>FQ325</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -173,16 +188,71 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>Coach Stores</t>
+  </si>
+  <si>
+    <t>Kate Spade Stores</t>
+  </si>
+  <si>
+    <t>Stuart Weizman Stores</t>
+  </si>
+  <si>
+    <t>North America Stores</t>
+  </si>
+  <si>
+    <t>International Stores</t>
+  </si>
+  <si>
+    <t>Total Tapestry Stores</t>
+  </si>
+  <si>
+    <t>FY19</t>
+  </si>
+  <si>
+    <t>FY20</t>
+  </si>
+  <si>
+    <t>FY21</t>
+  </si>
+  <si>
+    <t>FY22</t>
+  </si>
+  <si>
+    <t>FY23</t>
+  </si>
+  <si>
+    <t>FY24</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>54% of Revenue are Handbags</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stuart Weizman </t>
+  </si>
+  <si>
+    <t>Store Growth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +292,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +321,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -264,6 +340,14 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -281,6 +365,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Oscar Settje" id="{57F4CEF2-D55F-47CD-86FA-BC321EB67797}" userId="7ff36870b9739543" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -598,12 +688,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="R16" dT="2025-08-15T16:44:39.83" personId="{57F4CEF2-D55F-47CD-86FA-BC321EB67797}" id="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
+    <text>854,8 Million USD Impairment of Goodwill</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD07F5-F476-4E11-9EC5-14C465BA1847}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>81.58</v>
+        <v>99.39</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -632,10 +730,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="2">
-        <v>207.690147</v>
+        <v>208.123628</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,7 +745,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>16943.36219226</v>
+        <v>20685.40738692</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -658,11 +756,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="2">
-        <f>1037.7+19.3</f>
-        <v>1057</v>
+        <f>1100+19.6</f>
+        <v>1119.5999999999999</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -670,41 +768,62 @@
         <v>8</v>
       </c>
       <c r="J6" s="2">
-        <f>2377.1+319.9</f>
-        <v>2697</v>
+        <f>16.7+2377.9</f>
+        <v>2394.6</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
       <c r="I7" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>18583.36219226</v>
+        <v>21960.40738692</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
       <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -713,14 +832,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD96D42-E98E-4FF8-9D3E-4E75504DDB44}">
-  <dimension ref="A1:FC370"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD96D42-E98E-4FF8-9D3E-4E75504DDB44}">
+  <dimension ref="A1:FC378"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,1281 +878,259 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="3" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
-      <c r="C3" s="10">
-        <v>1157.4000000000001</v>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15">
+        <v>939</v>
       </c>
-      <c r="D3" s="10">
-        <v>1541.9</v>
+      <c r="Q3" s="15">
+        <v>930</v>
       </c>
-      <c r="E3" s="10">
-        <v>1145.5999999999999</v>
+      <c r="R3" s="15">
+        <v>931</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>1170.5999999999999</v>
-      </c>
-      <c r="H3" s="10">
-        <v>1709.3</v>
-      </c>
-      <c r="I3" s="10">
-        <v>1293.5</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="2"/>
-      <c r="BL3" s="2"/>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="2"/>
-      <c r="CN3" s="2"/>
-      <c r="CO3" s="2"/>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="2"/>
-      <c r="CR3" s="2"/>
-      <c r="CS3" s="2"/>
-      <c r="CT3" s="2"/>
-      <c r="CU3" s="2"/>
-      <c r="CV3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2"/>
-      <c r="DB3" s="2"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2"/>
-      <c r="DF3" s="2"/>
-      <c r="DG3" s="2"/>
-      <c r="DH3" s="2"/>
-      <c r="DI3" s="2"/>
-      <c r="DJ3" s="2"/>
-      <c r="DK3" s="2"/>
-      <c r="DL3" s="2"/>
-      <c r="DM3" s="2"/>
-      <c r="DN3" s="2"/>
-      <c r="DO3" s="2"/>
-      <c r="DP3" s="2"/>
-      <c r="DQ3" s="2"/>
-      <c r="DR3" s="2"/>
-      <c r="DS3" s="2"/>
-      <c r="DT3" s="2"/>
-      <c r="DU3" s="2"/>
-      <c r="DV3" s="2"/>
-      <c r="DW3" s="2"/>
-      <c r="DX3" s="2"/>
-      <c r="DY3" s="2"/>
-      <c r="DZ3" s="2"/>
-      <c r="EA3" s="2"/>
-      <c r="EB3" s="2"/>
-      <c r="EC3" s="2"/>
-      <c r="ED3" s="2"/>
-      <c r="EE3" s="2"/>
-      <c r="EF3" s="2"/>
-      <c r="EG3" s="2"/>
-      <c r="EH3" s="2"/>
-      <c r="EI3" s="2"/>
-      <c r="EJ3" s="2"/>
-      <c r="EK3" s="2"/>
-      <c r="EL3" s="2"/>
-      <c r="EM3" s="2"/>
-      <c r="EN3" s="2"/>
-      <c r="EO3" s="2"/>
-      <c r="EP3" s="2"/>
-      <c r="EQ3" s="2"/>
-      <c r="ER3" s="2"/>
-      <c r="ES3" s="2"/>
-      <c r="ET3" s="2"/>
-      <c r="EU3" s="2"/>
-      <c r="EV3" s="2"/>
-      <c r="EW3" s="2"/>
-      <c r="EX3" s="2"/>
-      <c r="EY3" s="2"/>
-      <c r="EZ3" s="2"/>
-      <c r="FA3" s="2"/>
-      <c r="FB3" s="2"/>
-      <c r="FC3" s="2"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
-      <c r="C4" s="10">
-        <v>303.2</v>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15">
+        <v>397</v>
       </c>
-      <c r="D4" s="10">
-        <v>460.4</v>
+      <c r="Q4" s="15">
+        <v>378</v>
       </c>
-      <c r="E4" s="10">
-        <v>280.7</v>
+      <c r="R4" s="15">
+        <v>360</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>283.2</v>
-      </c>
-      <c r="H4" s="10">
-        <v>416.4</v>
-      </c>
-      <c r="I4" s="10">
-        <v>244.9</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="2"/>
-      <c r="BL4" s="2"/>
-      <c r="BM4" s="2"/>
-      <c r="BN4" s="2"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
-      <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="2"/>
-      <c r="CR4" s="2"/>
-      <c r="CS4" s="2"/>
-      <c r="CT4" s="2"/>
-      <c r="CU4" s="2"/>
-      <c r="CV4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="2"/>
-      <c r="CY4" s="2"/>
-      <c r="CZ4" s="2"/>
-      <c r="DA4" s="2"/>
-      <c r="DB4" s="2"/>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
-      <c r="DF4" s="2"/>
-      <c r="DG4" s="2"/>
-      <c r="DH4" s="2"/>
-      <c r="DI4" s="2"/>
-      <c r="DJ4" s="2"/>
-      <c r="DK4" s="2"/>
-      <c r="DL4" s="2"/>
-      <c r="DM4" s="2"/>
-      <c r="DN4" s="2"/>
-      <c r="DO4" s="2"/>
-      <c r="DP4" s="2"/>
-      <c r="DQ4" s="2"/>
-      <c r="DR4" s="2"/>
-      <c r="DS4" s="2"/>
-      <c r="DT4" s="2"/>
-      <c r="DU4" s="2"/>
-      <c r="DV4" s="2"/>
-      <c r="DW4" s="2"/>
-      <c r="DX4" s="2"/>
-      <c r="DY4" s="2"/>
-      <c r="DZ4" s="2"/>
-      <c r="EA4" s="2"/>
-      <c r="EB4" s="2"/>
-      <c r="EC4" s="2"/>
-      <c r="ED4" s="2"/>
-      <c r="EE4" s="2"/>
-      <c r="EF4" s="2"/>
-      <c r="EG4" s="2"/>
-      <c r="EH4" s="2"/>
-      <c r="EI4" s="2"/>
-      <c r="EJ4" s="2"/>
-      <c r="EK4" s="2"/>
-      <c r="EL4" s="2"/>
-      <c r="EM4" s="2"/>
-      <c r="EN4" s="2"/>
-      <c r="EO4" s="2"/>
-      <c r="EP4" s="2"/>
-      <c r="EQ4" s="2"/>
-      <c r="ER4" s="2"/>
-      <c r="ES4" s="2"/>
-      <c r="ET4" s="2"/>
-      <c r="EU4" s="2"/>
-      <c r="EV4" s="2"/>
-      <c r="EW4" s="2"/>
-      <c r="EX4" s="2"/>
-      <c r="EY4" s="2"/>
-      <c r="EZ4" s="2"/>
-      <c r="FA4" s="2"/>
-      <c r="FB4" s="2"/>
-      <c r="FC4" s="2"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
-      <c r="C5" s="10">
-        <v>52.6</v>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15">
+        <v>93</v>
       </c>
-      <c r="D5" s="10">
-        <v>82.2</v>
+      <c r="Q5" s="15">
+        <v>94</v>
       </c>
-      <c r="E5" s="10">
-        <v>56.1</v>
+      <c r="R5" s="15">
+        <v>80</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>53.7</v>
-      </c>
-      <c r="H5" s="10">
-        <v>69.7</v>
-      </c>
-      <c r="I5" s="10">
-        <v>46.2</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
-      <c r="BA5" s="2"/>
-      <c r="BB5" s="2"/>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
-      <c r="BK5" s="2"/>
-      <c r="BL5" s="2"/>
-      <c r="BM5" s="2"/>
-      <c r="BN5" s="2"/>
-      <c r="BO5" s="2"/>
-      <c r="BP5" s="2"/>
-      <c r="BQ5" s="2"/>
-      <c r="BR5" s="2"/>
-      <c r="BS5" s="2"/>
-      <c r="BT5" s="2"/>
-      <c r="BU5" s="2"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2"/>
-      <c r="CJ5" s="2"/>
-      <c r="CK5" s="2"/>
-      <c r="CL5" s="2"/>
-      <c r="CM5" s="2"/>
-      <c r="CN5" s="2"/>
-      <c r="CO5" s="2"/>
-      <c r="CP5" s="2"/>
-      <c r="CQ5" s="2"/>
-      <c r="CR5" s="2"/>
-      <c r="CS5" s="2"/>
-      <c r="CT5" s="2"/>
-      <c r="CU5" s="2"/>
-      <c r="CV5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2"/>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="2"/>
-      <c r="DA5" s="2"/>
-      <c r="DB5" s="2"/>
-      <c r="DC5" s="2"/>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="2"/>
-      <c r="DF5" s="2"/>
-      <c r="DG5" s="2"/>
-      <c r="DH5" s="2"/>
-      <c r="DI5" s="2"/>
-      <c r="DJ5" s="2"/>
-      <c r="DK5" s="2"/>
-      <c r="DL5" s="2"/>
-      <c r="DM5" s="2"/>
-      <c r="DN5" s="2"/>
-      <c r="DO5" s="2"/>
-      <c r="DP5" s="2"/>
-      <c r="DQ5" s="2"/>
-      <c r="DR5" s="2"/>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="2"/>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="2"/>
-      <c r="DW5" s="2"/>
-      <c r="DX5" s="2"/>
-      <c r="DY5" s="2"/>
-      <c r="DZ5" s="2"/>
-      <c r="EA5" s="2"/>
-      <c r="EB5" s="2"/>
-      <c r="EC5" s="2"/>
-      <c r="ED5" s="2"/>
-      <c r="EE5" s="2"/>
-      <c r="EF5" s="2"/>
-      <c r="EG5" s="2"/>
-      <c r="EH5" s="2"/>
-      <c r="EI5" s="2"/>
-      <c r="EJ5" s="2"/>
-      <c r="EK5" s="2"/>
-      <c r="EL5" s="2"/>
-      <c r="EM5" s="2"/>
-      <c r="EN5" s="2"/>
-      <c r="EO5" s="2"/>
-      <c r="EP5" s="2"/>
-      <c r="EQ5" s="2"/>
-      <c r="ER5" s="2"/>
-      <c r="ES5" s="2"/>
-      <c r="ET5" s="2"/>
-      <c r="EU5" s="2"/>
-      <c r="EV5" s="2"/>
-      <c r="EW5" s="2"/>
-      <c r="EX5" s="2"/>
-      <c r="EY5" s="2"/>
-      <c r="EZ5" s="2"/>
-      <c r="FA5" s="2"/>
-      <c r="FB5" s="2"/>
-      <c r="FC5" s="2"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+      <c r="B6" t="s">
+        <v>48</v>
       </c>
-      <c r="C6" s="11">
-        <v>1513.2</v>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15">
+        <v>571</v>
       </c>
-      <c r="D6" s="11">
-        <v>2084.5</v>
+      <c r="Q6" s="15">
+        <v>555</v>
       </c>
-      <c r="E6" s="11">
-        <v>1482.4</v>
+      <c r="R6" s="15">
+        <v>541</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11">
-        <v>1507.5</v>
-      </c>
-      <c r="H6" s="11">
-        <v>2195.4</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1584.6</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
-      <c r="BA6" s="2"/>
-      <c r="BB6" s="2"/>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
-      <c r="BK6" s="2"/>
-      <c r="BL6" s="2"/>
-      <c r="BM6" s="2"/>
-      <c r="BN6" s="2"/>
-      <c r="BO6" s="2"/>
-      <c r="BP6" s="2"/>
-      <c r="BQ6" s="2"/>
-      <c r="BR6" s="2"/>
-      <c r="BS6" s="2"/>
-      <c r="BT6" s="2"/>
-      <c r="BU6" s="2"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
-      <c r="CH6" s="2"/>
-      <c r="CI6" s="2"/>
-      <c r="CJ6" s="2"/>
-      <c r="CK6" s="2"/>
-      <c r="CL6" s="2"/>
-      <c r="CM6" s="2"/>
-      <c r="CN6" s="2"/>
-      <c r="CO6" s="2"/>
-      <c r="CP6" s="2"/>
-      <c r="CQ6" s="2"/>
-      <c r="CR6" s="2"/>
-      <c r="CS6" s="2"/>
-      <c r="CT6" s="2"/>
-      <c r="CU6" s="2"/>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="2"/>
-      <c r="CY6" s="2"/>
-      <c r="CZ6" s="2"/>
-      <c r="DA6" s="2"/>
-      <c r="DB6" s="2"/>
-      <c r="DC6" s="2"/>
-      <c r="DD6" s="2"/>
-      <c r="DE6" s="2"/>
-      <c r="DF6" s="2"/>
-      <c r="DG6" s="2"/>
-      <c r="DH6" s="2"/>
-      <c r="DI6" s="2"/>
-      <c r="DJ6" s="2"/>
-      <c r="DK6" s="2"/>
-      <c r="DL6" s="2"/>
-      <c r="DM6" s="2"/>
-      <c r="DN6" s="2"/>
-      <c r="DO6" s="2"/>
-      <c r="DP6" s="2"/>
-      <c r="DQ6" s="2"/>
-      <c r="DR6" s="2"/>
-      <c r="DS6" s="2"/>
-      <c r="DT6" s="2"/>
-      <c r="DU6" s="2"/>
-      <c r="DV6" s="2"/>
-      <c r="DW6" s="2"/>
-      <c r="DX6" s="2"/>
-      <c r="DY6" s="2"/>
-      <c r="DZ6" s="2"/>
-      <c r="EA6" s="2"/>
-      <c r="EB6" s="2"/>
-      <c r="EC6" s="2"/>
-      <c r="ED6" s="2"/>
-      <c r="EE6" s="2"/>
-      <c r="EF6" s="2"/>
-      <c r="EG6" s="2"/>
-      <c r="EH6" s="2"/>
-      <c r="EI6" s="2"/>
-      <c r="EJ6" s="2"/>
-      <c r="EK6" s="2"/>
-      <c r="EL6" s="2"/>
-      <c r="EM6" s="2"/>
-      <c r="EN6" s="2"/>
-      <c r="EO6" s="2"/>
-      <c r="EP6" s="2"/>
-      <c r="EQ6" s="2"/>
-      <c r="ER6" s="2"/>
-      <c r="ES6" s="2"/>
-      <c r="ET6" s="2"/>
-      <c r="EU6" s="2"/>
-      <c r="EV6" s="2"/>
-      <c r="EW6" s="2"/>
-      <c r="EX6" s="2"/>
-      <c r="EY6" s="2"/>
-      <c r="EZ6" s="2"/>
-      <c r="FA6" s="2"/>
-      <c r="FB6" s="2"/>
-      <c r="FC6" s="2"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
-      <c r="C7" s="10">
-        <v>415.5</v>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15">
+        <v>858</v>
       </c>
-      <c r="D7" s="10">
-        <v>591.29999999999995</v>
+      <c r="Q7" s="15">
+        <v>847</v>
       </c>
-      <c r="E7" s="10">
-        <v>375</v>
+      <c r="R7" s="15">
+        <v>830</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>372.6</v>
-      </c>
-      <c r="H7" s="10">
-        <v>562.29999999999995</v>
-      </c>
-      <c r="I7" s="10">
-        <v>378.8</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
-      <c r="AL7" s="2"/>
-      <c r="AM7" s="2"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
-      <c r="AP7" s="2"/>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2"/>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2"/>
-      <c r="AW7" s="2"/>
-      <c r="AX7" s="2"/>
-      <c r="AY7" s="2"/>
-      <c r="AZ7" s="2"/>
-      <c r="BA7" s="2"/>
-      <c r="BB7" s="2"/>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
-      <c r="BK7" s="2"/>
-      <c r="BL7" s="2"/>
-      <c r="BM7" s="2"/>
-      <c r="BN7" s="2"/>
-      <c r="BO7" s="2"/>
-      <c r="BP7" s="2"/>
-      <c r="BQ7" s="2"/>
-      <c r="BR7" s="2"/>
-      <c r="BS7" s="2"/>
-      <c r="BT7" s="2"/>
-      <c r="BU7" s="2"/>
-      <c r="BV7" s="2"/>
-      <c r="BW7" s="2"/>
-      <c r="BX7" s="2"/>
-      <c r="BY7" s="2"/>
-      <c r="BZ7" s="2"/>
-      <c r="CA7" s="2"/>
-      <c r="CB7" s="2"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="2"/>
-      <c r="CI7" s="2"/>
-      <c r="CJ7" s="2"/>
-      <c r="CK7" s="2"/>
-      <c r="CL7" s="2"/>
-      <c r="CM7" s="2"/>
-      <c r="CN7" s="2"/>
-      <c r="CO7" s="2"/>
-      <c r="CP7" s="2"/>
-      <c r="CQ7" s="2"/>
-      <c r="CR7" s="2"/>
-      <c r="CS7" s="2"/>
-      <c r="CT7" s="2"/>
-      <c r="CU7" s="2"/>
-      <c r="CV7" s="2"/>
-      <c r="CW7" s="2"/>
-      <c r="CX7" s="2"/>
-      <c r="CY7" s="2"/>
-      <c r="CZ7" s="2"/>
-      <c r="DA7" s="2"/>
-      <c r="DB7" s="2"/>
-      <c r="DC7" s="2"/>
-      <c r="DD7" s="2"/>
-      <c r="DE7" s="2"/>
-      <c r="DF7" s="2"/>
-      <c r="DG7" s="2"/>
-      <c r="DH7" s="2"/>
-      <c r="DI7" s="2"/>
-      <c r="DJ7" s="2"/>
-      <c r="DK7" s="2"/>
-      <c r="DL7" s="2"/>
-      <c r="DM7" s="2"/>
-      <c r="DN7" s="2"/>
-      <c r="DO7" s="2"/>
-      <c r="DP7" s="2"/>
-      <c r="DQ7" s="2"/>
-      <c r="DR7" s="2"/>
-      <c r="DS7" s="2"/>
-      <c r="DT7" s="2"/>
-      <c r="DU7" s="2"/>
-      <c r="DV7" s="2"/>
-      <c r="DW7" s="2"/>
-      <c r="DX7" s="2"/>
-      <c r="DY7" s="2"/>
-      <c r="DZ7" s="2"/>
-      <c r="EA7" s="2"/>
-      <c r="EB7" s="2"/>
-      <c r="EC7" s="2"/>
-      <c r="ED7" s="2"/>
-      <c r="EE7" s="2"/>
-      <c r="EF7" s="2"/>
-      <c r="EG7" s="2"/>
-      <c r="EH7" s="2"/>
-      <c r="EI7" s="2"/>
-      <c r="EJ7" s="2"/>
-      <c r="EK7" s="2"/>
-      <c r="EL7" s="2"/>
-      <c r="EM7" s="2"/>
-      <c r="EN7" s="2"/>
-      <c r="EO7" s="2"/>
-      <c r="EP7" s="2"/>
-      <c r="EQ7" s="2"/>
-      <c r="ER7" s="2"/>
-      <c r="ES7" s="2"/>
-      <c r="ET7" s="2"/>
-      <c r="EU7" s="2"/>
-      <c r="EV7" s="2"/>
-      <c r="EW7" s="2"/>
-      <c r="EX7" s="2"/>
-      <c r="EY7" s="2"/>
-      <c r="EZ7" s="2"/>
-      <c r="FA7" s="2"/>
-      <c r="FB7" s="2"/>
-      <c r="FC7" s="2"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
       </c>
-      <c r="C8" s="10">
-        <f t="shared" ref="C8:F8" si="0">+C6-C7</f>
-        <v>1097.7</v>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17">
+        <f t="shared" ref="L8:Q8" si="0">+L6+L7</f>
+        <v>0</v>
       </c>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>1493.2</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
-        <v>1107.4000000000001</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="M8" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="10">
-        <f>+G6-G7</f>
-        <v>1134.9000000000001</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" ref="H8:J8" si="1">+H6-H7</f>
-        <v>1633.1000000000001</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="1"/>
-        <v>1205.8</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="1"/>
+      <c r="N8" s="17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="2"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2"/>
-      <c r="AW8" s="2"/>
-      <c r="AX8" s="2"/>
-      <c r="AY8" s="2"/>
-      <c r="AZ8" s="2"/>
-      <c r="BA8" s="2"/>
-      <c r="BB8" s="2"/>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
-      <c r="BK8" s="2"/>
-      <c r="BL8" s="2"/>
-      <c r="BM8" s="2"/>
-      <c r="BN8" s="2"/>
-      <c r="BO8" s="2"/>
-      <c r="BP8" s="2"/>
-      <c r="BQ8" s="2"/>
-      <c r="BR8" s="2"/>
-      <c r="BS8" s="2"/>
-      <c r="BT8" s="2"/>
-      <c r="BU8" s="2"/>
-      <c r="BV8" s="2"/>
-      <c r="BW8" s="2"/>
-      <c r="BX8" s="2"/>
-      <c r="BY8" s="2"/>
-      <c r="BZ8" s="2"/>
-      <c r="CA8" s="2"/>
-      <c r="CB8" s="2"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="2"/>
-      <c r="CJ8" s="2"/>
-      <c r="CK8" s="2"/>
-      <c r="CL8" s="2"/>
-      <c r="CM8" s="2"/>
-      <c r="CN8" s="2"/>
-      <c r="CO8" s="2"/>
-      <c r="CP8" s="2"/>
-      <c r="CQ8" s="2"/>
-      <c r="CR8" s="2"/>
-      <c r="CS8" s="2"/>
-      <c r="CT8" s="2"/>
-      <c r="CU8" s="2"/>
-      <c r="CV8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="2"/>
-      <c r="CY8" s="2"/>
-      <c r="CZ8" s="2"/>
-      <c r="DA8" s="2"/>
-      <c r="DB8" s="2"/>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="2"/>
-      <c r="DE8" s="2"/>
-      <c r="DF8" s="2"/>
-      <c r="DG8" s="2"/>
-      <c r="DH8" s="2"/>
-      <c r="DI8" s="2"/>
-      <c r="DJ8" s="2"/>
-      <c r="DK8" s="2"/>
-      <c r="DL8" s="2"/>
-      <c r="DM8" s="2"/>
-      <c r="DN8" s="2"/>
-      <c r="DO8" s="2"/>
-      <c r="DP8" s="2"/>
-      <c r="DQ8" s="2"/>
-      <c r="DR8" s="2"/>
-      <c r="DS8" s="2"/>
-      <c r="DT8" s="2"/>
-      <c r="DU8" s="2"/>
-      <c r="DV8" s="2"/>
-      <c r="DW8" s="2"/>
-      <c r="DX8" s="2"/>
-      <c r="DY8" s="2"/>
-      <c r="DZ8" s="2"/>
-      <c r="EA8" s="2"/>
-      <c r="EB8" s="2"/>
-      <c r="EC8" s="2"/>
-      <c r="ED8" s="2"/>
-      <c r="EE8" s="2"/>
-      <c r="EF8" s="2"/>
-      <c r="EG8" s="2"/>
-      <c r="EH8" s="2"/>
-      <c r="EI8" s="2"/>
-      <c r="EJ8" s="2"/>
-      <c r="EK8" s="2"/>
-      <c r="EL8" s="2"/>
-      <c r="EM8" s="2"/>
-      <c r="EN8" s="2"/>
-      <c r="EO8" s="2"/>
-      <c r="EP8" s="2"/>
-      <c r="EQ8" s="2"/>
-      <c r="ER8" s="2"/>
-      <c r="ES8" s="2"/>
-      <c r="ET8" s="2"/>
-      <c r="EU8" s="2"/>
-      <c r="EV8" s="2"/>
-      <c r="EW8" s="2"/>
-      <c r="EX8" s="2"/>
-      <c r="EY8" s="2"/>
-      <c r="EZ8" s="2"/>
-      <c r="FA8" s="2"/>
-      <c r="FB8" s="2"/>
-      <c r="FC8" s="2"/>
+      <c r="O8" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="17">
+        <f t="shared" si="0"/>
+        <v>1429</v>
+      </c>
+      <c r="Q8" s="17">
+        <f t="shared" si="0"/>
+        <v>1402</v>
+      </c>
+      <c r="R8" s="17">
+        <f>+R6+R7</f>
+        <v>1371</v>
+      </c>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="10">
-        <v>844.5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1045.5999999999999</v>
-      </c>
-      <c r="E9" s="10">
-        <v>903.1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>882.9</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1140.3</v>
-      </c>
-      <c r="I9" s="10">
-        <v>952.1</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
-      <c r="AL9" s="2"/>
-      <c r="AM9" s="2"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2"/>
-      <c r="AW9" s="2"/>
-      <c r="AX9" s="2"/>
-      <c r="AY9" s="2"/>
-      <c r="AZ9" s="2"/>
-      <c r="BA9" s="2"/>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
-      <c r="BK9" s="2"/>
-      <c r="BL9" s="2"/>
-      <c r="BM9" s="2"/>
-      <c r="BN9" s="2"/>
-      <c r="BO9" s="2"/>
-      <c r="BP9" s="2"/>
-      <c r="BQ9" s="2"/>
-      <c r="BR9" s="2"/>
-      <c r="BS9" s="2"/>
-      <c r="BT9" s="2"/>
-      <c r="BU9" s="2"/>
-      <c r="BV9" s="2"/>
-      <c r="BW9" s="2"/>
-      <c r="BX9" s="2"/>
-      <c r="BY9" s="2"/>
-      <c r="BZ9" s="2"/>
-      <c r="CA9" s="2"/>
-      <c r="CB9" s="2"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CL9" s="2"/>
-      <c r="CM9" s="2"/>
-      <c r="CN9" s="2"/>
-      <c r="CO9" s="2"/>
-      <c r="CP9" s="2"/>
-      <c r="CQ9" s="2"/>
-      <c r="CR9" s="2"/>
-      <c r="CS9" s="2"/>
-      <c r="CT9" s="2"/>
-      <c r="CU9" s="2"/>
-      <c r="CV9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
-      <c r="DF9" s="2"/>
-      <c r="DG9" s="2"/>
-      <c r="DH9" s="2"/>
-      <c r="DI9" s="2"/>
-      <c r="DJ9" s="2"/>
-      <c r="DK9" s="2"/>
-      <c r="DL9" s="2"/>
-      <c r="DM9" s="2"/>
-      <c r="DN9" s="2"/>
-      <c r="DO9" s="2"/>
-      <c r="DP9" s="2"/>
-      <c r="DQ9" s="2"/>
-      <c r="DR9" s="2"/>
-      <c r="DS9" s="2"/>
-      <c r="DT9" s="2"/>
-      <c r="DU9" s="2"/>
-      <c r="DV9" s="2"/>
-      <c r="DW9" s="2"/>
-      <c r="DX9" s="2"/>
-      <c r="DY9" s="2"/>
-      <c r="DZ9" s="2"/>
-      <c r="EA9" s="2"/>
-      <c r="EB9" s="2"/>
-      <c r="EC9" s="2"/>
-      <c r="ED9" s="2"/>
-      <c r="EE9" s="2"/>
-      <c r="EF9" s="2"/>
-      <c r="EG9" s="2"/>
-      <c r="EH9" s="2"/>
-      <c r="EI9" s="2"/>
-      <c r="EJ9" s="2"/>
-      <c r="EK9" s="2"/>
-      <c r="EL9" s="2"/>
-      <c r="EM9" s="2"/>
-      <c r="EN9" s="2"/>
-      <c r="EO9" s="2"/>
-      <c r="EP9" s="2"/>
-      <c r="EQ9" s="2"/>
-      <c r="ER9" s="2"/>
-      <c r="ES9" s="2"/>
-      <c r="ET9" s="2"/>
-      <c r="EU9" s="2"/>
-      <c r="EV9" s="2"/>
-      <c r="EW9" s="2"/>
-      <c r="EX9" s="2"/>
-      <c r="EY9" s="2"/>
-      <c r="EZ9" s="2"/>
-      <c r="FA9" s="2"/>
-      <c r="FB9" s="2"/>
-      <c r="FC9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C10" s="10">
-        <f t="shared" ref="C10:F10" si="2">+C8-C9</f>
-        <v>253.20000000000005</v>
+        <v>1157.4000000000001</v>
       </c>
       <c r="D10" s="10">
-        <f t="shared" si="2"/>
-        <v>447.60000000000014</v>
+        <v>1541.9</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="2"/>
-        <v>204.30000000000007</v>
+        <v>1145.5999999999999</v>
       </c>
       <c r="F10" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>+Q10-SUM(C10:E10)</f>
+        <v>1250.4000000000001</v>
       </c>
       <c r="G10" s="10">
-        <f>+G8-G9</f>
-        <v>252.00000000000011</v>
+        <v>1170.5999999999999</v>
       </c>
       <c r="H10" s="10">
-        <f t="shared" ref="H10:J10" si="3">+H8-H9</f>
-        <v>492.80000000000018</v>
+        <v>1709.3</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" si="3"/>
-        <v>253.69999999999993</v>
+        <v>1293.5</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>+R10-SUM(G10:I10)</f>
+        <v>1425.1000000000004</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="P10" s="2">
+        <v>4960.3999999999996</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>5095.3</v>
+      </c>
+      <c r="R10" s="2">
+        <v>5598.5</v>
+      </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -2178,37 +1275,48 @@
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C11" s="10">
-        <v>13.3</v>
+        <v>303.2</v>
       </c>
       <c r="D11" s="10">
-        <v>49.2</v>
+        <v>460.4</v>
       </c>
       <c r="E11" s="10">
-        <v>32</v>
+        <v>280.7</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:F21" si="1">+Q11-SUM(C11:E11)</f>
+        <v>290.10000000000014</v>
+      </c>
       <c r="G11" s="10">
-        <v>30.7</v>
+        <v>283.2</v>
       </c>
       <c r="H11" s="10">
-        <f>120.1+24.5</f>
-        <v>144.6</v>
+        <v>416.4</v>
       </c>
       <c r="I11" s="10">
-        <v>15.4</v>
+        <v>244.9</v>
       </c>
-      <c r="J11" s="10"/>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11:J21" si="2">+R11-SUM(G11:I11)</f>
+        <v>252.60000000000002</v>
+      </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
+      <c r="P11" s="2">
+        <v>1418.9</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>1334.4</v>
+      </c>
+      <c r="R11" s="2">
+        <v>1197.0999999999999</v>
+      </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
@@ -2353,36 +1461,48 @@
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C12" s="10">
-        <v>1.4</v>
+        <v>52.6</v>
       </c>
       <c r="D12" s="10">
-        <v>-4.7</v>
+        <v>82.2</v>
       </c>
       <c r="E12" s="10">
-        <v>2.8</v>
+        <v>56.1</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
+        <v>50.599999999999994</v>
+      </c>
       <c r="G12" s="10">
-        <v>-4.4000000000000004</v>
+        <v>53.7</v>
       </c>
       <c r="H12" s="10">
-        <v>2.9</v>
+        <v>69.7</v>
       </c>
       <c r="I12" s="10">
-        <v>-0.8</v>
+        <v>46.2</v>
       </c>
-      <c r="J12" s="10"/>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>45.499999999999972</v>
+      </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
+      <c r="P12" s="2">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>241.5</v>
+      </c>
+      <c r="R12" s="2">
+        <v>215.1</v>
+      </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
@@ -2526,49 +1646,49 @@
       <c r="FC12" s="2"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
       </c>
-      <c r="C13" s="10">
-        <f t="shared" ref="C13:F13" si="4">+C10-SUM(C11:C12)</f>
-        <v>238.50000000000006</v>
+      <c r="C13" s="11">
+        <v>1513.2</v>
       </c>
-      <c r="D13" s="10">
-        <f t="shared" si="4"/>
-        <v>403.10000000000014</v>
+      <c r="D13" s="11">
+        <v>2084.5</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="4"/>
-        <v>169.50000000000006</v>
+      <c r="E13" s="11">
+        <v>1482.4</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="F13" s="11">
+        <f t="shared" si="1"/>
+        <v>1591.0999999999995</v>
       </c>
-      <c r="G13" s="10">
-        <f>+G10-SUM(G11:G12)</f>
-        <v>225.7000000000001</v>
+      <c r="G13" s="11">
+        <v>1507.5</v>
       </c>
-      <c r="H13" s="10">
-        <f t="shared" ref="H13:J13" si="5">+H10-SUM(H11:H12)</f>
-        <v>345.30000000000018</v>
+      <c r="H13" s="11">
+        <v>2195.4</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="5"/>
-        <v>239.09999999999994</v>
+      <c r="I13" s="11">
+        <v>1584.6</v>
       </c>
-      <c r="J13" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="J13" s="11">
+        <f t="shared" si="2"/>
+        <v>1723.1999999999998</v>
       </c>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6">
+        <v>6660.9</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>6671.2</v>
+      </c>
+      <c r="R13" s="6">
+        <v>7010.7</v>
+      </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -2713,36 +1833,48 @@
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" s="10">
-        <v>43.5</v>
+        <v>415.5</v>
       </c>
       <c r="D14" s="10">
-        <v>80.8</v>
+        <v>591.29999999999995</v>
       </c>
       <c r="E14" s="10">
-        <v>30.1</v>
+        <v>375</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
+        <v>399.90000000000009</v>
+      </c>
       <c r="G14" s="10">
-        <v>39.1</v>
+        <v>372.6</v>
       </c>
       <c r="H14" s="10">
-        <v>34.9</v>
+        <v>562.29999999999995</v>
       </c>
       <c r="I14" s="10">
-        <v>35.799999999999997</v>
+        <v>378.8</v>
       </c>
-      <c r="J14" s="10"/>
+      <c r="J14" s="10">
+        <f t="shared" si="2"/>
+        <v>408.09999999999991</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="P14" s="2">
+        <v>1946</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1781.7</v>
+      </c>
+      <c r="R14" s="2">
+        <v>1721.8</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
@@ -2887,48 +2019,69 @@
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" ref="C15:F15" si="6">+C13-C14</f>
-        <v>195.00000000000006</v>
+        <f t="shared" ref="C15:F15" si="3">+C13-C14</f>
+        <v>1097.7</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="6"/>
-        <v>322.30000000000013</v>
+        <f t="shared" si="3"/>
+        <v>1493.2</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="6"/>
-        <v>139.40000000000006</v>
+        <f t="shared" si="3"/>
+        <v>1107.4000000000001</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1191.1999999999994</v>
       </c>
       <c r="G15" s="10">
         <f>+G13-G14</f>
-        <v>186.60000000000011</v>
+        <v>1134.9000000000001</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" ref="H15:J15" si="7">+H13-H14</f>
-        <v>310.4000000000002</v>
+        <f t="shared" ref="H15:R15" si="4">+H13-H14</f>
+        <v>1633.1000000000001</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="7"/>
-        <v>203.29999999999995</v>
+        <f t="shared" si="4"/>
+        <v>1205.8</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
+        <v>1315.1</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
+      <c r="M15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="4"/>
+        <v>4714.8999999999996</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="4"/>
+        <v>4889.5</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="4"/>
+        <v>5288.9</v>
+      </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
@@ -3072,22 +2225,50 @@
       <c r="FC15" s="2"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="10">
+        <v>844.5</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1045.5999999999999</v>
+      </c>
+      <c r="E16" s="10">
+        <v>903.1</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
+        <v>956.20000000000027</v>
+      </c>
+      <c r="G16" s="10">
+        <v>882.9</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1140.3</v>
+      </c>
+      <c r="I16" s="10">
+        <v>952.1</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="2"/>
+        <v>1898.6</v>
+      </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
+      <c r="P16" s="2">
+        <v>3542.5</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>3749.4</v>
+      </c>
+      <c r="R16" s="2">
+        <f>4019.1+854.8</f>
+        <v>4873.8999999999996</v>
+      </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
@@ -3232,48 +2413,69 @@
     </row>
     <row r="17" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
-      <c r="C17" s="9">
-        <f t="shared" ref="C17:F17" si="8">+C15/C18</f>
-        <v>0.85413929040735892</v>
+      <c r="C17" s="10">
+        <f t="shared" ref="C17:F17" si="5">+C15-C16</f>
+        <v>253.20000000000005</v>
       </c>
-      <c r="D17" s="9">
-        <f t="shared" si="8"/>
-        <v>1.405582206716093</v>
+      <c r="D17" s="10">
+        <f t="shared" si="5"/>
+        <v>447.60000000000014</v>
       </c>
-      <c r="E17" s="9">
-        <f t="shared" si="8"/>
-        <v>0.60740740740740773</v>
+      <c r="E17" s="10">
+        <f t="shared" si="5"/>
+        <v>204.30000000000007</v>
       </c>
-      <c r="F17" s="9" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>234.99999999999909</v>
       </c>
-      <c r="G17" s="9">
-        <f>+G15/G18</f>
-        <v>0.80604751619870452</v>
+      <c r="G17" s="10">
+        <f>+G15-G16</f>
+        <v>252.00000000000011</v>
       </c>
-      <c r="H17" s="9">
-        <f t="shared" ref="H17:J17" si="9">+H15/H18</f>
-        <v>1.4115507048658491</v>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17:R17" si="6">+H15-H16</f>
+        <v>492.80000000000018</v>
       </c>
-      <c r="I17" s="9">
-        <f t="shared" si="9"/>
-        <v>0.98070429329474162</v>
+      <c r="I17" s="10">
+        <f t="shared" si="6"/>
+        <v>253.69999999999993</v>
       </c>
-      <c r="J17" s="9" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="J17" s="10">
+        <f t="shared" si="6"/>
+        <v>-583.5</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
+        <f t="shared" si="6"/>
+        <v>1172.3999999999996</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="6"/>
+        <v>1140.0999999999999</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="6"/>
+        <v>415</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -3418,36 +2620,50 @@
     </row>
     <row r="18" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
-      <c r="C18" s="2">
-        <v>228.3</v>
+      <c r="C18" s="10">
+        <v>13.3</v>
       </c>
-      <c r="D18" s="2">
-        <v>229.3</v>
+      <c r="D18" s="10">
+        <v>49.2</v>
       </c>
-      <c r="E18" s="2">
-        <v>229.5</v>
+      <c r="E18" s="10">
+        <v>32</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>231.5</v>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
+        <v>30.5</v>
       </c>
-      <c r="H18" s="2">
-        <v>219.9</v>
+      <c r="G18" s="10">
+        <v>30.7</v>
       </c>
-      <c r="I18" s="2">
-        <v>207.3</v>
+      <c r="H18" s="10">
+        <f>120.1+24.5</f>
+        <v>144.6</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="I18" s="10">
+        <v>15.4</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="2"/>
+        <v>14.800000000000011</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
+      <c r="P18" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>125</v>
+      </c>
+      <c r="R18" s="2">
+        <f>85.4+120.1</f>
+        <v>205.5</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
@@ -3591,22 +2807,49 @@
       <c r="FC18" s="2"/>
     </row>
     <row r="19" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="10">
+        <v>-4.7</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.8</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000006</v>
+      </c>
+      <c r="G19" s="10">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="I19" s="10">
+        <v>-0.8</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="2"/>
+        <v>-4.2999999999999989</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="P19" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>-6.6</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -3751,36 +2994,69 @@
     </row>
     <row r="20" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="12">
-        <f t="shared" ref="G20:H23" si="10">+G3/C3-1</f>
-        <v>1.1404872991187087E-2</v>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:F20" si="7">+C17-SUM(C18:C19)</f>
+        <v>238.50000000000006</v>
       </c>
-      <c r="H20" s="12">
-        <f t="shared" si="10"/>
-        <v>0.10856735196835055</v>
+      <c r="D20" s="10">
+        <f t="shared" si="7"/>
+        <v>403.10000000000014</v>
       </c>
-      <c r="I20" s="12">
-        <f>+I3/E3-1</f>
-        <v>0.12910265363128492</v>
+      <c r="E20" s="10">
+        <f t="shared" si="7"/>
+        <v>169.50000000000006</v>
       </c>
-      <c r="J20" s="12" t="e">
-        <f>+J3/F3-1</f>
-        <v>#DIV/0!</v>
+      <c r="F20" s="10">
+        <f t="shared" si="7"/>
+        <v>200.7999999999991</v>
+      </c>
+      <c r="G20" s="10">
+        <f>+G17-SUM(G18:G19)</f>
+        <v>225.7000000000001</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" ref="H20:R20" si="8">+H17-SUM(H18:H19)</f>
+        <v>345.30000000000018</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="8"/>
+        <v>239.09999999999994</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="8"/>
+        <v>-594</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
+      <c r="L20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <f t="shared" si="8"/>
+        <v>1143.0999999999997</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="8"/>
+        <v>1011.8999999999999</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="8"/>
+        <v>216.1</v>
+      </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
@@ -3925,36 +3201,48 @@
     </row>
     <row r="21" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="12">
-        <f t="shared" si="10"/>
-        <v>-6.5963060686015873E-2</v>
+      <c r="C21" s="10">
+        <v>43.5</v>
       </c>
-      <c r="H21" s="12">
-        <f t="shared" si="10"/>
-        <v>-9.5569070373588194E-2</v>
+      <c r="D21" s="10">
+        <v>80.8</v>
       </c>
-      <c r="I21" s="12">
-        <f t="shared" ref="I21:J23" si="11">+I4/E4-1</f>
-        <v>-0.12753829711435694</v>
+      <c r="E21" s="10">
+        <v>30.1</v>
       </c>
-      <c r="J21" s="12" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
+        <v>41.5</v>
+      </c>
+      <c r="G21" s="10">
+        <v>39.1</v>
+      </c>
+      <c r="H21" s="10">
+        <v>34.9</v>
+      </c>
+      <c r="I21" s="10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" si="2"/>
+        <v>-76.900000000000006</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="P21" s="2">
+        <v>207.1</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>195.9</v>
+      </c>
+      <c r="R21" s="2">
+        <v>32.9</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -4099,36 +3387,69 @@
     </row>
     <row r="22" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="12">
+      <c r="C22" s="10">
+        <f t="shared" ref="C22:F22" si="9">+C20-C21</f>
+        <v>195.00000000000006</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="9"/>
+        <v>322.30000000000013</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="9"/>
+        <v>139.40000000000006</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="9"/>
+        <v>159.2999999999991</v>
+      </c>
+      <c r="G22" s="10">
+        <f>+G20-G21</f>
+        <v>186.60000000000011</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" ref="H22:R22" si="10">+H20-H21</f>
+        <v>310.4000000000002</v>
+      </c>
+      <c r="I22" s="10">
         <f t="shared" si="10"/>
-        <v>2.0912547528517234E-2</v>
+        <v>203.29999999999995</v>
       </c>
-      <c r="H22" s="12">
+      <c r="J22" s="10">
         <f t="shared" si="10"/>
-        <v>-0.15206812652068125</v>
-      </c>
-      <c r="I22" s="12">
-        <f t="shared" si="11"/>
-        <v>-0.17647058823529405</v>
-      </c>
-      <c r="J22" s="12" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
+        <v>-517.1</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
+      <c r="L22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="10"/>
+        <v>935.99999999999966</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="10"/>
+        <v>815.99999999999989</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="10"/>
+        <v>183.2</v>
+      </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
@@ -4272,30 +3593,15 @@
       <c r="FC22" s="2"/>
     </row>
     <row r="23" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="13">
-        <f t="shared" si="10"/>
-        <v>-3.7668517049960215E-3</v>
-      </c>
-      <c r="H23" s="13">
-        <f t="shared" si="10"/>
-        <v>5.3202206764212168E-2</v>
-      </c>
-      <c r="I23" s="13">
-        <f t="shared" si="11"/>
-        <v>6.8942255801403007E-2</v>
-      </c>
-      <c r="J23" s="13" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K23" s="6"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4447,48 +3753,69 @@
     </row>
     <row r="24" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
-      <c r="C24" s="12">
-        <f t="shared" ref="C24:I24" si="12">+C8/C6</f>
-        <v>0.72541633624107849</v>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24:F24" si="11">+C22/C25</f>
+        <v>0.85413929040735892</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
+        <f t="shared" si="11"/>
+        <v>1.405582206716093</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="11"/>
+        <v>0.60740740740740773</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="11"/>
+        <v>0.73477859778597365</v>
+      </c>
+      <c r="G24" s="9">
+        <f>+G22/G25</f>
+        <v>0.80604751619870452</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" ref="H24:J24" si="12">+H22/H25</f>
+        <v>1.4115507048658491</v>
+      </c>
+      <c r="I24" s="9">
         <f t="shared" si="12"/>
-        <v>0.71633485248260975</v>
+        <v>0.98070429329474162</v>
       </c>
-      <c r="E24" s="12">
+      <c r="J24" s="9">
         <f t="shared" si="12"/>
-        <v>0.74703184025903946</v>
+        <v>-2.3851476014760147</v>
       </c>
-      <c r="F24" s="12" t="e">
-        <f t="shared" si="12"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9" t="e">
+        <f t="shared" ref="L24:Q24" si="13">+L22/L25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="12">
-        <f t="shared" si="12"/>
-        <v>0.75283582089552248</v>
-      </c>
-      <c r="H24" s="12">
-        <f t="shared" si="12"/>
-        <v>0.7438735537942972</v>
-      </c>
-      <c r="I24" s="12">
-        <f>+I8/I6</f>
-        <v>0.76094913542849929</v>
-      </c>
-      <c r="J24" s="12" t="e">
-        <f>+J8/J6</f>
+      <c r="M24" s="9" t="e">
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="N24" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" s="9" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="13"/>
+        <v>3.959390862944161</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="13"/>
+        <v>3.5602094240837694</v>
+      </c>
+      <c r="R24" s="9">
+        <f>+R22/R25</f>
+        <v>0.84501845018450172</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -4633,48 +3960,48 @@
     </row>
     <row r="25" spans="2:159" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
-      <c r="C25" s="12">
-        <f t="shared" ref="C25:I25" si="13">+C10/C6</f>
-        <v>0.16732751784298178</v>
+      <c r="C25" s="2">
+        <v>228.3</v>
       </c>
-      <c r="D25" s="12">
-        <f t="shared" si="13"/>
-        <v>0.21472775245862324</v>
+      <c r="D25" s="2">
+        <v>229.3</v>
       </c>
-      <c r="E25" s="12">
-        <f t="shared" si="13"/>
-        <v>0.13781705342687536</v>
+      <c r="E25" s="2">
+        <v>229.5</v>
       </c>
-      <c r="F25" s="12" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="F25" s="2">
+        <f>+J25</f>
+        <v>216.8</v>
       </c>
-      <c r="G25" s="12">
-        <f t="shared" si="13"/>
-        <v>0.1671641791044777</v>
+      <c r="G25" s="2">
+        <v>231.5</v>
       </c>
-      <c r="H25" s="12">
-        <f t="shared" si="13"/>
-        <v>0.22446934499407861</v>
+      <c r="H25" s="2">
+        <v>219.9</v>
       </c>
-      <c r="I25" s="12">
-        <f>+I10/I6</f>
-        <v>0.16010349615044803</v>
+      <c r="I25" s="2">
+        <v>207.3</v>
       </c>
-      <c r="J25" s="12" t="e">
-        <f>+J10/J6</f>
-        <v>#DIV/0!</v>
+      <c r="J25" s="2">
+        <f>+R25</f>
+        <v>216.8</v>
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
+      <c r="P25" s="2">
+        <v>236.4</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>229.2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>216.8</v>
+      </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
@@ -4818,41 +4145,14 @@
       <c r="FC25" s="2"/>
     </row>
     <row r="26" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="12">
-        <f t="shared" ref="C26:I26" si="14">+C14/C13</f>
-        <v>0.1823899371069182</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="14"/>
-        <v>0.20044653932026785</v>
-      </c>
-      <c r="E26" s="12">
-        <f t="shared" si="14"/>
-        <v>0.17758112094395276</v>
-      </c>
-      <c r="F26" s="12" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="14"/>
-        <v>0.1732388125830748</v>
-      </c>
-      <c r="H26" s="12">
-        <f t="shared" si="14"/>
-        <v>0.10107153200115836</v>
-      </c>
-      <c r="I26" s="12">
-        <f>+I14/I13</f>
-        <v>0.14972814721873695</v>
-      </c>
-      <c r="J26" s="12" t="e">
-        <f>+J14/J13</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -5004,6 +4304,9 @@
       <c r="FC26" s="2"/>
     </row>
     <row r="27" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5014,12 +4317,30 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
+      <c r="M27" s="12" t="e">
+        <f t="shared" ref="M27:R27" si="14">+M8/L8-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" s="12" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" s="12">
+        <f t="shared" si="14"/>
+        <v>-1.8894331700489819E-2</v>
+      </c>
+      <c r="R27" s="12">
+        <f>+R8/Q8-1</f>
+        <v>-2.2111269614835893E-2</v>
+      </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
@@ -5163,22 +4484,55 @@
       <c r="FC27" s="2"/>
     </row>
     <row r="28" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="12">
+        <f t="shared" ref="G28:H31" si="15">+G10/C10-1</f>
+        <v>1.1404872991187087E-2</v>
+      </c>
+      <c r="H28" s="12">
+        <f t="shared" si="15"/>
+        <v>0.10856735196835055</v>
+      </c>
+      <c r="I28" s="12">
+        <f>+I10/E10-1</f>
+        <v>0.12910265363128492</v>
+      </c>
+      <c r="J28" s="12">
+        <f>+J10/F10-1</f>
+        <v>0.139715291106846</v>
+      </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
+      <c r="M28" s="12" t="e">
+        <f t="shared" ref="M28:R31" si="16">+M10/L10-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" s="12">
+        <f t="shared" si="16"/>
+        <v>2.7195387468752719E-2</v>
+      </c>
+      <c r="R28" s="12">
+        <f>+R10/Q10-1</f>
+        <v>9.8757678645025715E-2</v>
+      </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -5322,22 +4676,55 @@
       <c r="FC28" s="2"/>
     </row>
     <row r="29" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="G29" s="12">
+        <f t="shared" si="15"/>
+        <v>-6.5963060686015873E-2</v>
+      </c>
+      <c r="H29" s="12">
+        <f t="shared" si="15"/>
+        <v>-9.5569070373588194E-2</v>
+      </c>
+      <c r="I29" s="12">
+        <f t="shared" ref="I29:J31" si="17">+I11/E11-1</f>
+        <v>-0.12753829711435694</v>
+      </c>
+      <c r="J29" s="12">
+        <f t="shared" si="17"/>
+        <v>-0.12926577042399201</v>
+      </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
+      <c r="M29" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" s="12">
+        <f t="shared" si="16"/>
+        <v>-5.9553174994714242E-2</v>
+      </c>
+      <c r="R29" s="12">
+        <f t="shared" ref="R29:R31" si="18">+R11/Q11-1</f>
+        <v>-0.10289268585131905</v>
+      </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -5481,22 +4868,55 @@
       <c r="FC29" s="2"/>
     </row>
     <row r="30" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
+      <c r="G30" s="12">
+        <f t="shared" si="15"/>
+        <v>2.0912547528517234E-2</v>
+      </c>
+      <c r="H30" s="12">
+        <f t="shared" si="15"/>
+        <v>-0.15206812652068125</v>
+      </c>
+      <c r="I30" s="12">
+        <f t="shared" si="17"/>
+        <v>-0.17647058823529405</v>
+      </c>
+      <c r="J30" s="12">
+        <f t="shared" si="17"/>
+        <v>-0.10079051383399251</v>
+      </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
+      <c r="M30" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" s="12" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" s="12">
+        <f t="shared" si="16"/>
+        <v>-0.14240056818181823</v>
+      </c>
+      <c r="R30" s="12">
+        <f t="shared" si="18"/>
+        <v>-0.10931677018633545</v>
+      </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
@@ -5640,22 +5060,55 @@
       <c r="FC30" s="2"/>
     </row>
     <row r="31" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="B31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="13">
+        <f t="shared" si="15"/>
+        <v>-3.7668517049960215E-3</v>
+      </c>
+      <c r="H31" s="13">
+        <f t="shared" si="15"/>
+        <v>5.3202206764212168E-2</v>
+      </c>
+      <c r="I31" s="13">
+        <f t="shared" si="17"/>
+        <v>6.8942255801403007E-2</v>
+      </c>
+      <c r="J31" s="13">
+        <f t="shared" si="17"/>
+        <v>8.3024322795550498E-2</v>
+      </c>
+      <c r="K31" s="6"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
+      <c r="M31" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" s="13" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" s="13">
+        <f t="shared" si="16"/>
+        <v>1.5463375820083947E-3</v>
+      </c>
+      <c r="R31" s="13">
+        <f t="shared" si="18"/>
+        <v>5.0890394531718508E-2</v>
+      </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
@@ -5799,22 +5252,70 @@
       <c r="FC31" s="2"/>
     </row>
     <row r="32" spans="2:159" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:H32" si="19">+C15/C13</f>
+        <v>0.72541633624107849</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" si="19"/>
+        <v>0.71633485248260975</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="19"/>
+        <v>0.74703184025903946</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="19"/>
+        <v>0.74866444598076787</v>
+      </c>
+      <c r="G32" s="12">
+        <f t="shared" si="19"/>
+        <v>0.75283582089552248</v>
+      </c>
+      <c r="H32" s="12">
+        <f t="shared" si="19"/>
+        <v>0.7438735537942972</v>
+      </c>
+      <c r="I32" s="12">
+        <f>+I15/I13</f>
+        <v>0.76094913542849929</v>
+      </c>
+      <c r="J32" s="12">
+        <f>+J15/J13</f>
+        <v>0.76317316620241415</v>
+      </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
+      <c r="L32" s="12" t="e">
+        <f t="shared" ref="L32:R32" si="20">+L15/L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="12" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" s="12" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" s="12" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" s="12">
+        <f t="shared" si="20"/>
+        <v>0.70784728790403695</v>
+      </c>
+      <c r="Q32" s="12">
+        <f t="shared" si="20"/>
+        <v>0.73292660990526448</v>
+      </c>
+      <c r="R32" s="12">
+        <f t="shared" si="20"/>
+        <v>0.75440398248391738</v>
+      </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
@@ -5957,23 +5458,71 @@
       <c r="FB32" s="2"/>
       <c r="FC32" s="2"/>
     </row>
-    <row r="33" spans="3:159" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+    <row r="33" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" ref="C33:H33" si="21">+C17/C13</f>
+        <v>0.16732751784298178</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="21"/>
+        <v>0.21472775245862324</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="21"/>
+        <v>0.13781705342687536</v>
+      </c>
+      <c r="F33" s="12">
+        <f t="shared" si="21"/>
+        <v>0.14769656212682997</v>
+      </c>
+      <c r="G33" s="12">
+        <f t="shared" si="21"/>
+        <v>0.1671641791044777</v>
+      </c>
+      <c r="H33" s="12">
+        <f t="shared" si="21"/>
+        <v>0.22446934499407861</v>
+      </c>
+      <c r="I33" s="12">
+        <f>+I17/I13</f>
+        <v>0.16010349615044803</v>
+      </c>
+      <c r="J33" s="12">
+        <f>+J17/J13</f>
+        <v>-0.33861420612813375</v>
+      </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
+      <c r="L33" s="12" t="e">
+        <f t="shared" ref="L33:R33" si="22">+L17/L13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" s="12" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="22"/>
+        <v>0.17601225059676615</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="22"/>
+        <v>0.17089878882359993</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="22"/>
+        <v>5.9195230148202035E-2</v>
+      </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
@@ -6116,23 +5665,71 @@
       <c r="FB33" s="2"/>
       <c r="FC33" s="2"/>
     </row>
-    <row r="34" spans="3:159" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+    <row r="34" spans="2:159" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" ref="C34:H34" si="23">+C21/C20</f>
+        <v>0.1823899371069182</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" si="23"/>
+        <v>0.20044653932026785</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="23"/>
+        <v>0.17758112094395276</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="23"/>
+        <v>0.20667330677290929</v>
+      </c>
+      <c r="G34" s="12">
+        <f t="shared" si="23"/>
+        <v>0.1732388125830748</v>
+      </c>
+      <c r="H34" s="12">
+        <f t="shared" si="23"/>
+        <v>0.10107153200115836</v>
+      </c>
+      <c r="I34" s="12">
+        <f>+I21/I20</f>
+        <v>0.14972814721873695</v>
+      </c>
+      <c r="J34" s="12">
+        <f>+J21/J20</f>
+        <v>0.12946127946127947</v>
+      </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+      <c r="L34" s="12" t="e">
+        <f t="shared" ref="L34:R34" si="24">+L21/L20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="12" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N34" s="12" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="12" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P34" s="12">
+        <f t="shared" si="24"/>
+        <v>0.1811740005248885</v>
+      </c>
+      <c r="Q34" s="12">
+        <f t="shared" si="24"/>
+        <v>0.19359620515861253</v>
+      </c>
+      <c r="R34" s="12">
+        <f t="shared" si="24"/>
+        <v>0.15224433132808884</v>
+      </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
@@ -6275,7 +5872,7 @@
       <c r="FB34" s="2"/>
       <c r="FC34" s="2"/>
     </row>
-    <row r="35" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -6434,7 +6031,7 @@
       <c r="FB35" s="2"/>
       <c r="FC35" s="2"/>
     </row>
-    <row r="36" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -6593,7 +6190,7 @@
       <c r="FB36" s="2"/>
       <c r="FC36" s="2"/>
     </row>
-    <row r="37" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -6752,7 +6349,7 @@
       <c r="FB37" s="2"/>
       <c r="FC37" s="2"/>
     </row>
-    <row r="38" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -6911,7 +6508,7 @@
       <c r="FB38" s="2"/>
       <c r="FC38" s="2"/>
     </row>
-    <row r="39" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -7070,7 +6667,7 @@
       <c r="FB39" s="2"/>
       <c r="FC39" s="2"/>
     </row>
-    <row r="40" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -7229,7 +6826,7 @@
       <c r="FB40" s="2"/>
       <c r="FC40" s="2"/>
     </row>
-    <row r="41" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -7388,7 +6985,7 @@
       <c r="FB41" s="2"/>
       <c r="FC41" s="2"/>
     </row>
-    <row r="42" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -7547,7 +7144,7 @@
       <c r="FB42" s="2"/>
       <c r="FC42" s="2"/>
     </row>
-    <row r="43" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -7706,7 +7303,7 @@
       <c r="FB43" s="2"/>
       <c r="FC43" s="2"/>
     </row>
-    <row r="44" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -7865,7 +7462,7 @@
       <c r="FB44" s="2"/>
       <c r="FC44" s="2"/>
     </row>
-    <row r="45" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -8024,7 +7621,7 @@
       <c r="FB45" s="2"/>
       <c r="FC45" s="2"/>
     </row>
-    <row r="46" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -8183,7 +7780,7 @@
       <c r="FB46" s="2"/>
       <c r="FC46" s="2"/>
     </row>
-    <row r="47" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -8342,7 +7939,7 @@
       <c r="FB47" s="2"/>
       <c r="FC47" s="2"/>
     </row>
-    <row r="48" spans="3:159" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:159" x14ac:dyDescent="0.25">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -42341,6 +41938,32 @@
       <c r="EA261" s="2"/>
       <c r="EB261" s="2"/>
       <c r="EC261" s="2"/>
+      <c r="ED261" s="2"/>
+      <c r="EE261" s="2"/>
+      <c r="EF261" s="2"/>
+      <c r="EG261" s="2"/>
+      <c r="EH261" s="2"/>
+      <c r="EI261" s="2"/>
+      <c r="EJ261" s="2"/>
+      <c r="EK261" s="2"/>
+      <c r="EL261" s="2"/>
+      <c r="EM261" s="2"/>
+      <c r="EN261" s="2"/>
+      <c r="EO261" s="2"/>
+      <c r="EP261" s="2"/>
+      <c r="EQ261" s="2"/>
+      <c r="ER261" s="2"/>
+      <c r="ES261" s="2"/>
+      <c r="ET261" s="2"/>
+      <c r="EU261" s="2"/>
+      <c r="EV261" s="2"/>
+      <c r="EW261" s="2"/>
+      <c r="EX261" s="2"/>
+      <c r="EY261" s="2"/>
+      <c r="EZ261" s="2"/>
+      <c r="FA261" s="2"/>
+      <c r="FB261" s="2"/>
+      <c r="FC261" s="2"/>
     </row>
     <row r="262" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
@@ -42474,6 +42097,32 @@
       <c r="EA262" s="2"/>
       <c r="EB262" s="2"/>
       <c r="EC262" s="2"/>
+      <c r="ED262" s="2"/>
+      <c r="EE262" s="2"/>
+      <c r="EF262" s="2"/>
+      <c r="EG262" s="2"/>
+      <c r="EH262" s="2"/>
+      <c r="EI262" s="2"/>
+      <c r="EJ262" s="2"/>
+      <c r="EK262" s="2"/>
+      <c r="EL262" s="2"/>
+      <c r="EM262" s="2"/>
+      <c r="EN262" s="2"/>
+      <c r="EO262" s="2"/>
+      <c r="EP262" s="2"/>
+      <c r="EQ262" s="2"/>
+      <c r="ER262" s="2"/>
+      <c r="ES262" s="2"/>
+      <c r="ET262" s="2"/>
+      <c r="EU262" s="2"/>
+      <c r="EV262" s="2"/>
+      <c r="EW262" s="2"/>
+      <c r="EX262" s="2"/>
+      <c r="EY262" s="2"/>
+      <c r="EZ262" s="2"/>
+      <c r="FA262" s="2"/>
+      <c r="FB262" s="2"/>
+      <c r="FC262" s="2"/>
     </row>
     <row r="263" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
@@ -42607,6 +42256,32 @@
       <c r="EA263" s="2"/>
       <c r="EB263" s="2"/>
       <c r="EC263" s="2"/>
+      <c r="ED263" s="2"/>
+      <c r="EE263" s="2"/>
+      <c r="EF263" s="2"/>
+      <c r="EG263" s="2"/>
+      <c r="EH263" s="2"/>
+      <c r="EI263" s="2"/>
+      <c r="EJ263" s="2"/>
+      <c r="EK263" s="2"/>
+      <c r="EL263" s="2"/>
+      <c r="EM263" s="2"/>
+      <c r="EN263" s="2"/>
+      <c r="EO263" s="2"/>
+      <c r="EP263" s="2"/>
+      <c r="EQ263" s="2"/>
+      <c r="ER263" s="2"/>
+      <c r="ES263" s="2"/>
+      <c r="ET263" s="2"/>
+      <c r="EU263" s="2"/>
+      <c r="EV263" s="2"/>
+      <c r="EW263" s="2"/>
+      <c r="EX263" s="2"/>
+      <c r="EY263" s="2"/>
+      <c r="EZ263" s="2"/>
+      <c r="FA263" s="2"/>
+      <c r="FB263" s="2"/>
+      <c r="FC263" s="2"/>
     </row>
     <row r="264" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
@@ -42740,6 +42415,32 @@
       <c r="EA264" s="2"/>
       <c r="EB264" s="2"/>
       <c r="EC264" s="2"/>
+      <c r="ED264" s="2"/>
+      <c r="EE264" s="2"/>
+      <c r="EF264" s="2"/>
+      <c r="EG264" s="2"/>
+      <c r="EH264" s="2"/>
+      <c r="EI264" s="2"/>
+      <c r="EJ264" s="2"/>
+      <c r="EK264" s="2"/>
+      <c r="EL264" s="2"/>
+      <c r="EM264" s="2"/>
+      <c r="EN264" s="2"/>
+      <c r="EO264" s="2"/>
+      <c r="EP264" s="2"/>
+      <c r="EQ264" s="2"/>
+      <c r="ER264" s="2"/>
+      <c r="ES264" s="2"/>
+      <c r="ET264" s="2"/>
+      <c r="EU264" s="2"/>
+      <c r="EV264" s="2"/>
+      <c r="EW264" s="2"/>
+      <c r="EX264" s="2"/>
+      <c r="EY264" s="2"/>
+      <c r="EZ264" s="2"/>
+      <c r="FA264" s="2"/>
+      <c r="FB264" s="2"/>
+      <c r="FC264" s="2"/>
     </row>
     <row r="265" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
@@ -42873,6 +42574,32 @@
       <c r="EA265" s="2"/>
       <c r="EB265" s="2"/>
       <c r="EC265" s="2"/>
+      <c r="ED265" s="2"/>
+      <c r="EE265" s="2"/>
+      <c r="EF265" s="2"/>
+      <c r="EG265" s="2"/>
+      <c r="EH265" s="2"/>
+      <c r="EI265" s="2"/>
+      <c r="EJ265" s="2"/>
+      <c r="EK265" s="2"/>
+      <c r="EL265" s="2"/>
+      <c r="EM265" s="2"/>
+      <c r="EN265" s="2"/>
+      <c r="EO265" s="2"/>
+      <c r="EP265" s="2"/>
+      <c r="EQ265" s="2"/>
+      <c r="ER265" s="2"/>
+      <c r="ES265" s="2"/>
+      <c r="ET265" s="2"/>
+      <c r="EU265" s="2"/>
+      <c r="EV265" s="2"/>
+      <c r="EW265" s="2"/>
+      <c r="EX265" s="2"/>
+      <c r="EY265" s="2"/>
+      <c r="EZ265" s="2"/>
+      <c r="FA265" s="2"/>
+      <c r="FB265" s="2"/>
+      <c r="FC265" s="2"/>
     </row>
     <row r="266" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
@@ -43006,6 +42733,32 @@
       <c r="EA266" s="2"/>
       <c r="EB266" s="2"/>
       <c r="EC266" s="2"/>
+      <c r="ED266" s="2"/>
+      <c r="EE266" s="2"/>
+      <c r="EF266" s="2"/>
+      <c r="EG266" s="2"/>
+      <c r="EH266" s="2"/>
+      <c r="EI266" s="2"/>
+      <c r="EJ266" s="2"/>
+      <c r="EK266" s="2"/>
+      <c r="EL266" s="2"/>
+      <c r="EM266" s="2"/>
+      <c r="EN266" s="2"/>
+      <c r="EO266" s="2"/>
+      <c r="EP266" s="2"/>
+      <c r="EQ266" s="2"/>
+      <c r="ER266" s="2"/>
+      <c r="ES266" s="2"/>
+      <c r="ET266" s="2"/>
+      <c r="EU266" s="2"/>
+      <c r="EV266" s="2"/>
+      <c r="EW266" s="2"/>
+      <c r="EX266" s="2"/>
+      <c r="EY266" s="2"/>
+      <c r="EZ266" s="2"/>
+      <c r="FA266" s="2"/>
+      <c r="FB266" s="2"/>
+      <c r="FC266" s="2"/>
     </row>
     <row r="267" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
@@ -43139,6 +42892,32 @@
       <c r="EA267" s="2"/>
       <c r="EB267" s="2"/>
       <c r="EC267" s="2"/>
+      <c r="ED267" s="2"/>
+      <c r="EE267" s="2"/>
+      <c r="EF267" s="2"/>
+      <c r="EG267" s="2"/>
+      <c r="EH267" s="2"/>
+      <c r="EI267" s="2"/>
+      <c r="EJ267" s="2"/>
+      <c r="EK267" s="2"/>
+      <c r="EL267" s="2"/>
+      <c r="EM267" s="2"/>
+      <c r="EN267" s="2"/>
+      <c r="EO267" s="2"/>
+      <c r="EP267" s="2"/>
+      <c r="EQ267" s="2"/>
+      <c r="ER267" s="2"/>
+      <c r="ES267" s="2"/>
+      <c r="ET267" s="2"/>
+      <c r="EU267" s="2"/>
+      <c r="EV267" s="2"/>
+      <c r="EW267" s="2"/>
+      <c r="EX267" s="2"/>
+      <c r="EY267" s="2"/>
+      <c r="EZ267" s="2"/>
+      <c r="FA267" s="2"/>
+      <c r="FB267" s="2"/>
+      <c r="FC267" s="2"/>
     </row>
     <row r="268" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
@@ -43272,6 +43051,32 @@
       <c r="EA268" s="2"/>
       <c r="EB268" s="2"/>
       <c r="EC268" s="2"/>
+      <c r="ED268" s="2"/>
+      <c r="EE268" s="2"/>
+      <c r="EF268" s="2"/>
+      <c r="EG268" s="2"/>
+      <c r="EH268" s="2"/>
+      <c r="EI268" s="2"/>
+      <c r="EJ268" s="2"/>
+      <c r="EK268" s="2"/>
+      <c r="EL268" s="2"/>
+      <c r="EM268" s="2"/>
+      <c r="EN268" s="2"/>
+      <c r="EO268" s="2"/>
+      <c r="EP268" s="2"/>
+      <c r="EQ268" s="2"/>
+      <c r="ER268" s="2"/>
+      <c r="ES268" s="2"/>
+      <c r="ET268" s="2"/>
+      <c r="EU268" s="2"/>
+      <c r="EV268" s="2"/>
+      <c r="EW268" s="2"/>
+      <c r="EX268" s="2"/>
+      <c r="EY268" s="2"/>
+      <c r="EZ268" s="2"/>
+      <c r="FA268" s="2"/>
+      <c r="FB268" s="2"/>
+      <c r="FC268" s="2"/>
     </row>
     <row r="269" spans="3:159" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
@@ -56839,10 +56644,1075 @@
       <c r="EB370" s="2"/>
       <c r="EC370" s="2"/>
     </row>
+    <row r="371" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
+      <c r="H371" s="2"/>
+      <c r="I371" s="2"/>
+      <c r="J371" s="2"/>
+      <c r="K371" s="2"/>
+      <c r="L371" s="2"/>
+      <c r="M371" s="2"/>
+      <c r="N371" s="2"/>
+      <c r="O371" s="2"/>
+      <c r="P371" s="2"/>
+      <c r="Q371" s="2"/>
+      <c r="R371" s="2"/>
+      <c r="S371" s="2"/>
+      <c r="T371" s="2"/>
+      <c r="U371" s="2"/>
+      <c r="V371" s="2"/>
+      <c r="W371" s="2"/>
+      <c r="X371" s="2"/>
+      <c r="Y371" s="2"/>
+      <c r="Z371" s="2"/>
+      <c r="AA371" s="2"/>
+      <c r="AB371" s="2"/>
+      <c r="AC371" s="2"/>
+      <c r="AD371" s="2"/>
+      <c r="AE371" s="2"/>
+      <c r="AF371" s="2"/>
+      <c r="AG371" s="2"/>
+      <c r="AH371" s="2"/>
+      <c r="AI371" s="2"/>
+      <c r="AJ371" s="2"/>
+      <c r="AK371" s="2"/>
+      <c r="AL371" s="2"/>
+      <c r="AM371" s="2"/>
+      <c r="AN371" s="2"/>
+      <c r="AO371" s="2"/>
+      <c r="AP371" s="2"/>
+      <c r="AQ371" s="2"/>
+      <c r="AR371" s="2"/>
+      <c r="AS371" s="2"/>
+      <c r="AT371" s="2"/>
+      <c r="AU371" s="2"/>
+      <c r="AV371" s="2"/>
+      <c r="AW371" s="2"/>
+      <c r="AX371" s="2"/>
+      <c r="AY371" s="2"/>
+      <c r="AZ371" s="2"/>
+      <c r="BA371" s="2"/>
+      <c r="BB371" s="2"/>
+      <c r="BC371" s="2"/>
+      <c r="BD371" s="2"/>
+      <c r="BE371" s="2"/>
+      <c r="BF371" s="2"/>
+      <c r="BG371" s="2"/>
+      <c r="BH371" s="2"/>
+      <c r="BI371" s="2"/>
+      <c r="BJ371" s="2"/>
+      <c r="BK371" s="2"/>
+      <c r="BL371" s="2"/>
+      <c r="BM371" s="2"/>
+      <c r="BN371" s="2"/>
+      <c r="BO371" s="2"/>
+      <c r="BP371" s="2"/>
+      <c r="BQ371" s="2"/>
+      <c r="BR371" s="2"/>
+      <c r="BS371" s="2"/>
+      <c r="BT371" s="2"/>
+      <c r="BU371" s="2"/>
+      <c r="BV371" s="2"/>
+      <c r="BW371" s="2"/>
+      <c r="BX371" s="2"/>
+      <c r="BY371" s="2"/>
+      <c r="BZ371" s="2"/>
+      <c r="CA371" s="2"/>
+      <c r="CB371" s="2"/>
+      <c r="CC371" s="2"/>
+      <c r="CD371" s="2"/>
+      <c r="CE371" s="2"/>
+      <c r="CF371" s="2"/>
+      <c r="CG371" s="2"/>
+      <c r="CH371" s="2"/>
+      <c r="CI371" s="2"/>
+      <c r="CJ371" s="2"/>
+      <c r="CK371" s="2"/>
+      <c r="CL371" s="2"/>
+      <c r="CM371" s="2"/>
+      <c r="CN371" s="2"/>
+      <c r="CO371" s="2"/>
+      <c r="CP371" s="2"/>
+      <c r="CQ371" s="2"/>
+      <c r="CR371" s="2"/>
+      <c r="CS371" s="2"/>
+      <c r="CT371" s="2"/>
+      <c r="CU371" s="2"/>
+      <c r="CV371" s="2"/>
+      <c r="CW371" s="2"/>
+      <c r="CX371" s="2"/>
+      <c r="CY371" s="2"/>
+      <c r="CZ371" s="2"/>
+      <c r="DA371" s="2"/>
+      <c r="DB371" s="2"/>
+      <c r="DC371" s="2"/>
+      <c r="DD371" s="2"/>
+      <c r="DE371" s="2"/>
+      <c r="DF371" s="2"/>
+      <c r="DG371" s="2"/>
+      <c r="DH371" s="2"/>
+      <c r="DI371" s="2"/>
+      <c r="DJ371" s="2"/>
+      <c r="DK371" s="2"/>
+      <c r="DL371" s="2"/>
+      <c r="DM371" s="2"/>
+      <c r="DN371" s="2"/>
+      <c r="DO371" s="2"/>
+      <c r="DP371" s="2"/>
+      <c r="DQ371" s="2"/>
+      <c r="DR371" s="2"/>
+      <c r="DS371" s="2"/>
+      <c r="DT371" s="2"/>
+      <c r="DU371" s="2"/>
+      <c r="DV371" s="2"/>
+      <c r="DW371" s="2"/>
+      <c r="DX371" s="2"/>
+      <c r="DY371" s="2"/>
+      <c r="DZ371" s="2"/>
+      <c r="EA371" s="2"/>
+      <c r="EB371" s="2"/>
+      <c r="EC371" s="2"/>
+    </row>
+    <row r="372" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
+      <c r="H372" s="2"/>
+      <c r="I372" s="2"/>
+      <c r="J372" s="2"/>
+      <c r="K372" s="2"/>
+      <c r="L372" s="2"/>
+      <c r="M372" s="2"/>
+      <c r="N372" s="2"/>
+      <c r="O372" s="2"/>
+      <c r="P372" s="2"/>
+      <c r="Q372" s="2"/>
+      <c r="R372" s="2"/>
+      <c r="S372" s="2"/>
+      <c r="T372" s="2"/>
+      <c r="U372" s="2"/>
+      <c r="V372" s="2"/>
+      <c r="W372" s="2"/>
+      <c r="X372" s="2"/>
+      <c r="Y372" s="2"/>
+      <c r="Z372" s="2"/>
+      <c r="AA372" s="2"/>
+      <c r="AB372" s="2"/>
+      <c r="AC372" s="2"/>
+      <c r="AD372" s="2"/>
+      <c r="AE372" s="2"/>
+      <c r="AF372" s="2"/>
+      <c r="AG372" s="2"/>
+      <c r="AH372" s="2"/>
+      <c r="AI372" s="2"/>
+      <c r="AJ372" s="2"/>
+      <c r="AK372" s="2"/>
+      <c r="AL372" s="2"/>
+      <c r="AM372" s="2"/>
+      <c r="AN372" s="2"/>
+      <c r="AO372" s="2"/>
+      <c r="AP372" s="2"/>
+      <c r="AQ372" s="2"/>
+      <c r="AR372" s="2"/>
+      <c r="AS372" s="2"/>
+      <c r="AT372" s="2"/>
+      <c r="AU372" s="2"/>
+      <c r="AV372" s="2"/>
+      <c r="AW372" s="2"/>
+      <c r="AX372" s="2"/>
+      <c r="AY372" s="2"/>
+      <c r="AZ372" s="2"/>
+      <c r="BA372" s="2"/>
+      <c r="BB372" s="2"/>
+      <c r="BC372" s="2"/>
+      <c r="BD372" s="2"/>
+      <c r="BE372" s="2"/>
+      <c r="BF372" s="2"/>
+      <c r="BG372" s="2"/>
+      <c r="BH372" s="2"/>
+      <c r="BI372" s="2"/>
+      <c r="BJ372" s="2"/>
+      <c r="BK372" s="2"/>
+      <c r="BL372" s="2"/>
+      <c r="BM372" s="2"/>
+      <c r="BN372" s="2"/>
+      <c r="BO372" s="2"/>
+      <c r="BP372" s="2"/>
+      <c r="BQ372" s="2"/>
+      <c r="BR372" s="2"/>
+      <c r="BS372" s="2"/>
+      <c r="BT372" s="2"/>
+      <c r="BU372" s="2"/>
+      <c r="BV372" s="2"/>
+      <c r="BW372" s="2"/>
+      <c r="BX372" s="2"/>
+      <c r="BY372" s="2"/>
+      <c r="BZ372" s="2"/>
+      <c r="CA372" s="2"/>
+      <c r="CB372" s="2"/>
+      <c r="CC372" s="2"/>
+      <c r="CD372" s="2"/>
+      <c r="CE372" s="2"/>
+      <c r="CF372" s="2"/>
+      <c r="CG372" s="2"/>
+      <c r="CH372" s="2"/>
+      <c r="CI372" s="2"/>
+      <c r="CJ372" s="2"/>
+      <c r="CK372" s="2"/>
+      <c r="CL372" s="2"/>
+      <c r="CM372" s="2"/>
+      <c r="CN372" s="2"/>
+      <c r="CO372" s="2"/>
+      <c r="CP372" s="2"/>
+      <c r="CQ372" s="2"/>
+      <c r="CR372" s="2"/>
+      <c r="CS372" s="2"/>
+      <c r="CT372" s="2"/>
+      <c r="CU372" s="2"/>
+      <c r="CV372" s="2"/>
+      <c r="CW372" s="2"/>
+      <c r="CX372" s="2"/>
+      <c r="CY372" s="2"/>
+      <c r="CZ372" s="2"/>
+      <c r="DA372" s="2"/>
+      <c r="DB372" s="2"/>
+      <c r="DC372" s="2"/>
+      <c r="DD372" s="2"/>
+      <c r="DE372" s="2"/>
+      <c r="DF372" s="2"/>
+      <c r="DG372" s="2"/>
+      <c r="DH372" s="2"/>
+      <c r="DI372" s="2"/>
+      <c r="DJ372" s="2"/>
+      <c r="DK372" s="2"/>
+      <c r="DL372" s="2"/>
+      <c r="DM372" s="2"/>
+      <c r="DN372" s="2"/>
+      <c r="DO372" s="2"/>
+      <c r="DP372" s="2"/>
+      <c r="DQ372" s="2"/>
+      <c r="DR372" s="2"/>
+      <c r="DS372" s="2"/>
+      <c r="DT372" s="2"/>
+      <c r="DU372" s="2"/>
+      <c r="DV372" s="2"/>
+      <c r="DW372" s="2"/>
+      <c r="DX372" s="2"/>
+      <c r="DY372" s="2"/>
+      <c r="DZ372" s="2"/>
+      <c r="EA372" s="2"/>
+      <c r="EB372" s="2"/>
+      <c r="EC372" s="2"/>
+    </row>
+    <row r="373" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
+      <c r="H373" s="2"/>
+      <c r="I373" s="2"/>
+      <c r="J373" s="2"/>
+      <c r="K373" s="2"/>
+      <c r="L373" s="2"/>
+      <c r="M373" s="2"/>
+      <c r="N373" s="2"/>
+      <c r="O373" s="2"/>
+      <c r="P373" s="2"/>
+      <c r="Q373" s="2"/>
+      <c r="R373" s="2"/>
+      <c r="S373" s="2"/>
+      <c r="T373" s="2"/>
+      <c r="U373" s="2"/>
+      <c r="V373" s="2"/>
+      <c r="W373" s="2"/>
+      <c r="X373" s="2"/>
+      <c r="Y373" s="2"/>
+      <c r="Z373" s="2"/>
+      <c r="AA373" s="2"/>
+      <c r="AB373" s="2"/>
+      <c r="AC373" s="2"/>
+      <c r="AD373" s="2"/>
+      <c r="AE373" s="2"/>
+      <c r="AF373" s="2"/>
+      <c r="AG373" s="2"/>
+      <c r="AH373" s="2"/>
+      <c r="AI373" s="2"/>
+      <c r="AJ373" s="2"/>
+      <c r="AK373" s="2"/>
+      <c r="AL373" s="2"/>
+      <c r="AM373" s="2"/>
+      <c r="AN373" s="2"/>
+      <c r="AO373" s="2"/>
+      <c r="AP373" s="2"/>
+      <c r="AQ373" s="2"/>
+      <c r="AR373" s="2"/>
+      <c r="AS373" s="2"/>
+      <c r="AT373" s="2"/>
+      <c r="AU373" s="2"/>
+      <c r="AV373" s="2"/>
+      <c r="AW373" s="2"/>
+      <c r="AX373" s="2"/>
+      <c r="AY373" s="2"/>
+      <c r="AZ373" s="2"/>
+      <c r="BA373" s="2"/>
+      <c r="BB373" s="2"/>
+      <c r="BC373" s="2"/>
+      <c r="BD373" s="2"/>
+      <c r="BE373" s="2"/>
+      <c r="BF373" s="2"/>
+      <c r="BG373" s="2"/>
+      <c r="BH373" s="2"/>
+      <c r="BI373" s="2"/>
+      <c r="BJ373" s="2"/>
+      <c r="BK373" s="2"/>
+      <c r="BL373" s="2"/>
+      <c r="BM373" s="2"/>
+      <c r="BN373" s="2"/>
+      <c r="BO373" s="2"/>
+      <c r="BP373" s="2"/>
+      <c r="BQ373" s="2"/>
+      <c r="BR373" s="2"/>
+      <c r="BS373" s="2"/>
+      <c r="BT373" s="2"/>
+      <c r="BU373" s="2"/>
+      <c r="BV373" s="2"/>
+      <c r="BW373" s="2"/>
+      <c r="BX373" s="2"/>
+      <c r="BY373" s="2"/>
+      <c r="BZ373" s="2"/>
+      <c r="CA373" s="2"/>
+      <c r="CB373" s="2"/>
+      <c r="CC373" s="2"/>
+      <c r="CD373" s="2"/>
+      <c r="CE373" s="2"/>
+      <c r="CF373" s="2"/>
+      <c r="CG373" s="2"/>
+      <c r="CH373" s="2"/>
+      <c r="CI373" s="2"/>
+      <c r="CJ373" s="2"/>
+      <c r="CK373" s="2"/>
+      <c r="CL373" s="2"/>
+      <c r="CM373" s="2"/>
+      <c r="CN373" s="2"/>
+      <c r="CO373" s="2"/>
+      <c r="CP373" s="2"/>
+      <c r="CQ373" s="2"/>
+      <c r="CR373" s="2"/>
+      <c r="CS373" s="2"/>
+      <c r="CT373" s="2"/>
+      <c r="CU373" s="2"/>
+      <c r="CV373" s="2"/>
+      <c r="CW373" s="2"/>
+      <c r="CX373" s="2"/>
+      <c r="CY373" s="2"/>
+      <c r="CZ373" s="2"/>
+      <c r="DA373" s="2"/>
+      <c r="DB373" s="2"/>
+      <c r="DC373" s="2"/>
+      <c r="DD373" s="2"/>
+      <c r="DE373" s="2"/>
+      <c r="DF373" s="2"/>
+      <c r="DG373" s="2"/>
+      <c r="DH373" s="2"/>
+      <c r="DI373" s="2"/>
+      <c r="DJ373" s="2"/>
+      <c r="DK373" s="2"/>
+      <c r="DL373" s="2"/>
+      <c r="DM373" s="2"/>
+      <c r="DN373" s="2"/>
+      <c r="DO373" s="2"/>
+      <c r="DP373" s="2"/>
+      <c r="DQ373" s="2"/>
+      <c r="DR373" s="2"/>
+      <c r="DS373" s="2"/>
+      <c r="DT373" s="2"/>
+      <c r="DU373" s="2"/>
+      <c r="DV373" s="2"/>
+      <c r="DW373" s="2"/>
+      <c r="DX373" s="2"/>
+      <c r="DY373" s="2"/>
+      <c r="DZ373" s="2"/>
+      <c r="EA373" s="2"/>
+      <c r="EB373" s="2"/>
+      <c r="EC373" s="2"/>
+    </row>
+    <row r="374" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
+      <c r="H374" s="2"/>
+      <c r="I374" s="2"/>
+      <c r="J374" s="2"/>
+      <c r="K374" s="2"/>
+      <c r="L374" s="2"/>
+      <c r="M374" s="2"/>
+      <c r="N374" s="2"/>
+      <c r="O374" s="2"/>
+      <c r="P374" s="2"/>
+      <c r="Q374" s="2"/>
+      <c r="R374" s="2"/>
+      <c r="S374" s="2"/>
+      <c r="T374" s="2"/>
+      <c r="U374" s="2"/>
+      <c r="V374" s="2"/>
+      <c r="W374" s="2"/>
+      <c r="X374" s="2"/>
+      <c r="Y374" s="2"/>
+      <c r="Z374" s="2"/>
+      <c r="AA374" s="2"/>
+      <c r="AB374" s="2"/>
+      <c r="AC374" s="2"/>
+      <c r="AD374" s="2"/>
+      <c r="AE374" s="2"/>
+      <c r="AF374" s="2"/>
+      <c r="AG374" s="2"/>
+      <c r="AH374" s="2"/>
+      <c r="AI374" s="2"/>
+      <c r="AJ374" s="2"/>
+      <c r="AK374" s="2"/>
+      <c r="AL374" s="2"/>
+      <c r="AM374" s="2"/>
+      <c r="AN374" s="2"/>
+      <c r="AO374" s="2"/>
+      <c r="AP374" s="2"/>
+      <c r="AQ374" s="2"/>
+      <c r="AR374" s="2"/>
+      <c r="AS374" s="2"/>
+      <c r="AT374" s="2"/>
+      <c r="AU374" s="2"/>
+      <c r="AV374" s="2"/>
+      <c r="AW374" s="2"/>
+      <c r="AX374" s="2"/>
+      <c r="AY374" s="2"/>
+      <c r="AZ374" s="2"/>
+      <c r="BA374" s="2"/>
+      <c r="BB374" s="2"/>
+      <c r="BC374" s="2"/>
+      <c r="BD374" s="2"/>
+      <c r="BE374" s="2"/>
+      <c r="BF374" s="2"/>
+      <c r="BG374" s="2"/>
+      <c r="BH374" s="2"/>
+      <c r="BI374" s="2"/>
+      <c r="BJ374" s="2"/>
+      <c r="BK374" s="2"/>
+      <c r="BL374" s="2"/>
+      <c r="BM374" s="2"/>
+      <c r="BN374" s="2"/>
+      <c r="BO374" s="2"/>
+      <c r="BP374" s="2"/>
+      <c r="BQ374" s="2"/>
+      <c r="BR374" s="2"/>
+      <c r="BS374" s="2"/>
+      <c r="BT374" s="2"/>
+      <c r="BU374" s="2"/>
+      <c r="BV374" s="2"/>
+      <c r="BW374" s="2"/>
+      <c r="BX374" s="2"/>
+      <c r="BY374" s="2"/>
+      <c r="BZ374" s="2"/>
+      <c r="CA374" s="2"/>
+      <c r="CB374" s="2"/>
+      <c r="CC374" s="2"/>
+      <c r="CD374" s="2"/>
+      <c r="CE374" s="2"/>
+      <c r="CF374" s="2"/>
+      <c r="CG374" s="2"/>
+      <c r="CH374" s="2"/>
+      <c r="CI374" s="2"/>
+      <c r="CJ374" s="2"/>
+      <c r="CK374" s="2"/>
+      <c r="CL374" s="2"/>
+      <c r="CM374" s="2"/>
+      <c r="CN374" s="2"/>
+      <c r="CO374" s="2"/>
+      <c r="CP374" s="2"/>
+      <c r="CQ374" s="2"/>
+      <c r="CR374" s="2"/>
+      <c r="CS374" s="2"/>
+      <c r="CT374" s="2"/>
+      <c r="CU374" s="2"/>
+      <c r="CV374" s="2"/>
+      <c r="CW374" s="2"/>
+      <c r="CX374" s="2"/>
+      <c r="CY374" s="2"/>
+      <c r="CZ374" s="2"/>
+      <c r="DA374" s="2"/>
+      <c r="DB374" s="2"/>
+      <c r="DC374" s="2"/>
+      <c r="DD374" s="2"/>
+      <c r="DE374" s="2"/>
+      <c r="DF374" s="2"/>
+      <c r="DG374" s="2"/>
+      <c r="DH374" s="2"/>
+      <c r="DI374" s="2"/>
+      <c r="DJ374" s="2"/>
+      <c r="DK374" s="2"/>
+      <c r="DL374" s="2"/>
+      <c r="DM374" s="2"/>
+      <c r="DN374" s="2"/>
+      <c r="DO374" s="2"/>
+      <c r="DP374" s="2"/>
+      <c r="DQ374" s="2"/>
+      <c r="DR374" s="2"/>
+      <c r="DS374" s="2"/>
+      <c r="DT374" s="2"/>
+      <c r="DU374" s="2"/>
+      <c r="DV374" s="2"/>
+      <c r="DW374" s="2"/>
+      <c r="DX374" s="2"/>
+      <c r="DY374" s="2"/>
+      <c r="DZ374" s="2"/>
+      <c r="EA374" s="2"/>
+      <c r="EB374" s="2"/>
+      <c r="EC374" s="2"/>
+    </row>
+    <row r="375" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
+      <c r="H375" s="2"/>
+      <c r="I375" s="2"/>
+      <c r="J375" s="2"/>
+      <c r="K375" s="2"/>
+      <c r="L375" s="2"/>
+      <c r="M375" s="2"/>
+      <c r="N375" s="2"/>
+      <c r="O375" s="2"/>
+      <c r="P375" s="2"/>
+      <c r="Q375" s="2"/>
+      <c r="R375" s="2"/>
+      <c r="S375" s="2"/>
+      <c r="T375" s="2"/>
+      <c r="U375" s="2"/>
+      <c r="V375" s="2"/>
+      <c r="W375" s="2"/>
+      <c r="X375" s="2"/>
+      <c r="Y375" s="2"/>
+      <c r="Z375" s="2"/>
+      <c r="AA375" s="2"/>
+      <c r="AB375" s="2"/>
+      <c r="AC375" s="2"/>
+      <c r="AD375" s="2"/>
+      <c r="AE375" s="2"/>
+      <c r="AF375" s="2"/>
+      <c r="AG375" s="2"/>
+      <c r="AH375" s="2"/>
+      <c r="AI375" s="2"/>
+      <c r="AJ375" s="2"/>
+      <c r="AK375" s="2"/>
+      <c r="AL375" s="2"/>
+      <c r="AM375" s="2"/>
+      <c r="AN375" s="2"/>
+      <c r="AO375" s="2"/>
+      <c r="AP375" s="2"/>
+      <c r="AQ375" s="2"/>
+      <c r="AR375" s="2"/>
+      <c r="AS375" s="2"/>
+      <c r="AT375" s="2"/>
+      <c r="AU375" s="2"/>
+      <c r="AV375" s="2"/>
+      <c r="AW375" s="2"/>
+      <c r="AX375" s="2"/>
+      <c r="AY375" s="2"/>
+      <c r="AZ375" s="2"/>
+      <c r="BA375" s="2"/>
+      <c r="BB375" s="2"/>
+      <c r="BC375" s="2"/>
+      <c r="BD375" s="2"/>
+      <c r="BE375" s="2"/>
+      <c r="BF375" s="2"/>
+      <c r="BG375" s="2"/>
+      <c r="BH375" s="2"/>
+      <c r="BI375" s="2"/>
+      <c r="BJ375" s="2"/>
+      <c r="BK375" s="2"/>
+      <c r="BL375" s="2"/>
+      <c r="BM375" s="2"/>
+      <c r="BN375" s="2"/>
+      <c r="BO375" s="2"/>
+      <c r="BP375" s="2"/>
+      <c r="BQ375" s="2"/>
+      <c r="BR375" s="2"/>
+      <c r="BS375" s="2"/>
+      <c r="BT375" s="2"/>
+      <c r="BU375" s="2"/>
+      <c r="BV375" s="2"/>
+      <c r="BW375" s="2"/>
+      <c r="BX375" s="2"/>
+      <c r="BY375" s="2"/>
+      <c r="BZ375" s="2"/>
+      <c r="CA375" s="2"/>
+      <c r="CB375" s="2"/>
+      <c r="CC375" s="2"/>
+      <c r="CD375" s="2"/>
+      <c r="CE375" s="2"/>
+      <c r="CF375" s="2"/>
+      <c r="CG375" s="2"/>
+      <c r="CH375" s="2"/>
+      <c r="CI375" s="2"/>
+      <c r="CJ375" s="2"/>
+      <c r="CK375" s="2"/>
+      <c r="CL375" s="2"/>
+      <c r="CM375" s="2"/>
+      <c r="CN375" s="2"/>
+      <c r="CO375" s="2"/>
+      <c r="CP375" s="2"/>
+      <c r="CQ375" s="2"/>
+      <c r="CR375" s="2"/>
+      <c r="CS375" s="2"/>
+      <c r="CT375" s="2"/>
+      <c r="CU375" s="2"/>
+      <c r="CV375" s="2"/>
+      <c r="CW375" s="2"/>
+      <c r="CX375" s="2"/>
+      <c r="CY375" s="2"/>
+      <c r="CZ375" s="2"/>
+      <c r="DA375" s="2"/>
+      <c r="DB375" s="2"/>
+      <c r="DC375" s="2"/>
+      <c r="DD375" s="2"/>
+      <c r="DE375" s="2"/>
+      <c r="DF375" s="2"/>
+      <c r="DG375" s="2"/>
+      <c r="DH375" s="2"/>
+      <c r="DI375" s="2"/>
+      <c r="DJ375" s="2"/>
+      <c r="DK375" s="2"/>
+      <c r="DL375" s="2"/>
+      <c r="DM375" s="2"/>
+      <c r="DN375" s="2"/>
+      <c r="DO375" s="2"/>
+      <c r="DP375" s="2"/>
+      <c r="DQ375" s="2"/>
+      <c r="DR375" s="2"/>
+      <c r="DS375" s="2"/>
+      <c r="DT375" s="2"/>
+      <c r="DU375" s="2"/>
+      <c r="DV375" s="2"/>
+      <c r="DW375" s="2"/>
+      <c r="DX375" s="2"/>
+      <c r="DY375" s="2"/>
+      <c r="DZ375" s="2"/>
+      <c r="EA375" s="2"/>
+      <c r="EB375" s="2"/>
+      <c r="EC375" s="2"/>
+    </row>
+    <row r="376" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
+      <c r="H376" s="2"/>
+      <c r="I376" s="2"/>
+      <c r="J376" s="2"/>
+      <c r="K376" s="2"/>
+      <c r="L376" s="2"/>
+      <c r="M376" s="2"/>
+      <c r="N376" s="2"/>
+      <c r="O376" s="2"/>
+      <c r="P376" s="2"/>
+      <c r="Q376" s="2"/>
+      <c r="R376" s="2"/>
+      <c r="S376" s="2"/>
+      <c r="T376" s="2"/>
+      <c r="U376" s="2"/>
+      <c r="V376" s="2"/>
+      <c r="W376" s="2"/>
+      <c r="X376" s="2"/>
+      <c r="Y376" s="2"/>
+      <c r="Z376" s="2"/>
+      <c r="AA376" s="2"/>
+      <c r="AB376" s="2"/>
+      <c r="AC376" s="2"/>
+      <c r="AD376" s="2"/>
+      <c r="AE376" s="2"/>
+      <c r="AF376" s="2"/>
+      <c r="AG376" s="2"/>
+      <c r="AH376" s="2"/>
+      <c r="AI376" s="2"/>
+      <c r="AJ376" s="2"/>
+      <c r="AK376" s="2"/>
+      <c r="AL376" s="2"/>
+      <c r="AM376" s="2"/>
+      <c r="AN376" s="2"/>
+      <c r="AO376" s="2"/>
+      <c r="AP376" s="2"/>
+      <c r="AQ376" s="2"/>
+      <c r="AR376" s="2"/>
+      <c r="AS376" s="2"/>
+      <c r="AT376" s="2"/>
+      <c r="AU376" s="2"/>
+      <c r="AV376" s="2"/>
+      <c r="AW376" s="2"/>
+      <c r="AX376" s="2"/>
+      <c r="AY376" s="2"/>
+      <c r="AZ376" s="2"/>
+      <c r="BA376" s="2"/>
+      <c r="BB376" s="2"/>
+      <c r="BC376" s="2"/>
+      <c r="BD376" s="2"/>
+      <c r="BE376" s="2"/>
+      <c r="BF376" s="2"/>
+      <c r="BG376" s="2"/>
+      <c r="BH376" s="2"/>
+      <c r="BI376" s="2"/>
+      <c r="BJ376" s="2"/>
+      <c r="BK376" s="2"/>
+      <c r="BL376" s="2"/>
+      <c r="BM376" s="2"/>
+      <c r="BN376" s="2"/>
+      <c r="BO376" s="2"/>
+      <c r="BP376" s="2"/>
+      <c r="BQ376" s="2"/>
+      <c r="BR376" s="2"/>
+      <c r="BS376" s="2"/>
+      <c r="BT376" s="2"/>
+      <c r="BU376" s="2"/>
+      <c r="BV376" s="2"/>
+      <c r="BW376" s="2"/>
+      <c r="BX376" s="2"/>
+      <c r="BY376" s="2"/>
+      <c r="BZ376" s="2"/>
+      <c r="CA376" s="2"/>
+      <c r="CB376" s="2"/>
+      <c r="CC376" s="2"/>
+      <c r="CD376" s="2"/>
+      <c r="CE376" s="2"/>
+      <c r="CF376" s="2"/>
+      <c r="CG376" s="2"/>
+      <c r="CH376" s="2"/>
+      <c r="CI376" s="2"/>
+      <c r="CJ376" s="2"/>
+      <c r="CK376" s="2"/>
+      <c r="CL376" s="2"/>
+      <c r="CM376" s="2"/>
+      <c r="CN376" s="2"/>
+      <c r="CO376" s="2"/>
+      <c r="CP376" s="2"/>
+      <c r="CQ376" s="2"/>
+      <c r="CR376" s="2"/>
+      <c r="CS376" s="2"/>
+      <c r="CT376" s="2"/>
+      <c r="CU376" s="2"/>
+      <c r="CV376" s="2"/>
+      <c r="CW376" s="2"/>
+      <c r="CX376" s="2"/>
+      <c r="CY376" s="2"/>
+      <c r="CZ376" s="2"/>
+      <c r="DA376" s="2"/>
+      <c r="DB376" s="2"/>
+      <c r="DC376" s="2"/>
+      <c r="DD376" s="2"/>
+      <c r="DE376" s="2"/>
+      <c r="DF376" s="2"/>
+      <c r="DG376" s="2"/>
+      <c r="DH376" s="2"/>
+      <c r="DI376" s="2"/>
+      <c r="DJ376" s="2"/>
+      <c r="DK376" s="2"/>
+      <c r="DL376" s="2"/>
+      <c r="DM376" s="2"/>
+      <c r="DN376" s="2"/>
+      <c r="DO376" s="2"/>
+      <c r="DP376" s="2"/>
+      <c r="DQ376" s="2"/>
+      <c r="DR376" s="2"/>
+      <c r="DS376" s="2"/>
+      <c r="DT376" s="2"/>
+      <c r="DU376" s="2"/>
+      <c r="DV376" s="2"/>
+      <c r="DW376" s="2"/>
+      <c r="DX376" s="2"/>
+      <c r="DY376" s="2"/>
+      <c r="DZ376" s="2"/>
+      <c r="EA376" s="2"/>
+      <c r="EB376" s="2"/>
+      <c r="EC376" s="2"/>
+    </row>
+    <row r="377" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
+      <c r="H377" s="2"/>
+      <c r="I377" s="2"/>
+      <c r="J377" s="2"/>
+      <c r="K377" s="2"/>
+      <c r="L377" s="2"/>
+      <c r="M377" s="2"/>
+      <c r="N377" s="2"/>
+      <c r="O377" s="2"/>
+      <c r="P377" s="2"/>
+      <c r="Q377" s="2"/>
+      <c r="R377" s="2"/>
+      <c r="S377" s="2"/>
+      <c r="T377" s="2"/>
+      <c r="U377" s="2"/>
+      <c r="V377" s="2"/>
+      <c r="W377" s="2"/>
+      <c r="X377" s="2"/>
+      <c r="Y377" s="2"/>
+      <c r="Z377" s="2"/>
+      <c r="AA377" s="2"/>
+      <c r="AB377" s="2"/>
+      <c r="AC377" s="2"/>
+      <c r="AD377" s="2"/>
+      <c r="AE377" s="2"/>
+      <c r="AF377" s="2"/>
+      <c r="AG377" s="2"/>
+      <c r="AH377" s="2"/>
+      <c r="AI377" s="2"/>
+      <c r="AJ377" s="2"/>
+      <c r="AK377" s="2"/>
+      <c r="AL377" s="2"/>
+      <c r="AM377" s="2"/>
+      <c r="AN377" s="2"/>
+      <c r="AO377" s="2"/>
+      <c r="AP377" s="2"/>
+      <c r="AQ377" s="2"/>
+      <c r="AR377" s="2"/>
+      <c r="AS377" s="2"/>
+      <c r="AT377" s="2"/>
+      <c r="AU377" s="2"/>
+      <c r="AV377" s="2"/>
+      <c r="AW377" s="2"/>
+      <c r="AX377" s="2"/>
+      <c r="AY377" s="2"/>
+      <c r="AZ377" s="2"/>
+      <c r="BA377" s="2"/>
+      <c r="BB377" s="2"/>
+      <c r="BC377" s="2"/>
+      <c r="BD377" s="2"/>
+      <c r="BE377" s="2"/>
+      <c r="BF377" s="2"/>
+      <c r="BG377" s="2"/>
+      <c r="BH377" s="2"/>
+      <c r="BI377" s="2"/>
+      <c r="BJ377" s="2"/>
+      <c r="BK377" s="2"/>
+      <c r="BL377" s="2"/>
+      <c r="BM377" s="2"/>
+      <c r="BN377" s="2"/>
+      <c r="BO377" s="2"/>
+      <c r="BP377" s="2"/>
+      <c r="BQ377" s="2"/>
+      <c r="BR377" s="2"/>
+      <c r="BS377" s="2"/>
+      <c r="BT377" s="2"/>
+      <c r="BU377" s="2"/>
+      <c r="BV377" s="2"/>
+      <c r="BW377" s="2"/>
+      <c r="BX377" s="2"/>
+      <c r="BY377" s="2"/>
+      <c r="BZ377" s="2"/>
+      <c r="CA377" s="2"/>
+      <c r="CB377" s="2"/>
+      <c r="CC377" s="2"/>
+      <c r="CD377" s="2"/>
+      <c r="CE377" s="2"/>
+      <c r="CF377" s="2"/>
+      <c r="CG377" s="2"/>
+      <c r="CH377" s="2"/>
+      <c r="CI377" s="2"/>
+      <c r="CJ377" s="2"/>
+      <c r="CK377" s="2"/>
+      <c r="CL377" s="2"/>
+      <c r="CM377" s="2"/>
+      <c r="CN377" s="2"/>
+      <c r="CO377" s="2"/>
+      <c r="CP377" s="2"/>
+      <c r="CQ377" s="2"/>
+      <c r="CR377" s="2"/>
+      <c r="CS377" s="2"/>
+      <c r="CT377" s="2"/>
+      <c r="CU377" s="2"/>
+      <c r="CV377" s="2"/>
+      <c r="CW377" s="2"/>
+      <c r="CX377" s="2"/>
+      <c r="CY377" s="2"/>
+      <c r="CZ377" s="2"/>
+      <c r="DA377" s="2"/>
+      <c r="DB377" s="2"/>
+      <c r="DC377" s="2"/>
+      <c r="DD377" s="2"/>
+      <c r="DE377" s="2"/>
+      <c r="DF377" s="2"/>
+      <c r="DG377" s="2"/>
+      <c r="DH377" s="2"/>
+      <c r="DI377" s="2"/>
+      <c r="DJ377" s="2"/>
+      <c r="DK377" s="2"/>
+      <c r="DL377" s="2"/>
+      <c r="DM377" s="2"/>
+      <c r="DN377" s="2"/>
+      <c r="DO377" s="2"/>
+      <c r="DP377" s="2"/>
+      <c r="DQ377" s="2"/>
+      <c r="DR377" s="2"/>
+      <c r="DS377" s="2"/>
+      <c r="DT377" s="2"/>
+      <c r="DU377" s="2"/>
+      <c r="DV377" s="2"/>
+      <c r="DW377" s="2"/>
+      <c r="DX377" s="2"/>
+      <c r="DY377" s="2"/>
+      <c r="DZ377" s="2"/>
+      <c r="EA377" s="2"/>
+      <c r="EB377" s="2"/>
+      <c r="EC377" s="2"/>
+    </row>
+    <row r="378" spans="3:133" x14ac:dyDescent="0.25">
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
+      <c r="H378" s="2"/>
+      <c r="I378" s="2"/>
+      <c r="J378" s="2"/>
+      <c r="K378" s="2"/>
+      <c r="L378" s="2"/>
+      <c r="M378" s="2"/>
+      <c r="N378" s="2"/>
+      <c r="O378" s="2"/>
+      <c r="P378" s="2"/>
+      <c r="Q378" s="2"/>
+      <c r="R378" s="2"/>
+      <c r="S378" s="2"/>
+      <c r="T378" s="2"/>
+      <c r="U378" s="2"/>
+      <c r="V378" s="2"/>
+      <c r="W378" s="2"/>
+      <c r="X378" s="2"/>
+      <c r="Y378" s="2"/>
+      <c r="Z378" s="2"/>
+      <c r="AA378" s="2"/>
+      <c r="AB378" s="2"/>
+      <c r="AC378" s="2"/>
+      <c r="AD378" s="2"/>
+      <c r="AE378" s="2"/>
+      <c r="AF378" s="2"/>
+      <c r="AG378" s="2"/>
+      <c r="AH378" s="2"/>
+      <c r="AI378" s="2"/>
+      <c r="AJ378" s="2"/>
+      <c r="AK378" s="2"/>
+      <c r="AL378" s="2"/>
+      <c r="AM378" s="2"/>
+      <c r="AN378" s="2"/>
+      <c r="AO378" s="2"/>
+      <c r="AP378" s="2"/>
+      <c r="AQ378" s="2"/>
+      <c r="AR378" s="2"/>
+      <c r="AS378" s="2"/>
+      <c r="AT378" s="2"/>
+      <c r="AU378" s="2"/>
+      <c r="AV378" s="2"/>
+      <c r="AW378" s="2"/>
+      <c r="AX378" s="2"/>
+      <c r="AY378" s="2"/>
+      <c r="AZ378" s="2"/>
+      <c r="BA378" s="2"/>
+      <c r="BB378" s="2"/>
+      <c r="BC378" s="2"/>
+      <c r="BD378" s="2"/>
+      <c r="BE378" s="2"/>
+      <c r="BF378" s="2"/>
+      <c r="BG378" s="2"/>
+      <c r="BH378" s="2"/>
+      <c r="BI378" s="2"/>
+      <c r="BJ378" s="2"/>
+      <c r="BK378" s="2"/>
+      <c r="BL378" s="2"/>
+      <c r="BM378" s="2"/>
+      <c r="BN378" s="2"/>
+      <c r="BO378" s="2"/>
+      <c r="BP378" s="2"/>
+      <c r="BQ378" s="2"/>
+      <c r="BR378" s="2"/>
+      <c r="BS378" s="2"/>
+      <c r="BT378" s="2"/>
+      <c r="BU378" s="2"/>
+      <c r="BV378" s="2"/>
+      <c r="BW378" s="2"/>
+      <c r="BX378" s="2"/>
+      <c r="BY378" s="2"/>
+      <c r="BZ378" s="2"/>
+      <c r="CA378" s="2"/>
+      <c r="CB378" s="2"/>
+      <c r="CC378" s="2"/>
+      <c r="CD378" s="2"/>
+      <c r="CE378" s="2"/>
+      <c r="CF378" s="2"/>
+      <c r="CG378" s="2"/>
+      <c r="CH378" s="2"/>
+      <c r="CI378" s="2"/>
+      <c r="CJ378" s="2"/>
+      <c r="CK378" s="2"/>
+      <c r="CL378" s="2"/>
+      <c r="CM378" s="2"/>
+      <c r="CN378" s="2"/>
+      <c r="CO378" s="2"/>
+      <c r="CP378" s="2"/>
+      <c r="CQ378" s="2"/>
+      <c r="CR378" s="2"/>
+      <c r="CS378" s="2"/>
+      <c r="CT378" s="2"/>
+      <c r="CU378" s="2"/>
+      <c r="CV378" s="2"/>
+      <c r="CW378" s="2"/>
+      <c r="CX378" s="2"/>
+      <c r="CY378" s="2"/>
+      <c r="CZ378" s="2"/>
+      <c r="DA378" s="2"/>
+      <c r="DB378" s="2"/>
+      <c r="DC378" s="2"/>
+      <c r="DD378" s="2"/>
+      <c r="DE378" s="2"/>
+      <c r="DF378" s="2"/>
+      <c r="DG378" s="2"/>
+      <c r="DH378" s="2"/>
+      <c r="DI378" s="2"/>
+      <c r="DJ378" s="2"/>
+      <c r="DK378" s="2"/>
+      <c r="DL378" s="2"/>
+      <c r="DM378" s="2"/>
+      <c r="DN378" s="2"/>
+      <c r="DO378" s="2"/>
+      <c r="DP378" s="2"/>
+      <c r="DQ378" s="2"/>
+      <c r="DR378" s="2"/>
+      <c r="DS378" s="2"/>
+      <c r="DT378" s="2"/>
+      <c r="DU378" s="2"/>
+      <c r="DV378" s="2"/>
+      <c r="DW378" s="2"/>
+      <c r="DX378" s="2"/>
+      <c r="DY378" s="2"/>
+      <c r="DZ378" s="2"/>
+      <c r="EA378" s="2"/>
+      <c r="EB378" s="2"/>
+      <c r="EC378" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{84C1BDBC-F9DE-4F01-B0C5-FF26638BA540}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TPR.xlsx
+++ b/TPR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4329B12-655F-41C9-8A41-A3C66EF94D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CB36A-A9AB-44A4-AEE7-B585B4F84CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>tc={6EF150BE-C524-4506-884D-CEFBED0BBE0C}</author>
   </authors>
   <commentList>
-    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
+    <comment ref="V16" authorId="0" shapeId="0" xr:uid="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Tapestry</t>
   </si>
@@ -242,23 +242,42 @@
   <si>
     <t>Store Growth</t>
   </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Q326</t>
+  </si>
+  <si>
+    <t>Q426</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,37 +342,40 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -696,7 +718,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="R16" dT="2025-08-15T16:44:39.83" personId="{57F4CEF2-D55F-47CD-86FA-BC321EB67797}" id="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
+  <threadedComment ref="V16" dT="2025-08-15T16:44:39.83" personId="{57F4CEF2-D55F-47CD-86FA-BC321EB67797}" id="{6EF150BE-C524-4506-884D-CEFBED0BBE0C}">
     <text>854,8 Million USD Impairment of Goodwill</text>
   </threadedComment>
 </ThreadedComments>
@@ -706,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8BD07F5-F476-4E11-9EC5-14C465BA1847}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -729,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <v>99.39</v>
+        <v>100.74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -737,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>208.123628</v>
+        <v>204.64975200000001</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>44</v>
@@ -752,7 +774,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>20685.40738692</v>
+        <v>20616.416016480001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -763,8 +785,8 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>1100+19.6</f>
-        <v>1119.5999999999999</v>
+        <f>719.5+23.7</f>
+        <v>743.2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>44</v>
@@ -775,8 +797,8 @@
         <v>8</v>
       </c>
       <c r="J6" s="3">
-        <f>16.7+2377.9</f>
-        <v>2394.6</v>
+        <f>256.8+2378.6</f>
+        <v>2635.4</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>44</v>
@@ -791,7 +813,7 @@
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>21960.40738692</v>
+        <v>22508.616016480002</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -840,13 +862,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD96D42-E98E-4FF8-9D3E-4E75504DDB44}">
-  <dimension ref="A1:FC378"/>
+  <dimension ref="A1:FG378"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -856,12 +878,12 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:163" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:163" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
@@ -886,29 +908,41 @@
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
@@ -920,22 +954,26 @@
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="10"/>
-      <c r="P3" s="10">
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10">
         <v>939</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="U3" s="10">
         <v>930</v>
       </c>
-      <c r="R3" s="10">
+      <c r="V3" s="10">
         <v>931</v>
       </c>
     </row>
-    <row r="4" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -947,22 +985,26 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="10"/>
-      <c r="P4" s="10">
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10">
         <v>397</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="U4" s="10">
         <v>378</v>
       </c>
-      <c r="R4" s="10">
+      <c r="V4" s="10">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
@@ -974,22 +1016,26 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="10"/>
-      <c r="P5" s="10">
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
         <v>93</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="U5" s="10">
         <v>94</v>
       </c>
-      <c r="R5" s="10">
+      <c r="V5" s="10">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
@@ -1001,22 +1047,26 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="10">
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10">
         <v>571</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="U6" s="10">
         <v>555</v>
       </c>
-      <c r="R6" s="10">
+      <c r="V6" s="10">
         <v>541</v>
       </c>
     </row>
-    <row r="7" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1028,22 +1078,26 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="10">
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10">
         <v>858</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="U7" s="10">
         <v>847</v>
       </c>
-      <c r="R7" s="10">
+      <c r="V7" s="10">
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -1055,37 +1109,41 @@
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12">
-        <f t="shared" ref="L8:Q8" si="0">+L6+L7</f>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12">
+        <f t="shared" ref="P8:U8" si="0">+P6+P7</f>
         <v>0</v>
       </c>
-      <c r="M8" s="12">
+      <c r="Q8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N8" s="12">
+      <c r="R8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="12">
+      <c r="S8" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="12">
+      <c r="T8" s="12">
         <f t="shared" si="0"/>
         <v>1429</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="U8" s="12">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
-      <c r="R8" s="12">
-        <f>+R6+R7</f>
+      <c r="V8" s="12">
+        <f>+V6+V7</f>
         <v>1371</v>
       </c>
     </row>
-    <row r="9" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:163" x14ac:dyDescent="0.2">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1094,8 +1152,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -1109,7 +1171,7 @@
         <v>1145.5999999999999</v>
       </c>
       <c r="F10" s="13">
-        <f>+Q10-SUM(C10:E10)</f>
+        <f>+U10-SUM(C10:E10)</f>
         <v>1250.4000000000001</v>
       </c>
       <c r="G10" s="13">
@@ -1122,27 +1184,29 @@
         <v>1293.5</v>
       </c>
       <c r="J10" s="13">
-        <f>+R10-SUM(G10:I10)</f>
+        <f>+V10-SUM(G10:I10)</f>
         <v>1425.1000000000004</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="K10" s="13">
+        <v>1429.8</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3">
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3">
         <v>4960.3999999999996</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="U10" s="3">
         <v>5095.3</v>
       </c>
-      <c r="R10" s="3">
+      <c r="V10" s="3">
         <v>5598.5</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1280,8 +1344,12 @@
       <c r="FA10" s="3"/>
       <c r="FB10" s="3"/>
       <c r="FC10" s="3"/>
+      <c r="FD10" s="3"/>
+      <c r="FE10" s="3"/>
+      <c r="FF10" s="3"/>
+      <c r="FG10" s="3"/>
     </row>
-    <row r="11" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
@@ -1295,7 +1363,7 @@
         <v>280.7</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" ref="F11:F21" si="1">+Q11-SUM(C11:E11)</f>
+        <f t="shared" ref="F11:F21" si="1">+U11-SUM(C11:E11)</f>
         <v>290.10000000000014</v>
       </c>
       <c r="G11" s="13">
@@ -1308,27 +1376,29 @@
         <v>244.9</v>
       </c>
       <c r="J11" s="13">
-        <f t="shared" ref="J11:J21" si="2">+R11-SUM(G11:I11)</f>
+        <f t="shared" ref="J11:J21" si="2">+V11-SUM(G11:I11)</f>
         <v>252.60000000000002</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="13">
+        <v>260.2</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3">
         <v>1418.9</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="U11" s="3">
         <v>1334.4</v>
       </c>
-      <c r="R11" s="3">
+      <c r="V11" s="3">
         <v>1197.0999999999999</v>
       </c>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -1466,8 +1536,12 @@
       <c r="FA11" s="3"/>
       <c r="FB11" s="3"/>
       <c r="FC11" s="3"/>
+      <c r="FD11" s="3"/>
+      <c r="FE11" s="3"/>
+      <c r="FF11" s="3"/>
+      <c r="FG11" s="3"/>
     </row>
-    <row r="12" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>32</v>
       </c>
@@ -1497,24 +1571,26 @@
         <f t="shared" si="2"/>
         <v>45.499999999999972</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="K12" s="13">
+        <v>14.6</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3">
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3">
         <v>281.60000000000002</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="U12" s="3">
         <v>241.5</v>
       </c>
-      <c r="R12" s="3">
+      <c r="V12" s="3">
         <v>215.1</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -1652,8 +1728,12 @@
       <c r="FA12" s="3"/>
       <c r="FB12" s="3"/>
       <c r="FC12" s="3"/>
+      <c r="FD12" s="3"/>
+      <c r="FE12" s="3"/>
+      <c r="FF12" s="3"/>
+      <c r="FG12" s="3"/>
     </row>
-    <row r="13" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1683,24 +1763,26 @@
         <f t="shared" si="2"/>
         <v>1723.1999999999998</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15">
+      <c r="K13" s="14">
+        <v>1704.6</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15">
         <v>6660.9</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="U13" s="15">
         <v>6671.2</v>
       </c>
-      <c r="R13" s="15">
+      <c r="V13" s="15">
         <v>7010.7</v>
       </c>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -1838,8 +1920,12 @@
       <c r="FA13" s="3"/>
       <c r="FB13" s="3"/>
       <c r="FC13" s="3"/>
+      <c r="FD13" s="3"/>
+      <c r="FE13" s="3"/>
+      <c r="FF13" s="3"/>
+      <c r="FG13" s="3"/>
     </row>
-    <row r="14" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1869,24 +1955,26 @@
         <f t="shared" si="2"/>
         <v>408.09999999999991</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="K14" s="13">
+        <v>404.1</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3">
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3">
         <v>1946</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>1781.7</v>
       </c>
-      <c r="R14" s="3">
+      <c r="V14" s="3">
         <v>1721.8</v>
       </c>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2024,8 +2112,12 @@
       <c r="FA14" s="3"/>
       <c r="FB14" s="3"/>
       <c r="FC14" s="3"/>
+      <c r="FD14" s="3"/>
+      <c r="FE14" s="3"/>
+      <c r="FF14" s="3"/>
+      <c r="FG14" s="3"/>
     </row>
-    <row r="15" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
@@ -2050,7 +2142,7 @@
         <v>1134.9000000000001</v>
       </c>
       <c r="H15" s="13">
-        <f t="shared" ref="H15:R15" si="4">+H13-H14</f>
+        <f t="shared" ref="H15:V15" si="4">+H13-H14</f>
         <v>1633.1000000000001</v>
       </c>
       <c r="I15" s="13">
@@ -2061,39 +2153,42 @@
         <f t="shared" si="4"/>
         <v>1315.1</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="13">
+      <c r="K15" s="13">
+        <f t="shared" si="4"/>
+        <v>1300.5</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="M15" s="13">
+      <c r="Q15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N15" s="13">
+      <c r="R15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O15" s="13">
+      <c r="S15" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="13">
+      <c r="T15" s="13">
         <f t="shared" si="4"/>
         <v>4714.8999999999996</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="U15" s="13">
         <f t="shared" si="4"/>
         <v>4889.5</v>
       </c>
-      <c r="R15" s="13">
+      <c r="V15" s="13">
         <f t="shared" si="4"/>
         <v>5288.9</v>
       </c>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2231,8 +2326,12 @@
       <c r="FA15" s="3"/>
       <c r="FB15" s="3"/>
       <c r="FC15" s="3"/>
+      <c r="FD15" s="3"/>
+      <c r="FE15" s="3"/>
+      <c r="FF15" s="3"/>
+      <c r="FG15" s="3"/>
     </row>
-    <row r="16" spans="1:159" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2262,25 +2361,27 @@
         <f t="shared" si="2"/>
         <v>1898.6</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="K16" s="13">
+        <v>972.3</v>
+      </c>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="3">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3">
         <v>3542.5</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="U16" s="3">
         <v>3749.4</v>
       </c>
-      <c r="R16" s="3">
+      <c r="V16" s="3">
         <f>4019.1+854.8</f>
         <v>4873.8999999999996</v>
       </c>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2418,8 +2519,12 @@
       <c r="FA16" s="3"/>
       <c r="FB16" s="3"/>
       <c r="FC16" s="3"/>
+      <c r="FD16" s="3"/>
+      <c r="FE16" s="3"/>
+      <c r="FF16" s="3"/>
+      <c r="FG16" s="3"/>
     </row>
-    <row r="17" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2444,7 +2549,7 @@
         <v>252.00000000000011</v>
       </c>
       <c r="H17" s="13">
-        <f t="shared" ref="H17:R17" si="6">+H15-H16</f>
+        <f t="shared" ref="H17:V17" si="6">+H15-H16</f>
         <v>492.80000000000018</v>
       </c>
       <c r="I17" s="13">
@@ -2455,39 +2560,42 @@
         <f t="shared" si="6"/>
         <v>-583.5</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="13">
+      <c r="K17" s="13">
+        <f t="shared" si="6"/>
+        <v>328.20000000000005</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M17" s="13">
+      <c r="Q17" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N17" s="13">
+      <c r="R17" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O17" s="13">
+      <c r="S17" s="13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P17" s="13">
+      <c r="T17" s="13">
         <f t="shared" si="6"/>
         <v>1172.3999999999996</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="U17" s="13">
         <f t="shared" si="6"/>
         <v>1140.0999999999999</v>
       </c>
-      <c r="R17" s="13">
+      <c r="V17" s="13">
         <f t="shared" si="6"/>
         <v>415</v>
       </c>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2625,8 +2733,12 @@
       <c r="FA17" s="3"/>
       <c r="FB17" s="3"/>
       <c r="FC17" s="3"/>
+      <c r="FD17" s="3"/>
+      <c r="FE17" s="3"/>
+      <c r="FF17" s="3"/>
+      <c r="FG17" s="3"/>
     </row>
-    <row r="18" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2657,25 +2769,27 @@
         <f t="shared" si="2"/>
         <v>14.800000000000011</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="13">
+        <v>12.8</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="3">
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3">
         <v>27.6</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>125</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <f>85.4+120.1</f>
         <v>205.5</v>
       </c>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2813,8 +2927,12 @@
       <c r="FA18" s="3"/>
       <c r="FB18" s="3"/>
       <c r="FC18" s="3"/>
+      <c r="FD18" s="3"/>
+      <c r="FE18" s="3"/>
+      <c r="FF18" s="3"/>
+      <c r="FG18" s="3"/>
     </row>
-    <row r="19" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2844,24 +2962,26 @@
         <f t="shared" si="2"/>
         <v>-4.2999999999999989</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="K19" s="13">
+        <v>-3.3</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="3">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3">
         <v>1.7</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="U19" s="3">
         <v>3.2</v>
       </c>
-      <c r="R19" s="3">
+      <c r="V19" s="3">
         <v>-6.6</v>
       </c>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -2999,8 +3119,12 @@
       <c r="FA19" s="3"/>
       <c r="FB19" s="3"/>
       <c r="FC19" s="3"/>
+      <c r="FD19" s="3"/>
+      <c r="FE19" s="3"/>
+      <c r="FF19" s="3"/>
+      <c r="FG19" s="3"/>
     </row>
-    <row r="20" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -3025,7 +3149,7 @@
         <v>225.7000000000001</v>
       </c>
       <c r="H20" s="13">
-        <f t="shared" ref="H20:R20" si="8">+H17-SUM(H18:H19)</f>
+        <f t="shared" ref="H20:V20" si="8">+H17-SUM(H18:H19)</f>
         <v>345.30000000000018</v>
       </c>
       <c r="I20" s="13">
@@ -3036,39 +3160,42 @@
         <f t="shared" si="8"/>
         <v>-594</v>
       </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="13">
+      <c r="K20" s="13">
+        <f t="shared" si="8"/>
+        <v>318.70000000000005</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M20" s="13">
+      <c r="Q20" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="13">
+      <c r="R20" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O20" s="13">
+      <c r="S20" s="13">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P20" s="13">
+      <c r="T20" s="13">
         <f t="shared" si="8"/>
         <v>1143.0999999999997</v>
       </c>
-      <c r="Q20" s="13">
+      <c r="U20" s="13">
         <f t="shared" si="8"/>
         <v>1011.8999999999999</v>
       </c>
-      <c r="R20" s="13">
+      <c r="V20" s="13">
         <f t="shared" si="8"/>
         <v>216.1</v>
       </c>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -3206,8 +3333,12 @@
       <c r="FA20" s="3"/>
       <c r="FB20" s="3"/>
       <c r="FC20" s="3"/>
+      <c r="FD20" s="3"/>
+      <c r="FE20" s="3"/>
+      <c r="FF20" s="3"/>
+      <c r="FG20" s="3"/>
     </row>
-    <row r="21" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -3237,24 +3368,26 @@
         <f t="shared" si="2"/>
         <v>-76.900000000000006</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="K21" s="13">
+        <v>43.9</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3">
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3">
         <v>207.1</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>195.9</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>32.9</v>
       </c>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -3392,8 +3525,12 @@
       <c r="FA21" s="3"/>
       <c r="FB21" s="3"/>
       <c r="FC21" s="3"/>
+      <c r="FD21" s="3"/>
+      <c r="FE21" s="3"/>
+      <c r="FF21" s="3"/>
+      <c r="FG21" s="3"/>
     </row>
-    <row r="22" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>28</v>
       </c>
@@ -3418,7 +3555,7 @@
         <v>186.60000000000011</v>
       </c>
       <c r="H22" s="13">
-        <f t="shared" ref="H22:R22" si="10">+H20-H21</f>
+        <f t="shared" ref="H22:V22" si="10">+H20-H21</f>
         <v>310.4000000000002</v>
       </c>
       <c r="I22" s="13">
@@ -3429,39 +3566,42 @@
         <f t="shared" si="10"/>
         <v>-517.1</v>
       </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="13">
+      <c r="K22" s="13">
+        <f t="shared" si="10"/>
+        <v>274.80000000000007</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="M22" s="13">
+      <c r="Q22" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N22" s="13">
+      <c r="R22" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O22" s="13">
+      <c r="S22" s="13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P22" s="13">
+      <c r="T22" s="13">
         <f t="shared" si="10"/>
         <v>935.99999999999966</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="U22" s="13">
         <f t="shared" si="10"/>
         <v>815.99999999999989</v>
       </c>
-      <c r="R22" s="13">
+      <c r="V22" s="13">
         <f t="shared" si="10"/>
         <v>183.2</v>
       </c>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -3599,8 +3739,12 @@
       <c r="FA22" s="3"/>
       <c r="FB22" s="3"/>
       <c r="FC22" s="3"/>
+      <c r="FD22" s="3"/>
+      <c r="FE22" s="3"/>
+      <c r="FF22" s="3"/>
+      <c r="FG22" s="3"/>
     </row>
-    <row r="23" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -3758,85 +3902,92 @@
       <c r="FA23" s="3"/>
       <c r="FB23" s="3"/>
       <c r="FC23" s="3"/>
+      <c r="FD23" s="3"/>
+      <c r="FE23" s="3"/>
+      <c r="FF23" s="3"/>
+      <c r="FG23" s="3"/>
     </row>
-    <row r="24" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="19">
         <f t="shared" ref="C24:F24" si="11">+C22/C25</f>
         <v>0.85413929040735892</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="19">
         <f t="shared" si="11"/>
         <v>1.405582206716093</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="19">
         <f t="shared" si="11"/>
         <v>0.60740740740740773</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="19">
         <f t="shared" si="11"/>
         <v>0.73477859778597365</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="19">
         <f>+G22/G25</f>
         <v>0.80604751619870452</v>
       </c>
-      <c r="H24" s="16">
-        <f t="shared" ref="H24:J24" si="12">+H22/H25</f>
+      <c r="H24" s="19">
+        <f t="shared" ref="H24:K25" si="12">+H22/H25</f>
         <v>1.4115507048658491</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="19">
         <f t="shared" si="12"/>
         <v>0.98070429329474162</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="19">
         <f t="shared" si="12"/>
         <v>-2.3851476014760147</v>
       </c>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="e">
-        <f t="shared" ref="L24:Q24" si="13">+L22/L25</f>
+      <c r="K24" s="19">
+        <f t="shared" si="12"/>
+        <v>1.3236994219653182</v>
+      </c>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19" t="e">
+        <f t="shared" ref="P24:U24" si="13">+P22/P25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="16" t="e">
+      <c r="Q24" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="16" t="e">
+      <c r="R24" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="16" t="e">
+      <c r="S24" s="19" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="16">
+      <c r="T24" s="19">
         <f t="shared" si="13"/>
         <v>3.959390862944161</v>
       </c>
-      <c r="Q24" s="16">
+      <c r="U24" s="19">
         <f t="shared" si="13"/>
         <v>3.5602094240837694</v>
       </c>
-      <c r="R24" s="16">
-        <f>+R22/R25</f>
+      <c r="V24" s="19">
+        <f>+V22/V25</f>
         <v>0.84501845018450172</v>
       </c>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -3965,8 +4116,12 @@
       <c r="FA24" s="3"/>
       <c r="FB24" s="3"/>
       <c r="FC24" s="3"/>
+      <c r="FD24" s="3"/>
+      <c r="FE24" s="3"/>
+      <c r="FF24" s="3"/>
+      <c r="FG24" s="3"/>
     </row>
-    <row r="25" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>5</v>
       </c>
@@ -3993,27 +4148,29 @@
         <v>207.3</v>
       </c>
       <c r="J25" s="3">
-        <f>+R25</f>
+        <f>+V25</f>
         <v>216.8</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>207.6</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="3">
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3">
         <v>236.4</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="U25" s="3">
         <v>229.2</v>
       </c>
-      <c r="R25" s="3">
+      <c r="V25" s="3">
         <v>216.8</v>
       </c>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -4151,8 +4308,12 @@
       <c r="FA25" s="3"/>
       <c r="FB25" s="3"/>
       <c r="FC25" s="3"/>
+      <c r="FD25" s="3"/>
+      <c r="FE25" s="3"/>
+      <c r="FF25" s="3"/>
+      <c r="FG25" s="3"/>
     </row>
-    <row r="26" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -4310,8 +4471,12 @@
       <c r="FA26" s="3"/>
       <c r="FB26" s="3"/>
       <c r="FC26" s="3"/>
+      <c r="FD26" s="3"/>
+      <c r="FE26" s="3"/>
+      <c r="FF26" s="3"/>
+      <c r="FG26" s="3"/>
     </row>
-    <row r="27" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
@@ -4325,34 +4490,34 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="17" t="e">
-        <f t="shared" ref="M27:Q27" si="14">+M8/L8-1</f>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="16" t="e">
+        <f t="shared" ref="Q27:U27" si="14">+Q8/P8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="17" t="e">
+      <c r="R27" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O27" s="17" t="e">
+      <c r="S27" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P27" s="17" t="e">
+      <c r="T27" s="16" t="e">
         <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="U27" s="16">
         <f t="shared" si="14"/>
         <v>-1.8894331700489819E-2</v>
       </c>
-      <c r="R27" s="17">
-        <f>+R8/Q8-1</f>
+      <c r="V27" s="16">
+        <f>+V8/U8-1</f>
         <v>-2.2111269614835893E-2</v>
       </c>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
@@ -4490,8 +4655,12 @@
       <c r="FA27" s="3"/>
       <c r="FB27" s="3"/>
       <c r="FC27" s="3"/>
+      <c r="FD27" s="3"/>
+      <c r="FE27" s="3"/>
+      <c r="FF27" s="3"/>
+      <c r="FG27" s="3"/>
     </row>
-    <row r="28" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
@@ -4499,52 +4668,55 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <f t="shared" ref="G28:H31" si="15">+G10/C10-1</f>
         <v>1.1404872991187087E-2</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="16">
         <f t="shared" si="15"/>
         <v>0.10856735196835055</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <f>+I10/E10-1</f>
         <v>0.12910265363128492</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="16">
         <f>+J10/F10-1</f>
         <v>0.139715291106846</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="17" t="e">
-        <f t="shared" ref="M28:Q31" si="16">+M10/L10-1</f>
+      <c r="K28" s="16">
+        <f>+K10/G10-1</f>
+        <v>0.22142491030240907</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="16" t="e">
+        <f t="shared" ref="Q28:U31" si="16">+Q10/P10-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="17" t="e">
+      <c r="R28" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O28" s="17" t="e">
+      <c r="S28" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P28" s="17" t="e">
+      <c r="T28" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="U28" s="16">
         <f t="shared" si="16"/>
         <v>2.7195387468752719E-2</v>
       </c>
-      <c r="R28" s="17">
-        <f>+R10/Q10-1</f>
+      <c r="V28" s="16">
+        <f>+V10/U10-1</f>
         <v>9.8757678645025715E-2</v>
       </c>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
@@ -4682,8 +4854,12 @@
       <c r="FA28" s="3"/>
       <c r="FB28" s="3"/>
       <c r="FC28" s="3"/>
+      <c r="FD28" s="3"/>
+      <c r="FE28" s="3"/>
+      <c r="FF28" s="3"/>
+      <c r="FG28" s="3"/>
     </row>
-    <row r="29" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>38</v>
       </c>
@@ -4691,52 +4867,55 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="17">
+      <c r="G29" s="16">
         <f t="shared" si="15"/>
         <v>-6.5963060686015873E-2</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="16">
         <f t="shared" si="15"/>
         <v>-9.5569070373588194E-2</v>
       </c>
-      <c r="I29" s="17">
-        <f t="shared" ref="I29:J31" si="17">+I11/E11-1</f>
+      <c r="I29" s="16">
+        <f t="shared" ref="I29:K31" si="17">+I11/E11-1</f>
         <v>-0.12753829711435694</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="16">
         <f t="shared" si="17"/>
         <v>-0.12926577042399201</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="17" t="e">
+      <c r="K29" s="16">
+        <f t="shared" si="17"/>
+        <v>-8.1214689265536766E-2</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="17" t="e">
+      <c r="R29" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O29" s="17" t="e">
+      <c r="S29" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P29" s="17" t="e">
+      <c r="T29" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="U29" s="16">
         <f t="shared" si="16"/>
         <v>-5.9553174994714242E-2</v>
       </c>
-      <c r="R29" s="17">
-        <f t="shared" ref="R29:R31" si="18">+R11/Q11-1</f>
+      <c r="V29" s="16">
+        <f t="shared" ref="V29:V31" si="18">+V11/U11-1</f>
         <v>-0.10289268585131905</v>
       </c>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
@@ -4874,8 +5053,12 @@
       <c r="FA29" s="3"/>
       <c r="FB29" s="3"/>
       <c r="FC29" s="3"/>
+      <c r="FD29" s="3"/>
+      <c r="FE29" s="3"/>
+      <c r="FF29" s="3"/>
+      <c r="FG29" s="3"/>
     </row>
-    <row r="30" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>39</v>
       </c>
@@ -4883,52 +5066,55 @@
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <f t="shared" si="15"/>
         <v>2.0912547528517234E-2</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="16">
         <f t="shared" si="15"/>
         <v>-0.15206812652068125</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <f t="shared" si="17"/>
         <v>-0.17647058823529405</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="16">
         <f t="shared" si="17"/>
         <v>-0.10079051383399251</v>
       </c>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="17" t="e">
+      <c r="K30" s="16">
+        <f t="shared" si="17"/>
+        <v>-0.72811918063314707</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N30" s="17" t="e">
+      <c r="R30" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O30" s="17" t="e">
+      <c r="S30" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P30" s="17" t="e">
+      <c r="T30" s="16" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="U30" s="16">
         <f t="shared" si="16"/>
         <v>-0.14240056818181823</v>
       </c>
-      <c r="R30" s="17">
+      <c r="V30" s="16">
         <f t="shared" si="18"/>
         <v>-0.10931677018633545</v>
       </c>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
@@ -5066,8 +5252,12 @@
       <c r="FA30" s="3"/>
       <c r="FB30" s="3"/>
       <c r="FC30" s="3"/>
+      <c r="FD30" s="3"/>
+      <c r="FE30" s="3"/>
+      <c r="FF30" s="3"/>
+      <c r="FG30" s="3"/>
     </row>
-    <row r="31" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>40</v>
       </c>
@@ -5075,52 +5265,55 @@
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="18">
+      <c r="G31" s="17">
         <f t="shared" si="15"/>
         <v>-3.7668517049960215E-3</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="17">
         <f t="shared" si="15"/>
         <v>5.3202206764212168E-2</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="17">
         <f t="shared" si="17"/>
         <v>6.8942255801403007E-2</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="17">
         <f t="shared" si="17"/>
         <v>8.3024322795550498E-2</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="18" t="e">
+      <c r="K31" s="17">
+        <f t="shared" si="17"/>
+        <v>0.13074626865671646</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="17" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N31" s="18" t="e">
+      <c r="R31" s="17" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="18" t="e">
+      <c r="S31" s="17" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P31" s="18" t="e">
+      <c r="T31" s="17" t="e">
         <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="U31" s="17">
         <f t="shared" si="16"/>
         <v>1.5463375820083947E-3</v>
       </c>
-      <c r="R31" s="18">
+      <c r="V31" s="17">
         <f t="shared" si="18"/>
         <v>5.0890394531718508E-2</v>
       </c>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
@@ -5258,76 +5451,83 @@
       <c r="FA31" s="3"/>
       <c r="FB31" s="3"/>
       <c r="FC31" s="3"/>
+      <c r="FD31" s="3"/>
+      <c r="FE31" s="3"/>
+      <c r="FF31" s="3"/>
+      <c r="FG31" s="3"/>
     </row>
-    <row r="32" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="16">
         <f t="shared" ref="C32:H32" si="19">+C15/C13</f>
         <v>0.72541633624107849</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="16">
         <f t="shared" si="19"/>
         <v>0.71633485248260975</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="16">
         <f t="shared" si="19"/>
         <v>0.74703184025903946</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <f t="shared" si="19"/>
         <v>0.74866444598076787</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="16">
         <f t="shared" si="19"/>
         <v>0.75283582089552248</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="16">
         <f t="shared" si="19"/>
         <v>0.7438735537942972</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="16">
         <f>+I15/I13</f>
         <v>0.76094913542849929</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="16">
         <f>+J15/J13</f>
         <v>0.76317316620241415</v>
       </c>
-      <c r="K32" s="3"/>
-      <c r="L32" s="17" t="e">
-        <f t="shared" ref="L32:R32" si="20">+L15/L13</f>
+      <c r="K32" s="16">
+        <f>+K15/K13</f>
+        <v>0.76293558606124612</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="16" t="e">
+        <f t="shared" ref="P32:V32" si="20">+P15/P13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="17" t="e">
+      <c r="Q32" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="17" t="e">
+      <c r="R32" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="17" t="e">
+      <c r="S32" s="16" t="e">
         <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P32" s="17">
+      <c r="T32" s="16">
         <f t="shared" si="20"/>
         <v>0.70784728790403695</v>
       </c>
-      <c r="Q32" s="17">
+      <c r="U32" s="16">
         <f t="shared" si="20"/>
         <v>0.73292660990526448</v>
       </c>
-      <c r="R32" s="17">
+      <c r="V32" s="16">
         <f t="shared" si="20"/>
         <v>0.75440398248391738</v>
       </c>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
@@ -5465,76 +5665,83 @@
       <c r="FA32" s="3"/>
       <c r="FB32" s="3"/>
       <c r="FC32" s="3"/>
+      <c r="FD32" s="3"/>
+      <c r="FE32" s="3"/>
+      <c r="FF32" s="3"/>
+      <c r="FG32" s="3"/>
     </row>
-    <row r="33" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <f t="shared" ref="C33:H33" si="21">+C17/C13</f>
         <v>0.16732751784298178</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <f t="shared" si="21"/>
         <v>0.21472775245862324</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <f t="shared" si="21"/>
         <v>0.13781705342687536</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <f t="shared" si="21"/>
         <v>0.14769656212682997</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="16">
         <f t="shared" si="21"/>
         <v>0.1671641791044777</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <f t="shared" si="21"/>
         <v>0.22446934499407861</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <f>+I17/I13</f>
         <v>0.16010349615044803</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <f>+J17/J13</f>
         <v>-0.33861420612813375</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="17" t="e">
-        <f t="shared" ref="L33:R33" si="22">+L17/L13</f>
+      <c r="K33" s="16">
+        <f>+K17/K13</f>
+        <v>0.19253783878915878</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="16" t="e">
+        <f t="shared" ref="P33:V33" si="22">+P17/P13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M33" s="17" t="e">
+      <c r="Q33" s="16" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N33" s="17" t="e">
+      <c r="R33" s="16" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O33" s="17" t="e">
+      <c r="S33" s="16" t="e">
         <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P33" s="17">
+      <c r="T33" s="16">
         <f t="shared" si="22"/>
         <v>0.17601225059676615</v>
       </c>
-      <c r="Q33" s="17">
+      <c r="U33" s="16">
         <f t="shared" si="22"/>
         <v>0.17089878882359993</v>
       </c>
-      <c r="R33" s="17">
+      <c r="V33" s="16">
         <f t="shared" si="22"/>
         <v>5.9195230148202035E-2</v>
       </c>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
@@ -5672,76 +5879,83 @@
       <c r="FA33" s="3"/>
       <c r="FB33" s="3"/>
       <c r="FC33" s="3"/>
+      <c r="FD33" s="3"/>
+      <c r="FE33" s="3"/>
+      <c r="FF33" s="3"/>
+      <c r="FG33" s="3"/>
     </row>
-    <row r="34" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="16">
         <f t="shared" ref="C34:H34" si="23">+C21/C20</f>
         <v>0.1823899371069182</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="16">
         <f t="shared" si="23"/>
         <v>0.20044653932026785</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="16">
         <f t="shared" si="23"/>
         <v>0.17758112094395276</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <f t="shared" si="23"/>
         <v>0.20667330677290929</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G34" s="16">
         <f t="shared" si="23"/>
         <v>0.1732388125830748</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="16">
         <f t="shared" si="23"/>
         <v>0.10107153200115836</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <f>+I21/I20</f>
         <v>0.14972814721873695</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <f>+J21/J20</f>
         <v>0.12946127946127947</v>
       </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="17" t="e">
-        <f t="shared" ref="L34:R34" si="24">+L21/L20</f>
+      <c r="K34" s="16">
+        <f>+K21/K20</f>
+        <v>0.13774709758393472</v>
+      </c>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="16" t="e">
+        <f t="shared" ref="P34:V34" si="24">+P21/P20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="17" t="e">
+      <c r="Q34" s="16" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="17" t="e">
+      <c r="R34" s="16" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="17" t="e">
+      <c r="S34" s="16" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="17">
+      <c r="T34" s="16">
         <f t="shared" si="24"/>
         <v>0.1811740005248885</v>
       </c>
-      <c r="Q34" s="17">
+      <c r="U34" s="16">
         <f t="shared" si="24"/>
         <v>0.19359620515861253</v>
       </c>
-      <c r="R34" s="17">
+      <c r="V34" s="16">
         <f t="shared" si="24"/>
         <v>0.15224433132808884</v>
       </c>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
@@ -5879,8 +6093,12 @@
       <c r="FA34" s="3"/>
       <c r="FB34" s="3"/>
       <c r="FC34" s="3"/>
+      <c r="FD34" s="3"/>
+      <c r="FE34" s="3"/>
+      <c r="FF34" s="3"/>
+      <c r="FG34" s="3"/>
     </row>
-    <row r="35" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -6038,8 +6256,12 @@
       <c r="FA35" s="3"/>
       <c r="FB35" s="3"/>
       <c r="FC35" s="3"/>
+      <c r="FD35" s="3"/>
+      <c r="FE35" s="3"/>
+      <c r="FF35" s="3"/>
+      <c r="FG35" s="3"/>
     </row>
-    <row r="36" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -6197,8 +6419,12 @@
       <c r="FA36" s="3"/>
       <c r="FB36" s="3"/>
       <c r="FC36" s="3"/>
+      <c r="FD36" s="3"/>
+      <c r="FE36" s="3"/>
+      <c r="FF36" s="3"/>
+      <c r="FG36" s="3"/>
     </row>
-    <row r="37" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -6356,8 +6582,12 @@
       <c r="FA37" s="3"/>
       <c r="FB37" s="3"/>
       <c r="FC37" s="3"/>
+      <c r="FD37" s="3"/>
+      <c r="FE37" s="3"/>
+      <c r="FF37" s="3"/>
+      <c r="FG37" s="3"/>
     </row>
-    <row r="38" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -6515,8 +6745,12 @@
       <c r="FA38" s="3"/>
       <c r="FB38" s="3"/>
       <c r="FC38" s="3"/>
+      <c r="FD38" s="3"/>
+      <c r="FE38" s="3"/>
+      <c r="FF38" s="3"/>
+      <c r="FG38" s="3"/>
     </row>
-    <row r="39" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -6674,8 +6908,12 @@
       <c r="FA39" s="3"/>
       <c r="FB39" s="3"/>
       <c r="FC39" s="3"/>
+      <c r="FD39" s="3"/>
+      <c r="FE39" s="3"/>
+      <c r="FF39" s="3"/>
+      <c r="FG39" s="3"/>
     </row>
-    <row r="40" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -6833,8 +7071,12 @@
       <c r="FA40" s="3"/>
       <c r="FB40" s="3"/>
       <c r="FC40" s="3"/>
+      <c r="FD40" s="3"/>
+      <c r="FE40" s="3"/>
+      <c r="FF40" s="3"/>
+      <c r="FG40" s="3"/>
     </row>
-    <row r="41" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -6992,8 +7234,12 @@
       <c r="FA41" s="3"/>
       <c r="FB41" s="3"/>
       <c r="FC41" s="3"/>
+      <c r="FD41" s="3"/>
+      <c r="FE41" s="3"/>
+      <c r="FF41" s="3"/>
+      <c r="FG41" s="3"/>
     </row>
-    <row r="42" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -7151,8 +7397,12 @@
       <c r="FA42" s="3"/>
       <c r="FB42" s="3"/>
       <c r="FC42" s="3"/>
+      <c r="FD42" s="3"/>
+      <c r="FE42" s="3"/>
+      <c r="FF42" s="3"/>
+      <c r="FG42" s="3"/>
     </row>
-    <row r="43" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -7310,8 +7560,12 @@
       <c r="FA43" s="3"/>
       <c r="FB43" s="3"/>
       <c r="FC43" s="3"/>
+      <c r="FD43" s="3"/>
+      <c r="FE43" s="3"/>
+      <c r="FF43" s="3"/>
+      <c r="FG43" s="3"/>
     </row>
-    <row r="44" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -7469,8 +7723,12 @@
       <c r="FA44" s="3"/>
       <c r="FB44" s="3"/>
       <c r="FC44" s="3"/>
+      <c r="FD44" s="3"/>
+      <c r="FE44" s="3"/>
+      <c r="FF44" s="3"/>
+      <c r="FG44" s="3"/>
     </row>
-    <row r="45" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -7628,8 +7886,12 @@
       <c r="FA45" s="3"/>
       <c r="FB45" s="3"/>
       <c r="FC45" s="3"/>
+      <c r="FD45" s="3"/>
+      <c r="FE45" s="3"/>
+      <c r="FF45" s="3"/>
+      <c r="FG45" s="3"/>
     </row>
-    <row r="46" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -7787,8 +8049,12 @@
       <c r="FA46" s="3"/>
       <c r="FB46" s="3"/>
       <c r="FC46" s="3"/>
+      <c r="FD46" s="3"/>
+      <c r="FE46" s="3"/>
+      <c r="FF46" s="3"/>
+      <c r="FG46" s="3"/>
     </row>
-    <row r="47" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -7946,8 +8212,12 @@
       <c r="FA47" s="3"/>
       <c r="FB47" s="3"/>
       <c r="FC47" s="3"/>
+      <c r="FD47" s="3"/>
+      <c r="FE47" s="3"/>
+      <c r="FF47" s="3"/>
+      <c r="FG47" s="3"/>
     </row>
-    <row r="48" spans="2:159" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:163" x14ac:dyDescent="0.2">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -8105,8 +8375,12 @@
       <c r="FA48" s="3"/>
       <c r="FB48" s="3"/>
       <c r="FC48" s="3"/>
+      <c r="FD48" s="3"/>
+      <c r="FE48" s="3"/>
+      <c r="FF48" s="3"/>
+      <c r="FG48" s="3"/>
     </row>
-    <row r="49" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -8264,8 +8538,12 @@
       <c r="FA49" s="3"/>
       <c r="FB49" s="3"/>
       <c r="FC49" s="3"/>
+      <c r="FD49" s="3"/>
+      <c r="FE49" s="3"/>
+      <c r="FF49" s="3"/>
+      <c r="FG49" s="3"/>
     </row>
-    <row r="50" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -8423,8 +8701,12 @@
       <c r="FA50" s="3"/>
       <c r="FB50" s="3"/>
       <c r="FC50" s="3"/>
+      <c r="FD50" s="3"/>
+      <c r="FE50" s="3"/>
+      <c r="FF50" s="3"/>
+      <c r="FG50" s="3"/>
     </row>
-    <row r="51" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -8582,8 +8864,12 @@
       <c r="FA51" s="3"/>
       <c r="FB51" s="3"/>
       <c r="FC51" s="3"/>
+      <c r="FD51" s="3"/>
+      <c r="FE51" s="3"/>
+      <c r="FF51" s="3"/>
+      <c r="FG51" s="3"/>
     </row>
-    <row r="52" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -8741,8 +9027,12 @@
       <c r="FA52" s="3"/>
       <c r="FB52" s="3"/>
       <c r="FC52" s="3"/>
+      <c r="FD52" s="3"/>
+      <c r="FE52" s="3"/>
+      <c r="FF52" s="3"/>
+      <c r="FG52" s="3"/>
     </row>
-    <row r="53" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -8900,8 +9190,12 @@
       <c r="FA53" s="3"/>
       <c r="FB53" s="3"/>
       <c r="FC53" s="3"/>
+      <c r="FD53" s="3"/>
+      <c r="FE53" s="3"/>
+      <c r="FF53" s="3"/>
+      <c r="FG53" s="3"/>
     </row>
-    <row r="54" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -9059,8 +9353,12 @@
       <c r="FA54" s="3"/>
       <c r="FB54" s="3"/>
       <c r="FC54" s="3"/>
+      <c r="FD54" s="3"/>
+      <c r="FE54" s="3"/>
+      <c r="FF54" s="3"/>
+      <c r="FG54" s="3"/>
     </row>
-    <row r="55" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -9218,8 +9516,12 @@
       <c r="FA55" s="3"/>
       <c r="FB55" s="3"/>
       <c r="FC55" s="3"/>
+      <c r="FD55" s="3"/>
+      <c r="FE55" s="3"/>
+      <c r="FF55" s="3"/>
+      <c r="FG55" s="3"/>
     </row>
-    <row r="56" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -9377,8 +9679,12 @@
       <c r="FA56" s="3"/>
       <c r="FB56" s="3"/>
       <c r="FC56" s="3"/>
+      <c r="FD56" s="3"/>
+      <c r="FE56" s="3"/>
+      <c r="FF56" s="3"/>
+      <c r="FG56" s="3"/>
     </row>
-    <row r="57" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -9536,8 +9842,12 @@
       <c r="FA57" s="3"/>
       <c r="FB57" s="3"/>
       <c r="FC57" s="3"/>
+      <c r="FD57" s="3"/>
+      <c r="FE57" s="3"/>
+      <c r="FF57" s="3"/>
+      <c r="FG57" s="3"/>
     </row>
-    <row r="58" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -9695,8 +10005,12 @@
       <c r="FA58" s="3"/>
       <c r="FB58" s="3"/>
       <c r="FC58" s="3"/>
+      <c r="FD58" s="3"/>
+      <c r="FE58" s="3"/>
+      <c r="FF58" s="3"/>
+      <c r="FG58" s="3"/>
     </row>
-    <row r="59" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -9854,8 +10168,12 @@
       <c r="FA59" s="3"/>
       <c r="FB59" s="3"/>
       <c r="FC59" s="3"/>
+      <c r="FD59" s="3"/>
+      <c r="FE59" s="3"/>
+      <c r="FF59" s="3"/>
+      <c r="FG59" s="3"/>
     </row>
-    <row r="60" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -10013,8 +10331,12 @@
       <c r="FA60" s="3"/>
       <c r="FB60" s="3"/>
       <c r="FC60" s="3"/>
+      <c r="FD60" s="3"/>
+      <c r="FE60" s="3"/>
+      <c r="FF60" s="3"/>
+      <c r="FG60" s="3"/>
     </row>
-    <row r="61" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -10172,8 +10494,12 @@
       <c r="FA61" s="3"/>
       <c r="FB61" s="3"/>
       <c r="FC61" s="3"/>
+      <c r="FD61" s="3"/>
+      <c r="FE61" s="3"/>
+      <c r="FF61" s="3"/>
+      <c r="FG61" s="3"/>
     </row>
-    <row r="62" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -10331,8 +10657,12 @@
       <c r="FA62" s="3"/>
       <c r="FB62" s="3"/>
       <c r="FC62" s="3"/>
+      <c r="FD62" s="3"/>
+      <c r="FE62" s="3"/>
+      <c r="FF62" s="3"/>
+      <c r="FG62" s="3"/>
     </row>
-    <row r="63" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -10490,8 +10820,12 @@
       <c r="FA63" s="3"/>
       <c r="FB63" s="3"/>
       <c r="FC63" s="3"/>
+      <c r="FD63" s="3"/>
+      <c r="FE63" s="3"/>
+      <c r="FF63" s="3"/>
+      <c r="FG63" s="3"/>
     </row>
-    <row r="64" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
@@ -10649,8 +10983,12 @@
       <c r="FA64" s="3"/>
       <c r="FB64" s="3"/>
       <c r="FC64" s="3"/>
+      <c r="FD64" s="3"/>
+      <c r="FE64" s="3"/>
+      <c r="FF64" s="3"/>
+      <c r="FG64" s="3"/>
     </row>
-    <row r="65" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -10808,8 +11146,12 @@
       <c r="FA65" s="3"/>
       <c r="FB65" s="3"/>
       <c r="FC65" s="3"/>
+      <c r="FD65" s="3"/>
+      <c r="FE65" s="3"/>
+      <c r="FF65" s="3"/>
+      <c r="FG65" s="3"/>
     </row>
-    <row r="66" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -10967,8 +11309,12 @@
       <c r="FA66" s="3"/>
       <c r="FB66" s="3"/>
       <c r="FC66" s="3"/>
+      <c r="FD66" s="3"/>
+      <c r="FE66" s="3"/>
+      <c r="FF66" s="3"/>
+      <c r="FG66" s="3"/>
     </row>
-    <row r="67" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -11126,8 +11472,12 @@
       <c r="FA67" s="3"/>
       <c r="FB67" s="3"/>
       <c r="FC67" s="3"/>
+      <c r="FD67" s="3"/>
+      <c r="FE67" s="3"/>
+      <c r="FF67" s="3"/>
+      <c r="FG67" s="3"/>
     </row>
-    <row r="68" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -11285,8 +11635,12 @@
       <c r="FA68" s="3"/>
       <c r="FB68" s="3"/>
       <c r="FC68" s="3"/>
+      <c r="FD68" s="3"/>
+      <c r="FE68" s="3"/>
+      <c r="FF68" s="3"/>
+      <c r="FG68" s="3"/>
     </row>
-    <row r="69" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -11444,8 +11798,12 @@
       <c r="FA69" s="3"/>
       <c r="FB69" s="3"/>
       <c r="FC69" s="3"/>
+      <c r="FD69" s="3"/>
+      <c r="FE69" s="3"/>
+      <c r="FF69" s="3"/>
+      <c r="FG69" s="3"/>
     </row>
-    <row r="70" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -11603,8 +11961,12 @@
       <c r="FA70" s="3"/>
       <c r="FB70" s="3"/>
       <c r="FC70" s="3"/>
+      <c r="FD70" s="3"/>
+      <c r="FE70" s="3"/>
+      <c r="FF70" s="3"/>
+      <c r="FG70" s="3"/>
     </row>
-    <row r="71" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -11762,8 +12124,12 @@
       <c r="FA71" s="3"/>
       <c r="FB71" s="3"/>
       <c r="FC71" s="3"/>
+      <c r="FD71" s="3"/>
+      <c r="FE71" s="3"/>
+      <c r="FF71" s="3"/>
+      <c r="FG71" s="3"/>
     </row>
-    <row r="72" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -11921,8 +12287,12 @@
       <c r="FA72" s="3"/>
       <c r="FB72" s="3"/>
       <c r="FC72" s="3"/>
+      <c r="FD72" s="3"/>
+      <c r="FE72" s="3"/>
+      <c r="FF72" s="3"/>
+      <c r="FG72" s="3"/>
     </row>
-    <row r="73" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -12080,8 +12450,12 @@
       <c r="FA73" s="3"/>
       <c r="FB73" s="3"/>
       <c r="FC73" s="3"/>
+      <c r="FD73" s="3"/>
+      <c r="FE73" s="3"/>
+      <c r="FF73" s="3"/>
+      <c r="FG73" s="3"/>
     </row>
-    <row r="74" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -12239,8 +12613,12 @@
       <c r="FA74" s="3"/>
       <c r="FB74" s="3"/>
       <c r="FC74" s="3"/>
+      <c r="FD74" s="3"/>
+      <c r="FE74" s="3"/>
+      <c r="FF74" s="3"/>
+      <c r="FG74" s="3"/>
     </row>
-    <row r="75" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -12398,8 +12776,12 @@
       <c r="FA75" s="3"/>
       <c r="FB75" s="3"/>
       <c r="FC75" s="3"/>
+      <c r="FD75" s="3"/>
+      <c r="FE75" s="3"/>
+      <c r="FF75" s="3"/>
+      <c r="FG75" s="3"/>
     </row>
-    <row r="76" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -12557,8 +12939,12 @@
       <c r="FA76" s="3"/>
       <c r="FB76" s="3"/>
       <c r="FC76" s="3"/>
+      <c r="FD76" s="3"/>
+      <c r="FE76" s="3"/>
+      <c r="FF76" s="3"/>
+      <c r="FG76" s="3"/>
     </row>
-    <row r="77" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -12716,8 +13102,12 @@
       <c r="FA77" s="3"/>
       <c r="FB77" s="3"/>
       <c r="FC77" s="3"/>
+      <c r="FD77" s="3"/>
+      <c r="FE77" s="3"/>
+      <c r="FF77" s="3"/>
+      <c r="FG77" s="3"/>
     </row>
-    <row r="78" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -12875,8 +13265,12 @@
       <c r="FA78" s="3"/>
       <c r="FB78" s="3"/>
       <c r="FC78" s="3"/>
+      <c r="FD78" s="3"/>
+      <c r="FE78" s="3"/>
+      <c r="FF78" s="3"/>
+      <c r="FG78" s="3"/>
     </row>
-    <row r="79" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -13034,8 +13428,12 @@
       <c r="FA79" s="3"/>
       <c r="FB79" s="3"/>
       <c r="FC79" s="3"/>
+      <c r="FD79" s="3"/>
+      <c r="FE79" s="3"/>
+      <c r="FF79" s="3"/>
+      <c r="FG79" s="3"/>
     </row>
-    <row r="80" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -13193,8 +13591,12 @@
       <c r="FA80" s="3"/>
       <c r="FB80" s="3"/>
       <c r="FC80" s="3"/>
+      <c r="FD80" s="3"/>
+      <c r="FE80" s="3"/>
+      <c r="FF80" s="3"/>
+      <c r="FG80" s="3"/>
     </row>
-    <row r="81" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -13352,8 +13754,12 @@
       <c r="FA81" s="3"/>
       <c r="FB81" s="3"/>
       <c r="FC81" s="3"/>
+      <c r="FD81" s="3"/>
+      <c r="FE81" s="3"/>
+      <c r="FF81" s="3"/>
+      <c r="FG81" s="3"/>
     </row>
-    <row r="82" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -13511,8 +13917,12 @@
       <c r="FA82" s="3"/>
       <c r="FB82" s="3"/>
       <c r="FC82" s="3"/>
+      <c r="FD82" s="3"/>
+      <c r="FE82" s="3"/>
+      <c r="FF82" s="3"/>
+      <c r="FG82" s="3"/>
     </row>
-    <row r="83" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -13670,8 +14080,12 @@
       <c r="FA83" s="3"/>
       <c r="FB83" s="3"/>
       <c r="FC83" s="3"/>
+      <c r="FD83" s="3"/>
+      <c r="FE83" s="3"/>
+      <c r="FF83" s="3"/>
+      <c r="FG83" s="3"/>
     </row>
-    <row r="84" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -13829,8 +14243,12 @@
       <c r="FA84" s="3"/>
       <c r="FB84" s="3"/>
       <c r="FC84" s="3"/>
+      <c r="FD84" s="3"/>
+      <c r="FE84" s="3"/>
+      <c r="FF84" s="3"/>
+      <c r="FG84" s="3"/>
     </row>
-    <row r="85" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -13988,8 +14406,12 @@
       <c r="FA85" s="3"/>
       <c r="FB85" s="3"/>
       <c r="FC85" s="3"/>
+      <c r="FD85" s="3"/>
+      <c r="FE85" s="3"/>
+      <c r="FF85" s="3"/>
+      <c r="FG85" s="3"/>
     </row>
-    <row r="86" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -14147,8 +14569,12 @@
       <c r="FA86" s="3"/>
       <c r="FB86" s="3"/>
       <c r="FC86" s="3"/>
+      <c r="FD86" s="3"/>
+      <c r="FE86" s="3"/>
+      <c r="FF86" s="3"/>
+      <c r="FG86" s="3"/>
     </row>
-    <row r="87" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -14306,8 +14732,12 @@
       <c r="FA87" s="3"/>
       <c r="FB87" s="3"/>
       <c r="FC87" s="3"/>
+      <c r="FD87" s="3"/>
+      <c r="FE87" s="3"/>
+      <c r="FF87" s="3"/>
+      <c r="FG87" s="3"/>
     </row>
-    <row r="88" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -14465,8 +14895,12 @@
       <c r="FA88" s="3"/>
       <c r="FB88" s="3"/>
       <c r="FC88" s="3"/>
+      <c r="FD88" s="3"/>
+      <c r="FE88" s="3"/>
+      <c r="FF88" s="3"/>
+      <c r="FG88" s="3"/>
     </row>
-    <row r="89" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -14624,8 +15058,12 @@
       <c r="FA89" s="3"/>
       <c r="FB89" s="3"/>
       <c r="FC89" s="3"/>
+      <c r="FD89" s="3"/>
+      <c r="FE89" s="3"/>
+      <c r="FF89" s="3"/>
+      <c r="FG89" s="3"/>
     </row>
-    <row r="90" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -14783,8 +15221,12 @@
       <c r="FA90" s="3"/>
       <c r="FB90" s="3"/>
       <c r="FC90" s="3"/>
+      <c r="FD90" s="3"/>
+      <c r="FE90" s="3"/>
+      <c r="FF90" s="3"/>
+      <c r="FG90" s="3"/>
     </row>
-    <row r="91" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -14942,8 +15384,12 @@
       <c r="FA91" s="3"/>
       <c r="FB91" s="3"/>
       <c r="FC91" s="3"/>
+      <c r="FD91" s="3"/>
+      <c r="FE91" s="3"/>
+      <c r="FF91" s="3"/>
+      <c r="FG91" s="3"/>
     </row>
-    <row r="92" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -15101,8 +15547,12 @@
       <c r="FA92" s="3"/>
       <c r="FB92" s="3"/>
       <c r="FC92" s="3"/>
+      <c r="FD92" s="3"/>
+      <c r="FE92" s="3"/>
+      <c r="FF92" s="3"/>
+      <c r="FG92" s="3"/>
     </row>
-    <row r="93" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -15260,8 +15710,12 @@
       <c r="FA93" s="3"/>
       <c r="FB93" s="3"/>
       <c r="FC93" s="3"/>
+      <c r="FD93" s="3"/>
+      <c r="FE93" s="3"/>
+      <c r="FF93" s="3"/>
+      <c r="FG93" s="3"/>
     </row>
-    <row r="94" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -15419,8 +15873,12 @@
       <c r="FA94" s="3"/>
       <c r="FB94" s="3"/>
       <c r="FC94" s="3"/>
+      <c r="FD94" s="3"/>
+      <c r="FE94" s="3"/>
+      <c r="FF94" s="3"/>
+      <c r="FG94" s="3"/>
     </row>
-    <row r="95" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -15578,8 +16036,12 @@
       <c r="FA95" s="3"/>
       <c r="FB95" s="3"/>
       <c r="FC95" s="3"/>
+      <c r="FD95" s="3"/>
+      <c r="FE95" s="3"/>
+      <c r="FF95" s="3"/>
+      <c r="FG95" s="3"/>
     </row>
-    <row r="96" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -15737,8 +16199,12 @@
       <c r="FA96" s="3"/>
       <c r="FB96" s="3"/>
       <c r="FC96" s="3"/>
+      <c r="FD96" s="3"/>
+      <c r="FE96" s="3"/>
+      <c r="FF96" s="3"/>
+      <c r="FG96" s="3"/>
     </row>
-    <row r="97" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -15896,8 +16362,12 @@
       <c r="FA97" s="3"/>
       <c r="FB97" s="3"/>
       <c r="FC97" s="3"/>
+      <c r="FD97" s="3"/>
+      <c r="FE97" s="3"/>
+      <c r="FF97" s="3"/>
+      <c r="FG97" s="3"/>
     </row>
-    <row r="98" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -16055,8 +16525,12 @@
       <c r="FA98" s="3"/>
       <c r="FB98" s="3"/>
       <c r="FC98" s="3"/>
+      <c r="FD98" s="3"/>
+      <c r="FE98" s="3"/>
+      <c r="FF98" s="3"/>
+      <c r="FG98" s="3"/>
     </row>
-    <row r="99" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -16214,8 +16688,12 @@
       <c r="FA99" s="3"/>
       <c r="FB99" s="3"/>
       <c r="FC99" s="3"/>
+      <c r="FD99" s="3"/>
+      <c r="FE99" s="3"/>
+      <c r="FF99" s="3"/>
+      <c r="FG99" s="3"/>
     </row>
-    <row r="100" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -16373,8 +16851,12 @@
       <c r="FA100" s="3"/>
       <c r="FB100" s="3"/>
       <c r="FC100" s="3"/>
+      <c r="FD100" s="3"/>
+      <c r="FE100" s="3"/>
+      <c r="FF100" s="3"/>
+      <c r="FG100" s="3"/>
     </row>
-    <row r="101" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -16532,8 +17014,12 @@
       <c r="FA101" s="3"/>
       <c r="FB101" s="3"/>
       <c r="FC101" s="3"/>
+      <c r="FD101" s="3"/>
+      <c r="FE101" s="3"/>
+      <c r="FF101" s="3"/>
+      <c r="FG101" s="3"/>
     </row>
-    <row r="102" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -16691,8 +17177,12 @@
       <c r="FA102" s="3"/>
       <c r="FB102" s="3"/>
       <c r="FC102" s="3"/>
+      <c r="FD102" s="3"/>
+      <c r="FE102" s="3"/>
+      <c r="FF102" s="3"/>
+      <c r="FG102" s="3"/>
     </row>
-    <row r="103" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="103" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -16850,8 +17340,12 @@
       <c r="FA103" s="3"/>
       <c r="FB103" s="3"/>
       <c r="FC103" s="3"/>
+      <c r="FD103" s="3"/>
+      <c r="FE103" s="3"/>
+      <c r="FF103" s="3"/>
+      <c r="FG103" s="3"/>
     </row>
-    <row r="104" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="104" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -17009,8 +17503,12 @@
       <c r="FA104" s="3"/>
       <c r="FB104" s="3"/>
       <c r="FC104" s="3"/>
+      <c r="FD104" s="3"/>
+      <c r="FE104" s="3"/>
+      <c r="FF104" s="3"/>
+      <c r="FG104" s="3"/>
     </row>
-    <row r="105" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="105" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -17168,8 +17666,12 @@
       <c r="FA105" s="3"/>
       <c r="FB105" s="3"/>
       <c r="FC105" s="3"/>
+      <c r="FD105" s="3"/>
+      <c r="FE105" s="3"/>
+      <c r="FF105" s="3"/>
+      <c r="FG105" s="3"/>
     </row>
-    <row r="106" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="106" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -17327,8 +17829,12 @@
       <c r="FA106" s="3"/>
       <c r="FB106" s="3"/>
       <c r="FC106" s="3"/>
+      <c r="FD106" s="3"/>
+      <c r="FE106" s="3"/>
+      <c r="FF106" s="3"/>
+      <c r="FG106" s="3"/>
     </row>
-    <row r="107" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="107" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -17486,8 +17992,12 @@
       <c r="FA107" s="3"/>
       <c r="FB107" s="3"/>
       <c r="FC107" s="3"/>
+      <c r="FD107" s="3"/>
+      <c r="FE107" s="3"/>
+      <c r="FF107" s="3"/>
+      <c r="FG107" s="3"/>
     </row>
-    <row r="108" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="108" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -17645,8 +18155,12 @@
       <c r="FA108" s="3"/>
       <c r="FB108" s="3"/>
       <c r="FC108" s="3"/>
+      <c r="FD108" s="3"/>
+      <c r="FE108" s="3"/>
+      <c r="FF108" s="3"/>
+      <c r="FG108" s="3"/>
     </row>
-    <row r="109" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="109" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -17804,8 +18318,12 @@
       <c r="FA109" s="3"/>
       <c r="FB109" s="3"/>
       <c r="FC109" s="3"/>
+      <c r="FD109" s="3"/>
+      <c r="FE109" s="3"/>
+      <c r="FF109" s="3"/>
+      <c r="FG109" s="3"/>
     </row>
-    <row r="110" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="110" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -17963,8 +18481,12 @@
       <c r="FA110" s="3"/>
       <c r="FB110" s="3"/>
       <c r="FC110" s="3"/>
+      <c r="FD110" s="3"/>
+      <c r="FE110" s="3"/>
+      <c r="FF110" s="3"/>
+      <c r="FG110" s="3"/>
     </row>
-    <row r="111" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="111" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -18122,8 +18644,12 @@
       <c r="FA111" s="3"/>
       <c r="FB111" s="3"/>
       <c r="FC111" s="3"/>
+      <c r="FD111" s="3"/>
+      <c r="FE111" s="3"/>
+      <c r="FF111" s="3"/>
+      <c r="FG111" s="3"/>
     </row>
-    <row r="112" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="112" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -18281,8 +18807,12 @@
       <c r="FA112" s="3"/>
       <c r="FB112" s="3"/>
       <c r="FC112" s="3"/>
+      <c r="FD112" s="3"/>
+      <c r="FE112" s="3"/>
+      <c r="FF112" s="3"/>
+      <c r="FG112" s="3"/>
     </row>
-    <row r="113" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="113" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -18440,8 +18970,12 @@
       <c r="FA113" s="3"/>
       <c r="FB113" s="3"/>
       <c r="FC113" s="3"/>
+      <c r="FD113" s="3"/>
+      <c r="FE113" s="3"/>
+      <c r="FF113" s="3"/>
+      <c r="FG113" s="3"/>
     </row>
-    <row r="114" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="114" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -18599,8 +19133,12 @@
       <c r="FA114" s="3"/>
       <c r="FB114" s="3"/>
       <c r="FC114" s="3"/>
+      <c r="FD114" s="3"/>
+      <c r="FE114" s="3"/>
+      <c r="FF114" s="3"/>
+      <c r="FG114" s="3"/>
     </row>
-    <row r="115" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="115" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -18758,8 +19296,12 @@
       <c r="FA115" s="3"/>
       <c r="FB115" s="3"/>
       <c r="FC115" s="3"/>
+      <c r="FD115" s="3"/>
+      <c r="FE115" s="3"/>
+      <c r="FF115" s="3"/>
+      <c r="FG115" s="3"/>
     </row>
-    <row r="116" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -18917,8 +19459,12 @@
       <c r="FA116" s="3"/>
       <c r="FB116" s="3"/>
       <c r="FC116" s="3"/>
+      <c r="FD116" s="3"/>
+      <c r="FE116" s="3"/>
+      <c r="FF116" s="3"/>
+      <c r="FG116" s="3"/>
     </row>
-    <row r="117" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -19076,8 +19622,12 @@
       <c r="FA117" s="3"/>
       <c r="FB117" s="3"/>
       <c r="FC117" s="3"/>
+      <c r="FD117" s="3"/>
+      <c r="FE117" s="3"/>
+      <c r="FF117" s="3"/>
+      <c r="FG117" s="3"/>
     </row>
-    <row r="118" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="118" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -19235,8 +19785,12 @@
       <c r="FA118" s="3"/>
       <c r="FB118" s="3"/>
       <c r="FC118" s="3"/>
+      <c r="FD118" s="3"/>
+      <c r="FE118" s="3"/>
+      <c r="FF118" s="3"/>
+      <c r="FG118" s="3"/>
     </row>
-    <row r="119" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="119" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -19394,8 +19948,12 @@
       <c r="FA119" s="3"/>
       <c r="FB119" s="3"/>
       <c r="FC119" s="3"/>
+      <c r="FD119" s="3"/>
+      <c r="FE119" s="3"/>
+      <c r="FF119" s="3"/>
+      <c r="FG119" s="3"/>
     </row>
-    <row r="120" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="120" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -19553,8 +20111,12 @@
       <c r="FA120" s="3"/>
       <c r="FB120" s="3"/>
       <c r="FC120" s="3"/>
+      <c r="FD120" s="3"/>
+      <c r="FE120" s="3"/>
+      <c r="FF120" s="3"/>
+      <c r="FG120" s="3"/>
     </row>
-    <row r="121" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -19712,8 +20274,12 @@
       <c r="FA121" s="3"/>
       <c r="FB121" s="3"/>
       <c r="FC121" s="3"/>
+      <c r="FD121" s="3"/>
+      <c r="FE121" s="3"/>
+      <c r="FF121" s="3"/>
+      <c r="FG121" s="3"/>
     </row>
-    <row r="122" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="122" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -19871,8 +20437,12 @@
       <c r="FA122" s="3"/>
       <c r="FB122" s="3"/>
       <c r="FC122" s="3"/>
+      <c r="FD122" s="3"/>
+      <c r="FE122" s="3"/>
+      <c r="FF122" s="3"/>
+      <c r="FG122" s="3"/>
     </row>
-    <row r="123" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -20030,8 +20600,12 @@
       <c r="FA123" s="3"/>
       <c r="FB123" s="3"/>
       <c r="FC123" s="3"/>
+      <c r="FD123" s="3"/>
+      <c r="FE123" s="3"/>
+      <c r="FF123" s="3"/>
+      <c r="FG123" s="3"/>
     </row>
-    <row r="124" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -20189,8 +20763,12 @@
       <c r="FA124" s="3"/>
       <c r="FB124" s="3"/>
       <c r="FC124" s="3"/>
+      <c r="FD124" s="3"/>
+      <c r="FE124" s="3"/>
+      <c r="FF124" s="3"/>
+      <c r="FG124" s="3"/>
     </row>
-    <row r="125" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -20348,8 +20926,12 @@
       <c r="FA125" s="3"/>
       <c r="FB125" s="3"/>
       <c r="FC125" s="3"/>
+      <c r="FD125" s="3"/>
+      <c r="FE125" s="3"/>
+      <c r="FF125" s="3"/>
+      <c r="FG125" s="3"/>
     </row>
-    <row r="126" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -20507,8 +21089,12 @@
       <c r="FA126" s="3"/>
       <c r="FB126" s="3"/>
       <c r="FC126" s="3"/>
+      <c r="FD126" s="3"/>
+      <c r="FE126" s="3"/>
+      <c r="FF126" s="3"/>
+      <c r="FG126" s="3"/>
     </row>
-    <row r="127" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -20666,8 +21252,12 @@
       <c r="FA127" s="3"/>
       <c r="FB127" s="3"/>
       <c r="FC127" s="3"/>
+      <c r="FD127" s="3"/>
+      <c r="FE127" s="3"/>
+      <c r="FF127" s="3"/>
+      <c r="FG127" s="3"/>
     </row>
-    <row r="128" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -20825,8 +21415,12 @@
       <c r="FA128" s="3"/>
       <c r="FB128" s="3"/>
       <c r="FC128" s="3"/>
+      <c r="FD128" s="3"/>
+      <c r="FE128" s="3"/>
+      <c r="FF128" s="3"/>
+      <c r="FG128" s="3"/>
     </row>
-    <row r="129" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -20984,8 +21578,12 @@
       <c r="FA129" s="3"/>
       <c r="FB129" s="3"/>
       <c r="FC129" s="3"/>
+      <c r="FD129" s="3"/>
+      <c r="FE129" s="3"/>
+      <c r="FF129" s="3"/>
+      <c r="FG129" s="3"/>
     </row>
-    <row r="130" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -21143,8 +21741,12 @@
       <c r="FA130" s="3"/>
       <c r="FB130" s="3"/>
       <c r="FC130" s="3"/>
+      <c r="FD130" s="3"/>
+      <c r="FE130" s="3"/>
+      <c r="FF130" s="3"/>
+      <c r="FG130" s="3"/>
     </row>
-    <row r="131" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -21302,8 +21904,12 @@
       <c r="FA131" s="3"/>
       <c r="FB131" s="3"/>
       <c r="FC131" s="3"/>
+      <c r="FD131" s="3"/>
+      <c r="FE131" s="3"/>
+      <c r="FF131" s="3"/>
+      <c r="FG131" s="3"/>
     </row>
-    <row r="132" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -21461,8 +22067,12 @@
       <c r="FA132" s="3"/>
       <c r="FB132" s="3"/>
       <c r="FC132" s="3"/>
+      <c r="FD132" s="3"/>
+      <c r="FE132" s="3"/>
+      <c r="FF132" s="3"/>
+      <c r="FG132" s="3"/>
     </row>
-    <row r="133" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -21620,8 +22230,12 @@
       <c r="FA133" s="3"/>
       <c r="FB133" s="3"/>
       <c r="FC133" s="3"/>
+      <c r="FD133" s="3"/>
+      <c r="FE133" s="3"/>
+      <c r="FF133" s="3"/>
+      <c r="FG133" s="3"/>
     </row>
-    <row r="134" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -21779,8 +22393,12 @@
       <c r="FA134" s="3"/>
       <c r="FB134" s="3"/>
       <c r="FC134" s="3"/>
+      <c r="FD134" s="3"/>
+      <c r="FE134" s="3"/>
+      <c r="FF134" s="3"/>
+      <c r="FG134" s="3"/>
     </row>
-    <row r="135" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -21938,8 +22556,12 @@
       <c r="FA135" s="3"/>
       <c r="FB135" s="3"/>
       <c r="FC135" s="3"/>
+      <c r="FD135" s="3"/>
+      <c r="FE135" s="3"/>
+      <c r="FF135" s="3"/>
+      <c r="FG135" s="3"/>
     </row>
-    <row r="136" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="136" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -22097,8 +22719,12 @@
       <c r="FA136" s="3"/>
       <c r="FB136" s="3"/>
       <c r="FC136" s="3"/>
+      <c r="FD136" s="3"/>
+      <c r="FE136" s="3"/>
+      <c r="FF136" s="3"/>
+      <c r="FG136" s="3"/>
     </row>
-    <row r="137" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="137" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -22256,8 +22882,12 @@
       <c r="FA137" s="3"/>
       <c r="FB137" s="3"/>
       <c r="FC137" s="3"/>
+      <c r="FD137" s="3"/>
+      <c r="FE137" s="3"/>
+      <c r="FF137" s="3"/>
+      <c r="FG137" s="3"/>
     </row>
-    <row r="138" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="138" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -22415,8 +23045,12 @@
       <c r="FA138" s="3"/>
       <c r="FB138" s="3"/>
       <c r="FC138" s="3"/>
+      <c r="FD138" s="3"/>
+      <c r="FE138" s="3"/>
+      <c r="FF138" s="3"/>
+      <c r="FG138" s="3"/>
     </row>
-    <row r="139" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="139" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -22574,8 +23208,12 @@
       <c r="FA139" s="3"/>
       <c r="FB139" s="3"/>
       <c r="FC139" s="3"/>
+      <c r="FD139" s="3"/>
+      <c r="FE139" s="3"/>
+      <c r="FF139" s="3"/>
+      <c r="FG139" s="3"/>
     </row>
-    <row r="140" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="140" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -22733,8 +23371,12 @@
       <c r="FA140" s="3"/>
       <c r="FB140" s="3"/>
       <c r="FC140" s="3"/>
+      <c r="FD140" s="3"/>
+      <c r="FE140" s="3"/>
+      <c r="FF140" s="3"/>
+      <c r="FG140" s="3"/>
     </row>
-    <row r="141" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="141" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -22892,8 +23534,12 @@
       <c r="FA141" s="3"/>
       <c r="FB141" s="3"/>
       <c r="FC141" s="3"/>
+      <c r="FD141" s="3"/>
+      <c r="FE141" s="3"/>
+      <c r="FF141" s="3"/>
+      <c r="FG141" s="3"/>
     </row>
-    <row r="142" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="142" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -23051,8 +23697,12 @@
       <c r="FA142" s="3"/>
       <c r="FB142" s="3"/>
       <c r="FC142" s="3"/>
+      <c r="FD142" s="3"/>
+      <c r="FE142" s="3"/>
+      <c r="FF142" s="3"/>
+      <c r="FG142" s="3"/>
     </row>
-    <row r="143" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="143" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -23210,8 +23860,12 @@
       <c r="FA143" s="3"/>
       <c r="FB143" s="3"/>
       <c r="FC143" s="3"/>
+      <c r="FD143" s="3"/>
+      <c r="FE143" s="3"/>
+      <c r="FF143" s="3"/>
+      <c r="FG143" s="3"/>
     </row>
-    <row r="144" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="144" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -23369,8 +24023,12 @@
       <c r="FA144" s="3"/>
       <c r="FB144" s="3"/>
       <c r="FC144" s="3"/>
+      <c r="FD144" s="3"/>
+      <c r="FE144" s="3"/>
+      <c r="FF144" s="3"/>
+      <c r="FG144" s="3"/>
     </row>
-    <row r="145" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -23528,8 +24186,12 @@
       <c r="FA145" s="3"/>
       <c r="FB145" s="3"/>
       <c r="FC145" s="3"/>
+      <c r="FD145" s="3"/>
+      <c r="FE145" s="3"/>
+      <c r="FF145" s="3"/>
+      <c r="FG145" s="3"/>
     </row>
-    <row r="146" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -23687,8 +24349,12 @@
       <c r="FA146" s="3"/>
       <c r="FB146" s="3"/>
       <c r="FC146" s="3"/>
+      <c r="FD146" s="3"/>
+      <c r="FE146" s="3"/>
+      <c r="FF146" s="3"/>
+      <c r="FG146" s="3"/>
     </row>
-    <row r="147" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -23846,8 +24512,12 @@
       <c r="FA147" s="3"/>
       <c r="FB147" s="3"/>
       <c r="FC147" s="3"/>
+      <c r="FD147" s="3"/>
+      <c r="FE147" s="3"/>
+      <c r="FF147" s="3"/>
+      <c r="FG147" s="3"/>
     </row>
-    <row r="148" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -24005,8 +24675,12 @@
       <c r="FA148" s="3"/>
       <c r="FB148" s="3"/>
       <c r="FC148" s="3"/>
+      <c r="FD148" s="3"/>
+      <c r="FE148" s="3"/>
+      <c r="FF148" s="3"/>
+      <c r="FG148" s="3"/>
     </row>
-    <row r="149" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -24164,8 +24838,12 @@
       <c r="FA149" s="3"/>
       <c r="FB149" s="3"/>
       <c r="FC149" s="3"/>
+      <c r="FD149" s="3"/>
+      <c r="FE149" s="3"/>
+      <c r="FF149" s="3"/>
+      <c r="FG149" s="3"/>
     </row>
-    <row r="150" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -24323,8 +25001,12 @@
       <c r="FA150" s="3"/>
       <c r="FB150" s="3"/>
       <c r="FC150" s="3"/>
+      <c r="FD150" s="3"/>
+      <c r="FE150" s="3"/>
+      <c r="FF150" s="3"/>
+      <c r="FG150" s="3"/>
     </row>
-    <row r="151" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="151" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -24482,8 +25164,12 @@
       <c r="FA151" s="3"/>
       <c r="FB151" s="3"/>
       <c r="FC151" s="3"/>
+      <c r="FD151" s="3"/>
+      <c r="FE151" s="3"/>
+      <c r="FF151" s="3"/>
+      <c r="FG151" s="3"/>
     </row>
-    <row r="152" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="152" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -24641,8 +25327,12 @@
       <c r="FA152" s="3"/>
       <c r="FB152" s="3"/>
       <c r="FC152" s="3"/>
+      <c r="FD152" s="3"/>
+      <c r="FE152" s="3"/>
+      <c r="FF152" s="3"/>
+      <c r="FG152" s="3"/>
     </row>
-    <row r="153" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="153" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -24800,8 +25490,12 @@
       <c r="FA153" s="3"/>
       <c r="FB153" s="3"/>
       <c r="FC153" s="3"/>
+      <c r="FD153" s="3"/>
+      <c r="FE153" s="3"/>
+      <c r="FF153" s="3"/>
+      <c r="FG153" s="3"/>
     </row>
-    <row r="154" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="154" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -24959,8 +25653,12 @@
       <c r="FA154" s="3"/>
       <c r="FB154" s="3"/>
       <c r="FC154" s="3"/>
+      <c r="FD154" s="3"/>
+      <c r="FE154" s="3"/>
+      <c r="FF154" s="3"/>
+      <c r="FG154" s="3"/>
     </row>
-    <row r="155" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="155" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -25118,8 +25816,12 @@
       <c r="FA155" s="3"/>
       <c r="FB155" s="3"/>
       <c r="FC155" s="3"/>
+      <c r="FD155" s="3"/>
+      <c r="FE155" s="3"/>
+      <c r="FF155" s="3"/>
+      <c r="FG155" s="3"/>
     </row>
-    <row r="156" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="156" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -25277,8 +25979,12 @@
       <c r="FA156" s="3"/>
       <c r="FB156" s="3"/>
       <c r="FC156" s="3"/>
+      <c r="FD156" s="3"/>
+      <c r="FE156" s="3"/>
+      <c r="FF156" s="3"/>
+      <c r="FG156" s="3"/>
     </row>
-    <row r="157" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="157" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -25436,8 +26142,12 @@
       <c r="FA157" s="3"/>
       <c r="FB157" s="3"/>
       <c r="FC157" s="3"/>
+      <c r="FD157" s="3"/>
+      <c r="FE157" s="3"/>
+      <c r="FF157" s="3"/>
+      <c r="FG157" s="3"/>
     </row>
-    <row r="158" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="158" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -25595,8 +26305,12 @@
       <c r="FA158" s="3"/>
       <c r="FB158" s="3"/>
       <c r="FC158" s="3"/>
+      <c r="FD158" s="3"/>
+      <c r="FE158" s="3"/>
+      <c r="FF158" s="3"/>
+      <c r="FG158" s="3"/>
     </row>
-    <row r="159" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="159" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -25754,8 +26468,12 @@
       <c r="FA159" s="3"/>
       <c r="FB159" s="3"/>
       <c r="FC159" s="3"/>
+      <c r="FD159" s="3"/>
+      <c r="FE159" s="3"/>
+      <c r="FF159" s="3"/>
+      <c r="FG159" s="3"/>
     </row>
-    <row r="160" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="160" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -25913,8 +26631,12 @@
       <c r="FA160" s="3"/>
       <c r="FB160" s="3"/>
       <c r="FC160" s="3"/>
+      <c r="FD160" s="3"/>
+      <c r="FE160" s="3"/>
+      <c r="FF160" s="3"/>
+      <c r="FG160" s="3"/>
     </row>
-    <row r="161" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="161" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -26072,8 +26794,12 @@
       <c r="FA161" s="3"/>
       <c r="FB161" s="3"/>
       <c r="FC161" s="3"/>
+      <c r="FD161" s="3"/>
+      <c r="FE161" s="3"/>
+      <c r="FF161" s="3"/>
+      <c r="FG161" s="3"/>
     </row>
-    <row r="162" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="162" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -26231,8 +26957,12 @@
       <c r="FA162" s="3"/>
       <c r="FB162" s="3"/>
       <c r="FC162" s="3"/>
+      <c r="FD162" s="3"/>
+      <c r="FE162" s="3"/>
+      <c r="FF162" s="3"/>
+      <c r="FG162" s="3"/>
     </row>
-    <row r="163" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="163" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -26390,8 +27120,12 @@
       <c r="FA163" s="3"/>
       <c r="FB163" s="3"/>
       <c r="FC163" s="3"/>
+      <c r="FD163" s="3"/>
+      <c r="FE163" s="3"/>
+      <c r="FF163" s="3"/>
+      <c r="FG163" s="3"/>
     </row>
-    <row r="164" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="164" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -26549,8 +27283,12 @@
       <c r="FA164" s="3"/>
       <c r="FB164" s="3"/>
       <c r="FC164" s="3"/>
+      <c r="FD164" s="3"/>
+      <c r="FE164" s="3"/>
+      <c r="FF164" s="3"/>
+      <c r="FG164" s="3"/>
     </row>
-    <row r="165" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="165" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -26708,8 +27446,12 @@
       <c r="FA165" s="3"/>
       <c r="FB165" s="3"/>
       <c r="FC165" s="3"/>
+      <c r="FD165" s="3"/>
+      <c r="FE165" s="3"/>
+      <c r="FF165" s="3"/>
+      <c r="FG165" s="3"/>
     </row>
-    <row r="166" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="166" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -26867,8 +27609,12 @@
       <c r="FA166" s="3"/>
       <c r="FB166" s="3"/>
       <c r="FC166" s="3"/>
+      <c r="FD166" s="3"/>
+      <c r="FE166" s="3"/>
+      <c r="FF166" s="3"/>
+      <c r="FG166" s="3"/>
     </row>
-    <row r="167" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="167" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -27026,8 +27772,12 @@
       <c r="FA167" s="3"/>
       <c r="FB167" s="3"/>
       <c r="FC167" s="3"/>
+      <c r="FD167" s="3"/>
+      <c r="FE167" s="3"/>
+      <c r="FF167" s="3"/>
+      <c r="FG167" s="3"/>
     </row>
-    <row r="168" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="168" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -27185,8 +27935,12 @@
       <c r="FA168" s="3"/>
       <c r="FB168" s="3"/>
       <c r="FC168" s="3"/>
+      <c r="FD168" s="3"/>
+      <c r="FE168" s="3"/>
+      <c r="FF168" s="3"/>
+      <c r="FG168" s="3"/>
     </row>
-    <row r="169" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="169" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -27344,8 +28098,12 @@
       <c r="FA169" s="3"/>
       <c r="FB169" s="3"/>
       <c r="FC169" s="3"/>
+      <c r="FD169" s="3"/>
+      <c r="FE169" s="3"/>
+      <c r="FF169" s="3"/>
+      <c r="FG169" s="3"/>
     </row>
-    <row r="170" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="170" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -27503,8 +28261,12 @@
       <c r="FA170" s="3"/>
       <c r="FB170" s="3"/>
       <c r="FC170" s="3"/>
+      <c r="FD170" s="3"/>
+      <c r="FE170" s="3"/>
+      <c r="FF170" s="3"/>
+      <c r="FG170" s="3"/>
     </row>
-    <row r="171" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="171" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -27662,8 +28424,12 @@
       <c r="FA171" s="3"/>
       <c r="FB171" s="3"/>
       <c r="FC171" s="3"/>
+      <c r="FD171" s="3"/>
+      <c r="FE171" s="3"/>
+      <c r="FF171" s="3"/>
+      <c r="FG171" s="3"/>
     </row>
-    <row r="172" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="172" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -27821,8 +28587,12 @@
       <c r="FA172" s="3"/>
       <c r="FB172" s="3"/>
       <c r="FC172" s="3"/>
+      <c r="FD172" s="3"/>
+      <c r="FE172" s="3"/>
+      <c r="FF172" s="3"/>
+      <c r="FG172" s="3"/>
     </row>
-    <row r="173" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="173" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -27980,8 +28750,12 @@
       <c r="FA173" s="3"/>
       <c r="FB173" s="3"/>
       <c r="FC173" s="3"/>
+      <c r="FD173" s="3"/>
+      <c r="FE173" s="3"/>
+      <c r="FF173" s="3"/>
+      <c r="FG173" s="3"/>
     </row>
-    <row r="174" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="174" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -28139,8 +28913,12 @@
       <c r="FA174" s="3"/>
       <c r="FB174" s="3"/>
       <c r="FC174" s="3"/>
+      <c r="FD174" s="3"/>
+      <c r="FE174" s="3"/>
+      <c r="FF174" s="3"/>
+      <c r="FG174" s="3"/>
     </row>
-    <row r="175" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="175" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -28298,8 +29076,12 @@
       <c r="FA175" s="3"/>
       <c r="FB175" s="3"/>
       <c r="FC175" s="3"/>
+      <c r="FD175" s="3"/>
+      <c r="FE175" s="3"/>
+      <c r="FF175" s="3"/>
+      <c r="FG175" s="3"/>
     </row>
-    <row r="176" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="176" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -28457,8 +29239,12 @@
       <c r="FA176" s="3"/>
       <c r="FB176" s="3"/>
       <c r="FC176" s="3"/>
+      <c r="FD176" s="3"/>
+      <c r="FE176" s="3"/>
+      <c r="FF176" s="3"/>
+      <c r="FG176" s="3"/>
     </row>
-    <row r="177" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="177" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -28616,8 +29402,12 @@
       <c r="FA177" s="3"/>
       <c r="FB177" s="3"/>
       <c r="FC177" s="3"/>
+      <c r="FD177" s="3"/>
+      <c r="FE177" s="3"/>
+      <c r="FF177" s="3"/>
+      <c r="FG177" s="3"/>
     </row>
-    <row r="178" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="178" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -28775,8 +29565,12 @@
       <c r="FA178" s="3"/>
       <c r="FB178" s="3"/>
       <c r="FC178" s="3"/>
+      <c r="FD178" s="3"/>
+      <c r="FE178" s="3"/>
+      <c r="FF178" s="3"/>
+      <c r="FG178" s="3"/>
     </row>
-    <row r="179" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="179" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
@@ -28934,8 +29728,12 @@
       <c r="FA179" s="3"/>
       <c r="FB179" s="3"/>
       <c r="FC179" s="3"/>
+      <c r="FD179" s="3"/>
+      <c r="FE179" s="3"/>
+      <c r="FF179" s="3"/>
+      <c r="FG179" s="3"/>
     </row>
-    <row r="180" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="180" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -29093,8 +29891,12 @@
       <c r="FA180" s="3"/>
       <c r="FB180" s="3"/>
       <c r="FC180" s="3"/>
+      <c r="FD180" s="3"/>
+      <c r="FE180" s="3"/>
+      <c r="FF180" s="3"/>
+      <c r="FG180" s="3"/>
     </row>
-    <row r="181" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="181" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
@@ -29252,8 +30054,12 @@
       <c r="FA181" s="3"/>
       <c r="FB181" s="3"/>
       <c r="FC181" s="3"/>
+      <c r="FD181" s="3"/>
+      <c r="FE181" s="3"/>
+      <c r="FF181" s="3"/>
+      <c r="FG181" s="3"/>
     </row>
-    <row r="182" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="182" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -29411,8 +30217,12 @@
       <c r="FA182" s="3"/>
       <c r="FB182" s="3"/>
       <c r="FC182" s="3"/>
+      <c r="FD182" s="3"/>
+      <c r="FE182" s="3"/>
+      <c r="FF182" s="3"/>
+      <c r="FG182" s="3"/>
     </row>
-    <row r="183" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="183" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -29570,8 +30380,12 @@
       <c r="FA183" s="3"/>
       <c r="FB183" s="3"/>
       <c r="FC183" s="3"/>
+      <c r="FD183" s="3"/>
+      <c r="FE183" s="3"/>
+      <c r="FF183" s="3"/>
+      <c r="FG183" s="3"/>
     </row>
-    <row r="184" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="184" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
@@ -29729,8 +30543,12 @@
       <c r="FA184" s="3"/>
       <c r="FB184" s="3"/>
       <c r="FC184" s="3"/>
+      <c r="FD184" s="3"/>
+      <c r="FE184" s="3"/>
+      <c r="FF184" s="3"/>
+      <c r="FG184" s="3"/>
     </row>
-    <row r="185" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="185" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
@@ -29888,8 +30706,12 @@
       <c r="FA185" s="3"/>
       <c r="FB185" s="3"/>
       <c r="FC185" s="3"/>
+      <c r="FD185" s="3"/>
+      <c r="FE185" s="3"/>
+      <c r="FF185" s="3"/>
+      <c r="FG185" s="3"/>
     </row>
-    <row r="186" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="186" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
@@ -30047,8 +30869,12 @@
       <c r="FA186" s="3"/>
       <c r="FB186" s="3"/>
       <c r="FC186" s="3"/>
+      <c r="FD186" s="3"/>
+      <c r="FE186" s="3"/>
+      <c r="FF186" s="3"/>
+      <c r="FG186" s="3"/>
     </row>
-    <row r="187" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="187" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
@@ -30206,8 +31032,12 @@
       <c r="FA187" s="3"/>
       <c r="FB187" s="3"/>
       <c r="FC187" s="3"/>
+      <c r="FD187" s="3"/>
+      <c r="FE187" s="3"/>
+      <c r="FF187" s="3"/>
+      <c r="FG187" s="3"/>
     </row>
-    <row r="188" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="188" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
@@ -30365,8 +31195,12 @@
       <c r="FA188" s="3"/>
       <c r="FB188" s="3"/>
       <c r="FC188" s="3"/>
+      <c r="FD188" s="3"/>
+      <c r="FE188" s="3"/>
+      <c r="FF188" s="3"/>
+      <c r="FG188" s="3"/>
     </row>
-    <row r="189" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="189" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -30524,8 +31358,12 @@
       <c r="FA189" s="3"/>
       <c r="FB189" s="3"/>
       <c r="FC189" s="3"/>
+      <c r="FD189" s="3"/>
+      <c r="FE189" s="3"/>
+      <c r="FF189" s="3"/>
+      <c r="FG189" s="3"/>
     </row>
-    <row r="190" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="190" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
@@ -30683,8 +31521,12 @@
       <c r="FA190" s="3"/>
       <c r="FB190" s="3"/>
       <c r="FC190" s="3"/>
+      <c r="FD190" s="3"/>
+      <c r="FE190" s="3"/>
+      <c r="FF190" s="3"/>
+      <c r="FG190" s="3"/>
     </row>
-    <row r="191" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="191" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
@@ -30842,8 +31684,12 @@
       <c r="FA191" s="3"/>
       <c r="FB191" s="3"/>
       <c r="FC191" s="3"/>
+      <c r="FD191" s="3"/>
+      <c r="FE191" s="3"/>
+      <c r="FF191" s="3"/>
+      <c r="FG191" s="3"/>
     </row>
-    <row r="192" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="192" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
@@ -31001,8 +31847,12 @@
       <c r="FA192" s="3"/>
       <c r="FB192" s="3"/>
       <c r="FC192" s="3"/>
+      <c r="FD192" s="3"/>
+      <c r="FE192" s="3"/>
+      <c r="FF192" s="3"/>
+      <c r="FG192" s="3"/>
     </row>
-    <row r="193" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="193" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
@@ -31160,8 +32010,12 @@
       <c r="FA193" s="3"/>
       <c r="FB193" s="3"/>
       <c r="FC193" s="3"/>
+      <c r="FD193" s="3"/>
+      <c r="FE193" s="3"/>
+      <c r="FF193" s="3"/>
+      <c r="FG193" s="3"/>
     </row>
-    <row r="194" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="194" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -31319,8 +32173,12 @@
       <c r="FA194" s="3"/>
       <c r="FB194" s="3"/>
       <c r="FC194" s="3"/>
+      <c r="FD194" s="3"/>
+      <c r="FE194" s="3"/>
+      <c r="FF194" s="3"/>
+      <c r="FG194" s="3"/>
     </row>
-    <row r="195" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="195" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
@@ -31478,8 +32336,12 @@
       <c r="FA195" s="3"/>
       <c r="FB195" s="3"/>
       <c r="FC195" s="3"/>
+      <c r="FD195" s="3"/>
+      <c r="FE195" s="3"/>
+      <c r="FF195" s="3"/>
+      <c r="FG195" s="3"/>
     </row>
-    <row r="196" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="196" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
@@ -31637,8 +32499,12 @@
       <c r="FA196" s="3"/>
       <c r="FB196" s="3"/>
       <c r="FC196" s="3"/>
+      <c r="FD196" s="3"/>
+      <c r="FE196" s="3"/>
+      <c r="FF196" s="3"/>
+      <c r="FG196" s="3"/>
     </row>
-    <row r="197" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="197" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -31796,8 +32662,12 @@
       <c r="FA197" s="3"/>
       <c r="FB197" s="3"/>
       <c r="FC197" s="3"/>
+      <c r="FD197" s="3"/>
+      <c r="FE197" s="3"/>
+      <c r="FF197" s="3"/>
+      <c r="FG197" s="3"/>
     </row>
-    <row r="198" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="198" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -31955,8 +32825,12 @@
       <c r="FA198" s="3"/>
       <c r="FB198" s="3"/>
       <c r="FC198" s="3"/>
+      <c r="FD198" s="3"/>
+      <c r="FE198" s="3"/>
+      <c r="FF198" s="3"/>
+      <c r="FG198" s="3"/>
     </row>
-    <row r="199" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="199" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -32114,8 +32988,12 @@
       <c r="FA199" s="3"/>
       <c r="FB199" s="3"/>
       <c r="FC199" s="3"/>
+      <c r="FD199" s="3"/>
+      <c r="FE199" s="3"/>
+      <c r="FF199" s="3"/>
+      <c r="FG199" s="3"/>
     </row>
-    <row r="200" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="200" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
@@ -32273,8 +33151,12 @@
       <c r="FA200" s="3"/>
       <c r="FB200" s="3"/>
       <c r="FC200" s="3"/>
+      <c r="FD200" s="3"/>
+      <c r="FE200" s="3"/>
+      <c r="FF200" s="3"/>
+      <c r="FG200" s="3"/>
     </row>
-    <row r="201" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="201" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
@@ -32432,8 +33314,12 @@
       <c r="FA201" s="3"/>
       <c r="FB201" s="3"/>
       <c r="FC201" s="3"/>
+      <c r="FD201" s="3"/>
+      <c r="FE201" s="3"/>
+      <c r="FF201" s="3"/>
+      <c r="FG201" s="3"/>
     </row>
-    <row r="202" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="202" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -32591,8 +33477,12 @@
       <c r="FA202" s="3"/>
       <c r="FB202" s="3"/>
       <c r="FC202" s="3"/>
+      <c r="FD202" s="3"/>
+      <c r="FE202" s="3"/>
+      <c r="FF202" s="3"/>
+      <c r="FG202" s="3"/>
     </row>
-    <row r="203" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="203" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
@@ -32750,8 +33640,12 @@
       <c r="FA203" s="3"/>
       <c r="FB203" s="3"/>
       <c r="FC203" s="3"/>
+      <c r="FD203" s="3"/>
+      <c r="FE203" s="3"/>
+      <c r="FF203" s="3"/>
+      <c r="FG203" s="3"/>
     </row>
-    <row r="204" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="204" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -32909,8 +33803,12 @@
       <c r="FA204" s="3"/>
       <c r="FB204" s="3"/>
       <c r="FC204" s="3"/>
+      <c r="FD204" s="3"/>
+      <c r="FE204" s="3"/>
+      <c r="FF204" s="3"/>
+      <c r="FG204" s="3"/>
     </row>
-    <row r="205" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="205" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -33068,8 +33966,12 @@
       <c r="FA205" s="3"/>
       <c r="FB205" s="3"/>
       <c r="FC205" s="3"/>
+      <c r="FD205" s="3"/>
+      <c r="FE205" s="3"/>
+      <c r="FF205" s="3"/>
+      <c r="FG205" s="3"/>
     </row>
-    <row r="206" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="206" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
@@ -33227,8 +34129,12 @@
       <c r="FA206" s="3"/>
       <c r="FB206" s="3"/>
       <c r="FC206" s="3"/>
+      <c r="FD206" s="3"/>
+      <c r="FE206" s="3"/>
+      <c r="FF206" s="3"/>
+      <c r="FG206" s="3"/>
     </row>
-    <row r="207" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="207" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
@@ -33386,8 +34292,12 @@
       <c r="FA207" s="3"/>
       <c r="FB207" s="3"/>
       <c r="FC207" s="3"/>
+      <c r="FD207" s="3"/>
+      <c r="FE207" s="3"/>
+      <c r="FF207" s="3"/>
+      <c r="FG207" s="3"/>
     </row>
-    <row r="208" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="208" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
@@ -33545,8 +34455,12 @@
       <c r="FA208" s="3"/>
       <c r="FB208" s="3"/>
       <c r="FC208" s="3"/>
+      <c r="FD208" s="3"/>
+      <c r="FE208" s="3"/>
+      <c r="FF208" s="3"/>
+      <c r="FG208" s="3"/>
     </row>
-    <row r="209" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="209" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
@@ -33704,8 +34618,12 @@
       <c r="FA209" s="3"/>
       <c r="FB209" s="3"/>
       <c r="FC209" s="3"/>
+      <c r="FD209" s="3"/>
+      <c r="FE209" s="3"/>
+      <c r="FF209" s="3"/>
+      <c r="FG209" s="3"/>
     </row>
-    <row r="210" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="210" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
@@ -33863,8 +34781,12 @@
       <c r="FA210" s="3"/>
       <c r="FB210" s="3"/>
       <c r="FC210" s="3"/>
+      <c r="FD210" s="3"/>
+      <c r="FE210" s="3"/>
+      <c r="FF210" s="3"/>
+      <c r="FG210" s="3"/>
     </row>
-    <row r="211" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="211" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -34022,8 +34944,12 @@
       <c r="FA211" s="3"/>
       <c r="FB211" s="3"/>
       <c r="FC211" s="3"/>
+      <c r="FD211" s="3"/>
+      <c r="FE211" s="3"/>
+      <c r="FF211" s="3"/>
+      <c r="FG211" s="3"/>
     </row>
-    <row r="212" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="212" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
@@ -34181,8 +35107,12 @@
       <c r="FA212" s="3"/>
       <c r="FB212" s="3"/>
       <c r="FC212" s="3"/>
+      <c r="FD212" s="3"/>
+      <c r="FE212" s="3"/>
+      <c r="FF212" s="3"/>
+      <c r="FG212" s="3"/>
     </row>
-    <row r="213" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="213" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
@@ -34340,8 +35270,12 @@
       <c r="FA213" s="3"/>
       <c r="FB213" s="3"/>
       <c r="FC213" s="3"/>
+      <c r="FD213" s="3"/>
+      <c r="FE213" s="3"/>
+      <c r="FF213" s="3"/>
+      <c r="FG213" s="3"/>
     </row>
-    <row r="214" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="214" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
@@ -34499,8 +35433,12 @@
       <c r="FA214" s="3"/>
       <c r="FB214" s="3"/>
       <c r="FC214" s="3"/>
+      <c r="FD214" s="3"/>
+      <c r="FE214" s="3"/>
+      <c r="FF214" s="3"/>
+      <c r="FG214" s="3"/>
     </row>
-    <row r="215" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="215" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
@@ -34658,8 +35596,12 @@
       <c r="FA215" s="3"/>
       <c r="FB215" s="3"/>
       <c r="FC215" s="3"/>
+      <c r="FD215" s="3"/>
+      <c r="FE215" s="3"/>
+      <c r="FF215" s="3"/>
+      <c r="FG215" s="3"/>
     </row>
-    <row r="216" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="216" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
@@ -34817,8 +35759,12 @@
       <c r="FA216" s="3"/>
       <c r="FB216" s="3"/>
       <c r="FC216" s="3"/>
+      <c r="FD216" s="3"/>
+      <c r="FE216" s="3"/>
+      <c r="FF216" s="3"/>
+      <c r="FG216" s="3"/>
     </row>
-    <row r="217" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="217" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
@@ -34976,8 +35922,12 @@
       <c r="FA217" s="3"/>
       <c r="FB217" s="3"/>
       <c r="FC217" s="3"/>
+      <c r="FD217" s="3"/>
+      <c r="FE217" s="3"/>
+      <c r="FF217" s="3"/>
+      <c r="FG217" s="3"/>
     </row>
-    <row r="218" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="218" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
@@ -35135,8 +36085,12 @@
       <c r="FA218" s="3"/>
       <c r="FB218" s="3"/>
       <c r="FC218" s="3"/>
+      <c r="FD218" s="3"/>
+      <c r="FE218" s="3"/>
+      <c r="FF218" s="3"/>
+      <c r="FG218" s="3"/>
     </row>
-    <row r="219" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="219" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
@@ -35294,8 +36248,12 @@
       <c r="FA219" s="3"/>
       <c r="FB219" s="3"/>
       <c r="FC219" s="3"/>
+      <c r="FD219" s="3"/>
+      <c r="FE219" s="3"/>
+      <c r="FF219" s="3"/>
+      <c r="FG219" s="3"/>
     </row>
-    <row r="220" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="220" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
@@ -35453,8 +36411,12 @@
       <c r="FA220" s="3"/>
       <c r="FB220" s="3"/>
       <c r="FC220" s="3"/>
+      <c r="FD220" s="3"/>
+      <c r="FE220" s="3"/>
+      <c r="FF220" s="3"/>
+      <c r="FG220" s="3"/>
     </row>
-    <row r="221" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="221" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
@@ -35612,8 +36574,12 @@
       <c r="FA221" s="3"/>
       <c r="FB221" s="3"/>
       <c r="FC221" s="3"/>
+      <c r="FD221" s="3"/>
+      <c r="FE221" s="3"/>
+      <c r="FF221" s="3"/>
+      <c r="FG221" s="3"/>
     </row>
-    <row r="222" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="222" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
@@ -35771,8 +36737,12 @@
       <c r="FA222" s="3"/>
       <c r="FB222" s="3"/>
       <c r="FC222" s="3"/>
+      <c r="FD222" s="3"/>
+      <c r="FE222" s="3"/>
+      <c r="FF222" s="3"/>
+      <c r="FG222" s="3"/>
     </row>
-    <row r="223" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="223" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
@@ -35930,8 +36900,12 @@
       <c r="FA223" s="3"/>
       <c r="FB223" s="3"/>
       <c r="FC223" s="3"/>
+      <c r="FD223" s="3"/>
+      <c r="FE223" s="3"/>
+      <c r="FF223" s="3"/>
+      <c r="FG223" s="3"/>
     </row>
-    <row r="224" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="224" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
@@ -36089,8 +37063,12 @@
       <c r="FA224" s="3"/>
       <c r="FB224" s="3"/>
       <c r="FC224" s="3"/>
+      <c r="FD224" s="3"/>
+      <c r="FE224" s="3"/>
+      <c r="FF224" s="3"/>
+      <c r="FG224" s="3"/>
     </row>
-    <row r="225" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="225" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
@@ -36248,8 +37226,12 @@
       <c r="FA225" s="3"/>
       <c r="FB225" s="3"/>
       <c r="FC225" s="3"/>
+      <c r="FD225" s="3"/>
+      <c r="FE225" s="3"/>
+      <c r="FF225" s="3"/>
+      <c r="FG225" s="3"/>
     </row>
-    <row r="226" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="226" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
@@ -36407,8 +37389,12 @@
       <c r="FA226" s="3"/>
       <c r="FB226" s="3"/>
       <c r="FC226" s="3"/>
+      <c r="FD226" s="3"/>
+      <c r="FE226" s="3"/>
+      <c r="FF226" s="3"/>
+      <c r="FG226" s="3"/>
     </row>
-    <row r="227" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="227" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
@@ -36566,8 +37552,12 @@
       <c r="FA227" s="3"/>
       <c r="FB227" s="3"/>
       <c r="FC227" s="3"/>
+      <c r="FD227" s="3"/>
+      <c r="FE227" s="3"/>
+      <c r="FF227" s="3"/>
+      <c r="FG227" s="3"/>
     </row>
-    <row r="228" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="228" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
@@ -36725,8 +37715,12 @@
       <c r="FA228" s="3"/>
       <c r="FB228" s="3"/>
       <c r="FC228" s="3"/>
+      <c r="FD228" s="3"/>
+      <c r="FE228" s="3"/>
+      <c r="FF228" s="3"/>
+      <c r="FG228" s="3"/>
     </row>
-    <row r="229" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="229" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
@@ -36884,8 +37878,12 @@
       <c r="FA229" s="3"/>
       <c r="FB229" s="3"/>
       <c r="FC229" s="3"/>
+      <c r="FD229" s="3"/>
+      <c r="FE229" s="3"/>
+      <c r="FF229" s="3"/>
+      <c r="FG229" s="3"/>
     </row>
-    <row r="230" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="230" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
@@ -37043,8 +38041,12 @@
       <c r="FA230" s="3"/>
       <c r="FB230" s="3"/>
       <c r="FC230" s="3"/>
+      <c r="FD230" s="3"/>
+      <c r="FE230" s="3"/>
+      <c r="FF230" s="3"/>
+      <c r="FG230" s="3"/>
     </row>
-    <row r="231" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="231" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
@@ -37202,8 +38204,12 @@
       <c r="FA231" s="3"/>
       <c r="FB231" s="3"/>
       <c r="FC231" s="3"/>
+      <c r="FD231" s="3"/>
+      <c r="FE231" s="3"/>
+      <c r="FF231" s="3"/>
+      <c r="FG231" s="3"/>
     </row>
-    <row r="232" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="232" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
@@ -37361,8 +38367,12 @@
       <c r="FA232" s="3"/>
       <c r="FB232" s="3"/>
       <c r="FC232" s="3"/>
+      <c r="FD232" s="3"/>
+      <c r="FE232" s="3"/>
+      <c r="FF232" s="3"/>
+      <c r="FG232" s="3"/>
     </row>
-    <row r="233" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="233" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
@@ -37520,8 +38530,12 @@
       <c r="FA233" s="3"/>
       <c r="FB233" s="3"/>
       <c r="FC233" s="3"/>
+      <c r="FD233" s="3"/>
+      <c r="FE233" s="3"/>
+      <c r="FF233" s="3"/>
+      <c r="FG233" s="3"/>
     </row>
-    <row r="234" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="234" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
@@ -37679,8 +38693,12 @@
       <c r="FA234" s="3"/>
       <c r="FB234" s="3"/>
       <c r="FC234" s="3"/>
+      <c r="FD234" s="3"/>
+      <c r="FE234" s="3"/>
+      <c r="FF234" s="3"/>
+      <c r="FG234" s="3"/>
     </row>
-    <row r="235" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="235" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -37838,8 +38856,12 @@
       <c r="FA235" s="3"/>
       <c r="FB235" s="3"/>
       <c r="FC235" s="3"/>
+      <c r="FD235" s="3"/>
+      <c r="FE235" s="3"/>
+      <c r="FF235" s="3"/>
+      <c r="FG235" s="3"/>
     </row>
-    <row r="236" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -37997,8 +39019,12 @@
       <c r="FA236" s="3"/>
       <c r="FB236" s="3"/>
       <c r="FC236" s="3"/>
+      <c r="FD236" s="3"/>
+      <c r="FE236" s="3"/>
+      <c r="FF236" s="3"/>
+      <c r="FG236" s="3"/>
     </row>
-    <row r="237" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -38156,8 +39182,12 @@
       <c r="FA237" s="3"/>
       <c r="FB237" s="3"/>
       <c r="FC237" s="3"/>
+      <c r="FD237" s="3"/>
+      <c r="FE237" s="3"/>
+      <c r="FF237" s="3"/>
+      <c r="FG237" s="3"/>
     </row>
-    <row r="238" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -38315,8 +39345,12 @@
       <c r="FA238" s="3"/>
       <c r="FB238" s="3"/>
       <c r="FC238" s="3"/>
+      <c r="FD238" s="3"/>
+      <c r="FE238" s="3"/>
+      <c r="FF238" s="3"/>
+      <c r="FG238" s="3"/>
     </row>
-    <row r="239" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -38474,8 +39508,12 @@
       <c r="FA239" s="3"/>
       <c r="FB239" s="3"/>
       <c r="FC239" s="3"/>
+      <c r="FD239" s="3"/>
+      <c r="FE239" s="3"/>
+      <c r="FF239" s="3"/>
+      <c r="FG239" s="3"/>
     </row>
-    <row r="240" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -38633,8 +39671,12 @@
       <c r="FA240" s="3"/>
       <c r="FB240" s="3"/>
       <c r="FC240" s="3"/>
+      <c r="FD240" s="3"/>
+      <c r="FE240" s="3"/>
+      <c r="FF240" s="3"/>
+      <c r="FG240" s="3"/>
     </row>
-    <row r="241" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -38792,8 +39834,12 @@
       <c r="FA241" s="3"/>
       <c r="FB241" s="3"/>
       <c r="FC241" s="3"/>
+      <c r="FD241" s="3"/>
+      <c r="FE241" s="3"/>
+      <c r="FF241" s="3"/>
+      <c r="FG241" s="3"/>
     </row>
-    <row r="242" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -38951,8 +39997,12 @@
       <c r="FA242" s="3"/>
       <c r="FB242" s="3"/>
       <c r="FC242" s="3"/>
+      <c r="FD242" s="3"/>
+      <c r="FE242" s="3"/>
+      <c r="FF242" s="3"/>
+      <c r="FG242" s="3"/>
     </row>
-    <row r="243" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -39110,8 +40160,12 @@
       <c r="FA243" s="3"/>
       <c r="FB243" s="3"/>
       <c r="FC243" s="3"/>
+      <c r="FD243" s="3"/>
+      <c r="FE243" s="3"/>
+      <c r="FF243" s="3"/>
+      <c r="FG243" s="3"/>
     </row>
-    <row r="244" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -39269,8 +40323,12 @@
       <c r="FA244" s="3"/>
       <c r="FB244" s="3"/>
       <c r="FC244" s="3"/>
+      <c r="FD244" s="3"/>
+      <c r="FE244" s="3"/>
+      <c r="FF244" s="3"/>
+      <c r="FG244" s="3"/>
     </row>
-    <row r="245" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -39428,8 +40486,12 @@
       <c r="FA245" s="3"/>
       <c r="FB245" s="3"/>
       <c r="FC245" s="3"/>
+      <c r="FD245" s="3"/>
+      <c r="FE245" s="3"/>
+      <c r="FF245" s="3"/>
+      <c r="FG245" s="3"/>
     </row>
-    <row r="246" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -39587,8 +40649,12 @@
       <c r="FA246" s="3"/>
       <c r="FB246" s="3"/>
       <c r="FC246" s="3"/>
+      <c r="FD246" s="3"/>
+      <c r="FE246" s="3"/>
+      <c r="FF246" s="3"/>
+      <c r="FG246" s="3"/>
     </row>
-    <row r="247" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -39746,8 +40812,12 @@
       <c r="FA247" s="3"/>
       <c r="FB247" s="3"/>
       <c r="FC247" s="3"/>
+      <c r="FD247" s="3"/>
+      <c r="FE247" s="3"/>
+      <c r="FF247" s="3"/>
+      <c r="FG247" s="3"/>
     </row>
-    <row r="248" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -39905,8 +40975,12 @@
       <c r="FA248" s="3"/>
       <c r="FB248" s="3"/>
       <c r="FC248" s="3"/>
+      <c r="FD248" s="3"/>
+      <c r="FE248" s="3"/>
+      <c r="FF248" s="3"/>
+      <c r="FG248" s="3"/>
     </row>
-    <row r="249" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -40064,8 +41138,12 @@
       <c r="FA249" s="3"/>
       <c r="FB249" s="3"/>
       <c r="FC249" s="3"/>
+      <c r="FD249" s="3"/>
+      <c r="FE249" s="3"/>
+      <c r="FF249" s="3"/>
+      <c r="FG249" s="3"/>
     </row>
-    <row r="250" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -40223,8 +41301,12 @@
       <c r="FA250" s="3"/>
       <c r="FB250" s="3"/>
       <c r="FC250" s="3"/>
+      <c r="FD250" s="3"/>
+      <c r="FE250" s="3"/>
+      <c r="FF250" s="3"/>
+      <c r="FG250" s="3"/>
     </row>
-    <row r="251" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -40382,8 +41464,12 @@
       <c r="FA251" s="3"/>
       <c r="FB251" s="3"/>
       <c r="FC251" s="3"/>
+      <c r="FD251" s="3"/>
+      <c r="FE251" s="3"/>
+      <c r="FF251" s="3"/>
+      <c r="FG251" s="3"/>
     </row>
-    <row r="252" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -40541,8 +41627,12 @@
       <c r="FA252" s="3"/>
       <c r="FB252" s="3"/>
       <c r="FC252" s="3"/>
+      <c r="FD252" s="3"/>
+      <c r="FE252" s="3"/>
+      <c r="FF252" s="3"/>
+      <c r="FG252" s="3"/>
     </row>
-    <row r="253" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -40700,8 +41790,12 @@
       <c r="FA253" s="3"/>
       <c r="FB253" s="3"/>
       <c r="FC253" s="3"/>
+      <c r="FD253" s="3"/>
+      <c r="FE253" s="3"/>
+      <c r="FF253" s="3"/>
+      <c r="FG253" s="3"/>
     </row>
-    <row r="254" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -40859,8 +41953,12 @@
       <c r="FA254" s="3"/>
       <c r="FB254" s="3"/>
       <c r="FC254" s="3"/>
+      <c r="FD254" s="3"/>
+      <c r="FE254" s="3"/>
+      <c r="FF254" s="3"/>
+      <c r="FG254" s="3"/>
     </row>
-    <row r="255" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -41018,8 +42116,12 @@
       <c r="FA255" s="3"/>
       <c r="FB255" s="3"/>
       <c r="FC255" s="3"/>
+      <c r="FD255" s="3"/>
+      <c r="FE255" s="3"/>
+      <c r="FF255" s="3"/>
+      <c r="FG255" s="3"/>
     </row>
-    <row r="256" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -41177,8 +42279,12 @@
       <c r="FA256" s="3"/>
       <c r="FB256" s="3"/>
       <c r="FC256" s="3"/>
+      <c r="FD256" s="3"/>
+      <c r="FE256" s="3"/>
+      <c r="FF256" s="3"/>
+      <c r="FG256" s="3"/>
     </row>
-    <row r="257" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -41336,8 +42442,12 @@
       <c r="FA257" s="3"/>
       <c r="FB257" s="3"/>
       <c r="FC257" s="3"/>
+      <c r="FD257" s="3"/>
+      <c r="FE257" s="3"/>
+      <c r="FF257" s="3"/>
+      <c r="FG257" s="3"/>
     </row>
-    <row r="258" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -41495,8 +42605,12 @@
       <c r="FA258" s="3"/>
       <c r="FB258" s="3"/>
       <c r="FC258" s="3"/>
+      <c r="FD258" s="3"/>
+      <c r="FE258" s="3"/>
+      <c r="FF258" s="3"/>
+      <c r="FG258" s="3"/>
     </row>
-    <row r="259" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -41654,8 +42768,12 @@
       <c r="FA259" s="3"/>
       <c r="FB259" s="3"/>
       <c r="FC259" s="3"/>
+      <c r="FD259" s="3"/>
+      <c r="FE259" s="3"/>
+      <c r="FF259" s="3"/>
+      <c r="FG259" s="3"/>
     </row>
-    <row r="260" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -41813,8 +42931,12 @@
       <c r="FA260" s="3"/>
       <c r="FB260" s="3"/>
       <c r="FC260" s="3"/>
+      <c r="FD260" s="3"/>
+      <c r="FE260" s="3"/>
+      <c r="FF260" s="3"/>
+      <c r="FG260" s="3"/>
     </row>
-    <row r="261" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -41972,8 +43094,12 @@
       <c r="FA261" s="3"/>
       <c r="FB261" s="3"/>
       <c r="FC261" s="3"/>
+      <c r="FD261" s="3"/>
+      <c r="FE261" s="3"/>
+      <c r="FF261" s="3"/>
+      <c r="FG261" s="3"/>
     </row>
-    <row r="262" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -42131,8 +43257,12 @@
       <c r="FA262" s="3"/>
       <c r="FB262" s="3"/>
       <c r="FC262" s="3"/>
+      <c r="FD262" s="3"/>
+      <c r="FE262" s="3"/>
+      <c r="FF262" s="3"/>
+      <c r="FG262" s="3"/>
     </row>
-    <row r="263" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -42290,8 +43420,12 @@
       <c r="FA263" s="3"/>
       <c r="FB263" s="3"/>
       <c r="FC263" s="3"/>
+      <c r="FD263" s="3"/>
+      <c r="FE263" s="3"/>
+      <c r="FF263" s="3"/>
+      <c r="FG263" s="3"/>
     </row>
-    <row r="264" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -42449,8 +43583,12 @@
       <c r="FA264" s="3"/>
       <c r="FB264" s="3"/>
       <c r="FC264" s="3"/>
+      <c r="FD264" s="3"/>
+      <c r="FE264" s="3"/>
+      <c r="FF264" s="3"/>
+      <c r="FG264" s="3"/>
     </row>
-    <row r="265" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -42608,8 +43746,12 @@
       <c r="FA265" s="3"/>
       <c r="FB265" s="3"/>
       <c r="FC265" s="3"/>
+      <c r="FD265" s="3"/>
+      <c r="FE265" s="3"/>
+      <c r="FF265" s="3"/>
+      <c r="FG265" s="3"/>
     </row>
-    <row r="266" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
@@ -42767,8 +43909,12 @@
       <c r="FA266" s="3"/>
       <c r="FB266" s="3"/>
       <c r="FC266" s="3"/>
+      <c r="FD266" s="3"/>
+      <c r="FE266" s="3"/>
+      <c r="FF266" s="3"/>
+      <c r="FG266" s="3"/>
     </row>
-    <row r="267" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="267" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
@@ -42926,8 +44072,12 @@
       <c r="FA267" s="3"/>
       <c r="FB267" s="3"/>
       <c r="FC267" s="3"/>
+      <c r="FD267" s="3"/>
+      <c r="FE267" s="3"/>
+      <c r="FF267" s="3"/>
+      <c r="FG267" s="3"/>
     </row>
-    <row r="268" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
@@ -43085,8 +44235,12 @@
       <c r="FA268" s="3"/>
       <c r="FB268" s="3"/>
       <c r="FC268" s="3"/>
+      <c r="FD268" s="3"/>
+      <c r="FE268" s="3"/>
+      <c r="FF268" s="3"/>
+      <c r="FG268" s="3"/>
     </row>
-    <row r="269" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
@@ -43218,8 +44372,12 @@
       <c r="EA269" s="3"/>
       <c r="EB269" s="3"/>
       <c r="EC269" s="3"/>
+      <c r="ED269" s="3"/>
+      <c r="EE269" s="3"/>
+      <c r="EF269" s="3"/>
+      <c r="EG269" s="3"/>
     </row>
-    <row r="270" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
@@ -43351,8 +44509,12 @@
       <c r="EA270" s="3"/>
       <c r="EB270" s="3"/>
       <c r="EC270" s="3"/>
+      <c r="ED270" s="3"/>
+      <c r="EE270" s="3"/>
+      <c r="EF270" s="3"/>
+      <c r="EG270" s="3"/>
     </row>
-    <row r="271" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
@@ -43484,8 +44646,12 @@
       <c r="EA271" s="3"/>
       <c r="EB271" s="3"/>
       <c r="EC271" s="3"/>
+      <c r="ED271" s="3"/>
+      <c r="EE271" s="3"/>
+      <c r="EF271" s="3"/>
+      <c r="EG271" s="3"/>
     </row>
-    <row r="272" spans="3:159" x14ac:dyDescent="0.2">
+    <row r="272" spans="3:163" x14ac:dyDescent="0.2">
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
@@ -43617,8 +44783,12 @@
       <c r="EA272" s="3"/>
       <c r="EB272" s="3"/>
       <c r="EC272" s="3"/>
+      <c r="ED272" s="3"/>
+      <c r="EE272" s="3"/>
+      <c r="EF272" s="3"/>
+      <c r="EG272" s="3"/>
     </row>
-    <row r="273" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="273" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
@@ -43750,8 +44920,12 @@
       <c r="EA273" s="3"/>
       <c r="EB273" s="3"/>
       <c r="EC273" s="3"/>
+      <c r="ED273" s="3"/>
+      <c r="EE273" s="3"/>
+      <c r="EF273" s="3"/>
+      <c r="EG273" s="3"/>
     </row>
-    <row r="274" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="274" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
@@ -43883,8 +45057,12 @@
       <c r="EA274" s="3"/>
       <c r="EB274" s="3"/>
       <c r="EC274" s="3"/>
+      <c r="ED274" s="3"/>
+      <c r="EE274" s="3"/>
+      <c r="EF274" s="3"/>
+      <c r="EG274" s="3"/>
     </row>
-    <row r="275" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="275" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
@@ -44016,8 +45194,12 @@
       <c r="EA275" s="3"/>
       <c r="EB275" s="3"/>
       <c r="EC275" s="3"/>
+      <c r="ED275" s="3"/>
+      <c r="EE275" s="3"/>
+      <c r="EF275" s="3"/>
+      <c r="EG275" s="3"/>
     </row>
-    <row r="276" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="276" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
@@ -44149,8 +45331,12 @@
       <c r="EA276" s="3"/>
       <c r="EB276" s="3"/>
       <c r="EC276" s="3"/>
+      <c r="ED276" s="3"/>
+      <c r="EE276" s="3"/>
+      <c r="EF276" s="3"/>
+      <c r="EG276" s="3"/>
     </row>
-    <row r="277" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="277" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
@@ -44282,8 +45468,12 @@
       <c r="EA277" s="3"/>
       <c r="EB277" s="3"/>
       <c r="EC277" s="3"/>
+      <c r="ED277" s="3"/>
+      <c r="EE277" s="3"/>
+      <c r="EF277" s="3"/>
+      <c r="EG277" s="3"/>
     </row>
-    <row r="278" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="278" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
@@ -44415,8 +45605,12 @@
       <c r="EA278" s="3"/>
       <c r="EB278" s="3"/>
       <c r="EC278" s="3"/>
+      <c r="ED278" s="3"/>
+      <c r="EE278" s="3"/>
+      <c r="EF278" s="3"/>
+      <c r="EG278" s="3"/>
     </row>
-    <row r="279" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="279" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
@@ -44548,8 +45742,12 @@
       <c r="EA279" s="3"/>
       <c r="EB279" s="3"/>
       <c r="EC279" s="3"/>
+      <c r="ED279" s="3"/>
+      <c r="EE279" s="3"/>
+      <c r="EF279" s="3"/>
+      <c r="EG279" s="3"/>
     </row>
-    <row r="280" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="280" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
@@ -44681,8 +45879,12 @@
       <c r="EA280" s="3"/>
       <c r="EB280" s="3"/>
       <c r="EC280" s="3"/>
+      <c r="ED280" s="3"/>
+      <c r="EE280" s="3"/>
+      <c r="EF280" s="3"/>
+      <c r="EG280" s="3"/>
     </row>
-    <row r="281" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="281" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
@@ -44814,8 +46016,12 @@
       <c r="EA281" s="3"/>
       <c r="EB281" s="3"/>
       <c r="EC281" s="3"/>
+      <c r="ED281" s="3"/>
+      <c r="EE281" s="3"/>
+      <c r="EF281" s="3"/>
+      <c r="EG281" s="3"/>
     </row>
-    <row r="282" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="282" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
@@ -44947,8 +46153,12 @@
       <c r="EA282" s="3"/>
       <c r="EB282" s="3"/>
       <c r="EC282" s="3"/>
+      <c r="ED282" s="3"/>
+      <c r="EE282" s="3"/>
+      <c r="EF282" s="3"/>
+      <c r="EG282" s="3"/>
     </row>
-    <row r="283" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="283" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
       <c r="E283" s="3"/>
@@ -45080,8 +46290,12 @@
       <c r="EA283" s="3"/>
       <c r="EB283" s="3"/>
       <c r="EC283" s="3"/>
+      <c r="ED283" s="3"/>
+      <c r="EE283" s="3"/>
+      <c r="EF283" s="3"/>
+      <c r="EG283" s="3"/>
     </row>
-    <row r="284" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="284" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -45213,8 +46427,12 @@
       <c r="EA284" s="3"/>
       <c r="EB284" s="3"/>
       <c r="EC284" s="3"/>
+      <c r="ED284" s="3"/>
+      <c r="EE284" s="3"/>
+      <c r="EF284" s="3"/>
+      <c r="EG284" s="3"/>
     </row>
-    <row r="285" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="285" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
@@ -45346,8 +46564,12 @@
       <c r="EA285" s="3"/>
       <c r="EB285" s="3"/>
       <c r="EC285" s="3"/>
+      <c r="ED285" s="3"/>
+      <c r="EE285" s="3"/>
+      <c r="EF285" s="3"/>
+      <c r="EG285" s="3"/>
     </row>
-    <row r="286" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="286" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -45479,8 +46701,12 @@
       <c r="EA286" s="3"/>
       <c r="EB286" s="3"/>
       <c r="EC286" s="3"/>
+      <c r="ED286" s="3"/>
+      <c r="EE286" s="3"/>
+      <c r="EF286" s="3"/>
+      <c r="EG286" s="3"/>
     </row>
-    <row r="287" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="287" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -45612,8 +46838,12 @@
       <c r="EA287" s="3"/>
       <c r="EB287" s="3"/>
       <c r="EC287" s="3"/>
+      <c r="ED287" s="3"/>
+      <c r="EE287" s="3"/>
+      <c r="EF287" s="3"/>
+      <c r="EG287" s="3"/>
     </row>
-    <row r="288" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="288" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -45745,8 +46975,12 @@
       <c r="EA288" s="3"/>
       <c r="EB288" s="3"/>
       <c r="EC288" s="3"/>
+      <c r="ED288" s="3"/>
+      <c r="EE288" s="3"/>
+      <c r="EF288" s="3"/>
+      <c r="EG288" s="3"/>
     </row>
-    <row r="289" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
@@ -45878,8 +47112,12 @@
       <c r="EA289" s="3"/>
       <c r="EB289" s="3"/>
       <c r="EC289" s="3"/>
+      <c r="ED289" s="3"/>
+      <c r="EE289" s="3"/>
+      <c r="EF289" s="3"/>
+      <c r="EG289" s="3"/>
     </row>
-    <row r="290" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
@@ -46011,8 +47249,12 @@
       <c r="EA290" s="3"/>
       <c r="EB290" s="3"/>
       <c r="EC290" s="3"/>
+      <c r="ED290" s="3"/>
+      <c r="EE290" s="3"/>
+      <c r="EF290" s="3"/>
+      <c r="EG290" s="3"/>
     </row>
-    <row r="291" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -46144,8 +47386,12 @@
       <c r="EA291" s="3"/>
       <c r="EB291" s="3"/>
       <c r="EC291" s="3"/>
+      <c r="ED291" s="3"/>
+      <c r="EE291" s="3"/>
+      <c r="EF291" s="3"/>
+      <c r="EG291" s="3"/>
     </row>
-    <row r="292" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="292" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
@@ -46277,8 +47523,12 @@
       <c r="EA292" s="3"/>
       <c r="EB292" s="3"/>
       <c r="EC292" s="3"/>
+      <c r="ED292" s="3"/>
+      <c r="EE292" s="3"/>
+      <c r="EF292" s="3"/>
+      <c r="EG292" s="3"/>
     </row>
-    <row r="293" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="293" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -46410,8 +47660,12 @@
       <c r="EA293" s="3"/>
       <c r="EB293" s="3"/>
       <c r="EC293" s="3"/>
+      <c r="ED293" s="3"/>
+      <c r="EE293" s="3"/>
+      <c r="EF293" s="3"/>
+      <c r="EG293" s="3"/>
     </row>
-    <row r="294" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="294" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -46543,8 +47797,12 @@
       <c r="EA294" s="3"/>
       <c r="EB294" s="3"/>
       <c r="EC294" s="3"/>
+      <c r="ED294" s="3"/>
+      <c r="EE294" s="3"/>
+      <c r="EF294" s="3"/>
+      <c r="EG294" s="3"/>
     </row>
-    <row r="295" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="295" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -46676,8 +47934,12 @@
       <c r="EA295" s="3"/>
       <c r="EB295" s="3"/>
       <c r="EC295" s="3"/>
+      <c r="ED295" s="3"/>
+      <c r="EE295" s="3"/>
+      <c r="EF295" s="3"/>
+      <c r="EG295" s="3"/>
     </row>
-    <row r="296" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="296" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
@@ -46809,8 +48071,12 @@
       <c r="EA296" s="3"/>
       <c r="EB296" s="3"/>
       <c r="EC296" s="3"/>
+      <c r="ED296" s="3"/>
+      <c r="EE296" s="3"/>
+      <c r="EF296" s="3"/>
+      <c r="EG296" s="3"/>
     </row>
-    <row r="297" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="297" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
       <c r="E297" s="3"/>
@@ -46942,8 +48208,12 @@
       <c r="EA297" s="3"/>
       <c r="EB297" s="3"/>
       <c r="EC297" s="3"/>
+      <c r="ED297" s="3"/>
+      <c r="EE297" s="3"/>
+      <c r="EF297" s="3"/>
+      <c r="EG297" s="3"/>
     </row>
-    <row r="298" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="298" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
@@ -47075,8 +48345,12 @@
       <c r="EA298" s="3"/>
       <c r="EB298" s="3"/>
       <c r="EC298" s="3"/>
+      <c r="ED298" s="3"/>
+      <c r="EE298" s="3"/>
+      <c r="EF298" s="3"/>
+      <c r="EG298" s="3"/>
     </row>
-    <row r="299" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -47208,8 +48482,12 @@
       <c r="EA299" s="3"/>
       <c r="EB299" s="3"/>
       <c r="EC299" s="3"/>
+      <c r="ED299" s="3"/>
+      <c r="EE299" s="3"/>
+      <c r="EF299" s="3"/>
+      <c r="EG299" s="3"/>
     </row>
-    <row r="300" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
@@ -47341,8 +48619,12 @@
       <c r="EA300" s="3"/>
       <c r="EB300" s="3"/>
       <c r="EC300" s="3"/>
+      <c r="ED300" s="3"/>
+      <c r="EE300" s="3"/>
+      <c r="EF300" s="3"/>
+      <c r="EG300" s="3"/>
     </row>
-    <row r="301" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -47474,8 +48756,12 @@
       <c r="EA301" s="3"/>
       <c r="EB301" s="3"/>
       <c r="EC301" s="3"/>
+      <c r="ED301" s="3"/>
+      <c r="EE301" s="3"/>
+      <c r="EF301" s="3"/>
+      <c r="EG301" s="3"/>
     </row>
-    <row r="302" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="302" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
@@ -47607,8 +48893,12 @@
       <c r="EA302" s="3"/>
       <c r="EB302" s="3"/>
       <c r="EC302" s="3"/>
+      <c r="ED302" s="3"/>
+      <c r="EE302" s="3"/>
+      <c r="EF302" s="3"/>
+      <c r="EG302" s="3"/>
     </row>
-    <row r="303" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
@@ -47740,8 +49030,12 @@
       <c r="EA303" s="3"/>
       <c r="EB303" s="3"/>
       <c r="EC303" s="3"/>
+      <c r="ED303" s="3"/>
+      <c r="EE303" s="3"/>
+      <c r="EF303" s="3"/>
+      <c r="EG303" s="3"/>
     </row>
-    <row r="304" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
@@ -47873,8 +49167,12 @@
       <c r="EA304" s="3"/>
       <c r="EB304" s="3"/>
       <c r="EC304" s="3"/>
+      <c r="ED304" s="3"/>
+      <c r="EE304" s="3"/>
+      <c r="EF304" s="3"/>
+      <c r="EG304" s="3"/>
     </row>
-    <row r="305" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="305" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -48006,8 +49304,12 @@
       <c r="EA305" s="3"/>
       <c r="EB305" s="3"/>
       <c r="EC305" s="3"/>
+      <c r="ED305" s="3"/>
+      <c r="EE305" s="3"/>
+      <c r="EF305" s="3"/>
+      <c r="EG305" s="3"/>
     </row>
-    <row r="306" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="306" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
       <c r="E306" s="3"/>
@@ -48139,8 +49441,12 @@
       <c r="EA306" s="3"/>
       <c r="EB306" s="3"/>
       <c r="EC306" s="3"/>
+      <c r="ED306" s="3"/>
+      <c r="EE306" s="3"/>
+      <c r="EF306" s="3"/>
+      <c r="EG306" s="3"/>
     </row>
-    <row r="307" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="307" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -48272,8 +49578,12 @@
       <c r="EA307" s="3"/>
       <c r="EB307" s="3"/>
       <c r="EC307" s="3"/>
+      <c r="ED307" s="3"/>
+      <c r="EE307" s="3"/>
+      <c r="EF307" s="3"/>
+      <c r="EG307" s="3"/>
     </row>
-    <row r="308" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="308" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
@@ -48405,8 +49715,12 @@
       <c r="EA308" s="3"/>
       <c r="EB308" s="3"/>
       <c r="EC308" s="3"/>
+      <c r="ED308" s="3"/>
+      <c r="EE308" s="3"/>
+      <c r="EF308" s="3"/>
+      <c r="EG308" s="3"/>
     </row>
-    <row r="309" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="309" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
@@ -48538,8 +49852,12 @@
       <c r="EA309" s="3"/>
       <c r="EB309" s="3"/>
       <c r="EC309" s="3"/>
+      <c r="ED309" s="3"/>
+      <c r="EE309" s="3"/>
+      <c r="EF309" s="3"/>
+      <c r="EG309" s="3"/>
     </row>
-    <row r="310" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="310" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
@@ -48671,8 +49989,12 @@
       <c r="EA310" s="3"/>
       <c r="EB310" s="3"/>
       <c r="EC310" s="3"/>
+      <c r="ED310" s="3"/>
+      <c r="EE310" s="3"/>
+      <c r="EF310" s="3"/>
+      <c r="EG310" s="3"/>
     </row>
-    <row r="311" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="311" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -48804,8 +50126,12 @@
       <c r="EA311" s="3"/>
       <c r="EB311" s="3"/>
       <c r="EC311" s="3"/>
+      <c r="ED311" s="3"/>
+      <c r="EE311" s="3"/>
+      <c r="EF311" s="3"/>
+      <c r="EG311" s="3"/>
     </row>
-    <row r="312" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="312" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
@@ -48937,8 +50263,12 @@
       <c r="EA312" s="3"/>
       <c r="EB312" s="3"/>
       <c r="EC312" s="3"/>
+      <c r="ED312" s="3"/>
+      <c r="EE312" s="3"/>
+      <c r="EF312" s="3"/>
+      <c r="EG312" s="3"/>
     </row>
-    <row r="313" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="313" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
@@ -49070,8 +50400,12 @@
       <c r="EA313" s="3"/>
       <c r="EB313" s="3"/>
       <c r="EC313" s="3"/>
+      <c r="ED313" s="3"/>
+      <c r="EE313" s="3"/>
+      <c r="EF313" s="3"/>
+      <c r="EG313" s="3"/>
     </row>
-    <row r="314" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="314" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -49203,8 +50537,12 @@
       <c r="EA314" s="3"/>
       <c r="EB314" s="3"/>
       <c r="EC314" s="3"/>
+      <c r="ED314" s="3"/>
+      <c r="EE314" s="3"/>
+      <c r="EF314" s="3"/>
+      <c r="EG314" s="3"/>
     </row>
-    <row r="315" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="315" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
@@ -49336,8 +50674,12 @@
       <c r="EA315" s="3"/>
       <c r="EB315" s="3"/>
       <c r="EC315" s="3"/>
+      <c r="ED315" s="3"/>
+      <c r="EE315" s="3"/>
+      <c r="EF315" s="3"/>
+      <c r="EG315" s="3"/>
     </row>
-    <row r="316" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="316" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
@@ -49469,8 +50811,12 @@
       <c r="EA316" s="3"/>
       <c r="EB316" s="3"/>
       <c r="EC316" s="3"/>
+      <c r="ED316" s="3"/>
+      <c r="EE316" s="3"/>
+      <c r="EF316" s="3"/>
+      <c r="EG316" s="3"/>
     </row>
-    <row r="317" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="317" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
@@ -49602,8 +50948,12 @@
       <c r="EA317" s="3"/>
       <c r="EB317" s="3"/>
       <c r="EC317" s="3"/>
+      <c r="ED317" s="3"/>
+      <c r="EE317" s="3"/>
+      <c r="EF317" s="3"/>
+      <c r="EG317" s="3"/>
     </row>
-    <row r="318" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="318" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -49735,8 +51085,12 @@
       <c r="EA318" s="3"/>
       <c r="EB318" s="3"/>
       <c r="EC318" s="3"/>
+      <c r="ED318" s="3"/>
+      <c r="EE318" s="3"/>
+      <c r="EF318" s="3"/>
+      <c r="EG318" s="3"/>
     </row>
-    <row r="319" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="319" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
@@ -49868,8 +51222,12 @@
       <c r="EA319" s="3"/>
       <c r="EB319" s="3"/>
       <c r="EC319" s="3"/>
+      <c r="ED319" s="3"/>
+      <c r="EE319" s="3"/>
+      <c r="EF319" s="3"/>
+      <c r="EG319" s="3"/>
     </row>
-    <row r="320" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="320" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
@@ -50001,8 +51359,12 @@
       <c r="EA320" s="3"/>
       <c r="EB320" s="3"/>
       <c r="EC320" s="3"/>
+      <c r="ED320" s="3"/>
+      <c r="EE320" s="3"/>
+      <c r="EF320" s="3"/>
+      <c r="EG320" s="3"/>
     </row>
-    <row r="321" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
@@ -50134,8 +51496,12 @@
       <c r="EA321" s="3"/>
       <c r="EB321" s="3"/>
       <c r="EC321" s="3"/>
+      <c r="ED321" s="3"/>
+      <c r="EE321" s="3"/>
+      <c r="EF321" s="3"/>
+      <c r="EG321" s="3"/>
     </row>
-    <row r="322" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
@@ -50267,8 +51633,12 @@
       <c r="EA322" s="3"/>
       <c r="EB322" s="3"/>
       <c r="EC322" s="3"/>
+      <c r="ED322" s="3"/>
+      <c r="EE322" s="3"/>
+      <c r="EF322" s="3"/>
+      <c r="EG322" s="3"/>
     </row>
-    <row r="323" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="323" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
@@ -50400,8 +51770,12 @@
       <c r="EA323" s="3"/>
       <c r="EB323" s="3"/>
       <c r="EC323" s="3"/>
+      <c r="ED323" s="3"/>
+      <c r="EE323" s="3"/>
+      <c r="EF323" s="3"/>
+      <c r="EG323" s="3"/>
     </row>
-    <row r="324" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="324" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -50533,8 +51907,12 @@
       <c r="EA324" s="3"/>
       <c r="EB324" s="3"/>
       <c r="EC324" s="3"/>
+      <c r="ED324" s="3"/>
+      <c r="EE324" s="3"/>
+      <c r="EF324" s="3"/>
+      <c r="EG324" s="3"/>
     </row>
-    <row r="325" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="325" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
       <c r="E325" s="3"/>
@@ -50666,8 +52044,12 @@
       <c r="EA325" s="3"/>
       <c r="EB325" s="3"/>
       <c r="EC325" s="3"/>
+      <c r="ED325" s="3"/>
+      <c r="EE325" s="3"/>
+      <c r="EF325" s="3"/>
+      <c r="EG325" s="3"/>
     </row>
-    <row r="326" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="326" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
       <c r="E326" s="3"/>
@@ -50799,8 +52181,12 @@
       <c r="EA326" s="3"/>
       <c r="EB326" s="3"/>
       <c r="EC326" s="3"/>
+      <c r="ED326" s="3"/>
+      <c r="EE326" s="3"/>
+      <c r="EF326" s="3"/>
+      <c r="EG326" s="3"/>
     </row>
-    <row r="327" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="327" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -50932,8 +52318,12 @@
       <c r="EA327" s="3"/>
       <c r="EB327" s="3"/>
       <c r="EC327" s="3"/>
+      <c r="ED327" s="3"/>
+      <c r="EE327" s="3"/>
+      <c r="EF327" s="3"/>
+      <c r="EG327" s="3"/>
     </row>
-    <row r="328" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -51065,8 +52455,12 @@
       <c r="EA328" s="3"/>
       <c r="EB328" s="3"/>
       <c r="EC328" s="3"/>
+      <c r="ED328" s="3"/>
+      <c r="EE328" s="3"/>
+      <c r="EF328" s="3"/>
+      <c r="EG328" s="3"/>
     </row>
-    <row r="329" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
       <c r="E329" s="3"/>
@@ -51198,8 +52592,12 @@
       <c r="EA329" s="3"/>
       <c r="EB329" s="3"/>
       <c r="EC329" s="3"/>
+      <c r="ED329" s="3"/>
+      <c r="EE329" s="3"/>
+      <c r="EF329" s="3"/>
+      <c r="EG329" s="3"/>
     </row>
-    <row r="330" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
@@ -51331,8 +52729,12 @@
       <c r="EA330" s="3"/>
       <c r="EB330" s="3"/>
       <c r="EC330" s="3"/>
+      <c r="ED330" s="3"/>
+      <c r="EE330" s="3"/>
+      <c r="EF330" s="3"/>
+      <c r="EG330" s="3"/>
     </row>
-    <row r="331" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="331" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
       <c r="E331" s="3"/>
@@ -51464,8 +52866,12 @@
       <c r="EA331" s="3"/>
       <c r="EB331" s="3"/>
       <c r="EC331" s="3"/>
+      <c r="ED331" s="3"/>
+      <c r="EE331" s="3"/>
+      <c r="EF331" s="3"/>
+      <c r="EG331" s="3"/>
     </row>
-    <row r="332" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="332" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
@@ -51597,8 +53003,12 @@
       <c r="EA332" s="3"/>
       <c r="EB332" s="3"/>
       <c r="EC332" s="3"/>
+      <c r="ED332" s="3"/>
+      <c r="EE332" s="3"/>
+      <c r="EF332" s="3"/>
+      <c r="EG332" s="3"/>
     </row>
-    <row r="333" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="333" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -51730,8 +53140,12 @@
       <c r="EA333" s="3"/>
       <c r="EB333" s="3"/>
       <c r="EC333" s="3"/>
+      <c r="ED333" s="3"/>
+      <c r="EE333" s="3"/>
+      <c r="EF333" s="3"/>
+      <c r="EG333" s="3"/>
     </row>
-    <row r="334" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="334" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
@@ -51863,8 +53277,12 @@
       <c r="EA334" s="3"/>
       <c r="EB334" s="3"/>
       <c r="EC334" s="3"/>
+      <c r="ED334" s="3"/>
+      <c r="EE334" s="3"/>
+      <c r="EF334" s="3"/>
+      <c r="EG334" s="3"/>
     </row>
-    <row r="335" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="335" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
@@ -51996,8 +53414,12 @@
       <c r="EA335" s="3"/>
       <c r="EB335" s="3"/>
       <c r="EC335" s="3"/>
+      <c r="ED335" s="3"/>
+      <c r="EE335" s="3"/>
+      <c r="EF335" s="3"/>
+      <c r="EG335" s="3"/>
     </row>
-    <row r="336" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="336" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
@@ -52129,8 +53551,12 @@
       <c r="EA336" s="3"/>
       <c r="EB336" s="3"/>
       <c r="EC336" s="3"/>
+      <c r="ED336" s="3"/>
+      <c r="EE336" s="3"/>
+      <c r="EF336" s="3"/>
+      <c r="EG336" s="3"/>
     </row>
-    <row r="337" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="337" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
@@ -52262,8 +53688,12 @@
       <c r="EA337" s="3"/>
       <c r="EB337" s="3"/>
       <c r="EC337" s="3"/>
+      <c r="ED337" s="3"/>
+      <c r="EE337" s="3"/>
+      <c r="EF337" s="3"/>
+      <c r="EG337" s="3"/>
     </row>
-    <row r="338" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="338" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
@@ -52395,8 +53825,12 @@
       <c r="EA338" s="3"/>
       <c r="EB338" s="3"/>
       <c r="EC338" s="3"/>
+      <c r="ED338" s="3"/>
+      <c r="EE338" s="3"/>
+      <c r="EF338" s="3"/>
+      <c r="EG338" s="3"/>
     </row>
-    <row r="339" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="339" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
@@ -52528,8 +53962,12 @@
       <c r="EA339" s="3"/>
       <c r="EB339" s="3"/>
       <c r="EC339" s="3"/>
+      <c r="ED339" s="3"/>
+      <c r="EE339" s="3"/>
+      <c r="EF339" s="3"/>
+      <c r="EG339" s="3"/>
     </row>
-    <row r="340" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="340" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
@@ -52661,8 +54099,12 @@
       <c r="EA340" s="3"/>
       <c r="EB340" s="3"/>
       <c r="EC340" s="3"/>
+      <c r="ED340" s="3"/>
+      <c r="EE340" s="3"/>
+      <c r="EF340" s="3"/>
+      <c r="EG340" s="3"/>
     </row>
-    <row r="341" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="341" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
@@ -52794,8 +54236,12 @@
       <c r="EA341" s="3"/>
       <c r="EB341" s="3"/>
       <c r="EC341" s="3"/>
+      <c r="ED341" s="3"/>
+      <c r="EE341" s="3"/>
+      <c r="EF341" s="3"/>
+      <c r="EG341" s="3"/>
     </row>
-    <row r="342" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="342" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
@@ -52927,8 +54373,12 @@
       <c r="EA342" s="3"/>
       <c r="EB342" s="3"/>
       <c r="EC342" s="3"/>
+      <c r="ED342" s="3"/>
+      <c r="EE342" s="3"/>
+      <c r="EF342" s="3"/>
+      <c r="EG342" s="3"/>
     </row>
-    <row r="343" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="343" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
@@ -53060,8 +54510,12 @@
       <c r="EA343" s="3"/>
       <c r="EB343" s="3"/>
       <c r="EC343" s="3"/>
+      <c r="ED343" s="3"/>
+      <c r="EE343" s="3"/>
+      <c r="EF343" s="3"/>
+      <c r="EG343" s="3"/>
     </row>
-    <row r="344" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="344" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
@@ -53193,8 +54647,12 @@
       <c r="EA344" s="3"/>
       <c r="EB344" s="3"/>
       <c r="EC344" s="3"/>
+      <c r="ED344" s="3"/>
+      <c r="EE344" s="3"/>
+      <c r="EF344" s="3"/>
+      <c r="EG344" s="3"/>
     </row>
-    <row r="345" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="345" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
@@ -53326,8 +54784,12 @@
       <c r="EA345" s="3"/>
       <c r="EB345" s="3"/>
       <c r="EC345" s="3"/>
+      <c r="ED345" s="3"/>
+      <c r="EE345" s="3"/>
+      <c r="EF345" s="3"/>
+      <c r="EG345" s="3"/>
     </row>
-    <row r="346" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="346" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
@@ -53459,8 +54921,12 @@
       <c r="EA346" s="3"/>
       <c r="EB346" s="3"/>
       <c r="EC346" s="3"/>
+      <c r="ED346" s="3"/>
+      <c r="EE346" s="3"/>
+      <c r="EF346" s="3"/>
+      <c r="EG346" s="3"/>
     </row>
-    <row r="347" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="347" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
@@ -53592,8 +55058,12 @@
       <c r="EA347" s="3"/>
       <c r="EB347" s="3"/>
       <c r="EC347" s="3"/>
+      <c r="ED347" s="3"/>
+      <c r="EE347" s="3"/>
+      <c r="EF347" s="3"/>
+      <c r="EG347" s="3"/>
     </row>
-    <row r="348" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="348" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
@@ -53725,8 +55195,12 @@
       <c r="EA348" s="3"/>
       <c r="EB348" s="3"/>
       <c r="EC348" s="3"/>
+      <c r="ED348" s="3"/>
+      <c r="EE348" s="3"/>
+      <c r="EF348" s="3"/>
+      <c r="EG348" s="3"/>
     </row>
-    <row r="349" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="349" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
@@ -53858,8 +55332,12 @@
       <c r="EA349" s="3"/>
       <c r="EB349" s="3"/>
       <c r="EC349" s="3"/>
+      <c r="ED349" s="3"/>
+      <c r="EE349" s="3"/>
+      <c r="EF349" s="3"/>
+      <c r="EG349" s="3"/>
     </row>
-    <row r="350" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="350" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
@@ -53991,8 +55469,12 @@
       <c r="EA350" s="3"/>
       <c r="EB350" s="3"/>
       <c r="EC350" s="3"/>
+      <c r="ED350" s="3"/>
+      <c r="EE350" s="3"/>
+      <c r="EF350" s="3"/>
+      <c r="EG350" s="3"/>
     </row>
-    <row r="351" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="351" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
@@ -54124,8 +55606,12 @@
       <c r="EA351" s="3"/>
       <c r="EB351" s="3"/>
       <c r="EC351" s="3"/>
+      <c r="ED351" s="3"/>
+      <c r="EE351" s="3"/>
+      <c r="EF351" s="3"/>
+      <c r="EG351" s="3"/>
     </row>
-    <row r="352" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="352" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
@@ -54257,8 +55743,12 @@
       <c r="EA352" s="3"/>
       <c r="EB352" s="3"/>
       <c r="EC352" s="3"/>
+      <c r="ED352" s="3"/>
+      <c r="EE352" s="3"/>
+      <c r="EF352" s="3"/>
+      <c r="EG352" s="3"/>
     </row>
-    <row r="353" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="353" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
       <c r="E353" s="3"/>
@@ -54390,8 +55880,12 @@
       <c r="EA353" s="3"/>
       <c r="EB353" s="3"/>
       <c r="EC353" s="3"/>
+      <c r="ED353" s="3"/>
+      <c r="EE353" s="3"/>
+      <c r="EF353" s="3"/>
+      <c r="EG353" s="3"/>
     </row>
-    <row r="354" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="354" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
@@ -54523,8 +56017,12 @@
       <c r="EA354" s="3"/>
       <c r="EB354" s="3"/>
       <c r="EC354" s="3"/>
+      <c r="ED354" s="3"/>
+      <c r="EE354" s="3"/>
+      <c r="EF354" s="3"/>
+      <c r="EG354" s="3"/>
     </row>
-    <row r="355" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="355" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
@@ -54656,8 +56154,12 @@
       <c r="EA355" s="3"/>
       <c r="EB355" s="3"/>
       <c r="EC355" s="3"/>
+      <c r="ED355" s="3"/>
+      <c r="EE355" s="3"/>
+      <c r="EF355" s="3"/>
+      <c r="EG355" s="3"/>
     </row>
-    <row r="356" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="356" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
@@ -54789,8 +56291,12 @@
       <c r="EA356" s="3"/>
       <c r="EB356" s="3"/>
       <c r="EC356" s="3"/>
+      <c r="ED356" s="3"/>
+      <c r="EE356" s="3"/>
+      <c r="EF356" s="3"/>
+      <c r="EG356" s="3"/>
     </row>
-    <row r="357" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="357" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
       <c r="E357" s="3"/>
@@ -54922,8 +56428,12 @@
       <c r="EA357" s="3"/>
       <c r="EB357" s="3"/>
       <c r="EC357" s="3"/>
+      <c r="ED357" s="3"/>
+      <c r="EE357" s="3"/>
+      <c r="EF357" s="3"/>
+      <c r="EG357" s="3"/>
     </row>
-    <row r="358" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="358" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
       <c r="E358" s="3"/>
@@ -55055,8 +56565,12 @@
       <c r="EA358" s="3"/>
       <c r="EB358" s="3"/>
       <c r="EC358" s="3"/>
+      <c r="ED358" s="3"/>
+      <c r="EE358" s="3"/>
+      <c r="EF358" s="3"/>
+      <c r="EG358" s="3"/>
     </row>
-    <row r="359" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
       <c r="E359" s="3"/>
@@ -55188,8 +56702,12 @@
       <c r="EA359" s="3"/>
       <c r="EB359" s="3"/>
       <c r="EC359" s="3"/>
+      <c r="ED359" s="3"/>
+      <c r="EE359" s="3"/>
+      <c r="EF359" s="3"/>
+      <c r="EG359" s="3"/>
     </row>
-    <row r="360" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
       <c r="E360" s="3"/>
@@ -55321,8 +56839,12 @@
       <c r="EA360" s="3"/>
       <c r="EB360" s="3"/>
       <c r="EC360" s="3"/>
+      <c r="ED360" s="3"/>
+      <c r="EE360" s="3"/>
+      <c r="EF360" s="3"/>
+      <c r="EG360" s="3"/>
     </row>
-    <row r="361" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="3"/>
@@ -55454,8 +56976,12 @@
       <c r="EA361" s="3"/>
       <c r="EB361" s="3"/>
       <c r="EC361" s="3"/>
+      <c r="ED361" s="3"/>
+      <c r="EE361" s="3"/>
+      <c r="EF361" s="3"/>
+      <c r="EG361" s="3"/>
     </row>
-    <row r="362" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="362" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
       <c r="E362" s="3"/>
@@ -55587,8 +57113,12 @@
       <c r="EA362" s="3"/>
       <c r="EB362" s="3"/>
       <c r="EC362" s="3"/>
+      <c r="ED362" s="3"/>
+      <c r="EE362" s="3"/>
+      <c r="EF362" s="3"/>
+      <c r="EG362" s="3"/>
     </row>
-    <row r="363" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="363" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="3"/>
@@ -55720,8 +57250,12 @@
       <c r="EA363" s="3"/>
       <c r="EB363" s="3"/>
       <c r="EC363" s="3"/>
+      <c r="ED363" s="3"/>
+      <c r="EE363" s="3"/>
+      <c r="EF363" s="3"/>
+      <c r="EG363" s="3"/>
     </row>
-    <row r="364" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="364" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
       <c r="E364" s="3"/>
@@ -55853,8 +57387,12 @@
       <c r="EA364" s="3"/>
       <c r="EB364" s="3"/>
       <c r="EC364" s="3"/>
+      <c r="ED364" s="3"/>
+      <c r="EE364" s="3"/>
+      <c r="EF364" s="3"/>
+      <c r="EG364" s="3"/>
     </row>
-    <row r="365" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="365" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
       <c r="E365" s="3"/>
@@ -55986,8 +57524,12 @@
       <c r="EA365" s="3"/>
       <c r="EB365" s="3"/>
       <c r="EC365" s="3"/>
+      <c r="ED365" s="3"/>
+      <c r="EE365" s="3"/>
+      <c r="EF365" s="3"/>
+      <c r="EG365" s="3"/>
     </row>
-    <row r="366" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="366" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
       <c r="E366" s="3"/>
@@ -56119,8 +57661,12 @@
       <c r="EA366" s="3"/>
       <c r="EB366" s="3"/>
       <c r="EC366" s="3"/>
+      <c r="ED366" s="3"/>
+      <c r="EE366" s="3"/>
+      <c r="EF366" s="3"/>
+      <c r="EG366" s="3"/>
     </row>
-    <row r="367" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
       <c r="E367" s="3"/>
@@ -56252,8 +57798,12 @@
       <c r="EA367" s="3"/>
       <c r="EB367" s="3"/>
       <c r="EC367" s="3"/>
+      <c r="ED367" s="3"/>
+      <c r="EE367" s="3"/>
+      <c r="EF367" s="3"/>
+      <c r="EG367" s="3"/>
     </row>
-    <row r="368" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
       <c r="E368" s="3"/>
@@ -56385,8 +57935,12 @@
       <c r="EA368" s="3"/>
       <c r="EB368" s="3"/>
       <c r="EC368" s="3"/>
+      <c r="ED368" s="3"/>
+      <c r="EE368" s="3"/>
+      <c r="EF368" s="3"/>
+      <c r="EG368" s="3"/>
     </row>
-    <row r="369" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="3"/>
@@ -56518,8 +58072,12 @@
       <c r="EA369" s="3"/>
       <c r="EB369" s="3"/>
       <c r="EC369" s="3"/>
+      <c r="ED369" s="3"/>
+      <c r="EE369" s="3"/>
+      <c r="EF369" s="3"/>
+      <c r="EG369" s="3"/>
     </row>
-    <row r="370" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
       <c r="E370" s="3"/>
@@ -56651,8 +58209,12 @@
       <c r="EA370" s="3"/>
       <c r="EB370" s="3"/>
       <c r="EC370" s="3"/>
+      <c r="ED370" s="3"/>
+      <c r="EE370" s="3"/>
+      <c r="EF370" s="3"/>
+      <c r="EG370" s="3"/>
     </row>
-    <row r="371" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
       <c r="E371" s="3"/>
@@ -56784,8 +58346,12 @@
       <c r="EA371" s="3"/>
       <c r="EB371" s="3"/>
       <c r="EC371" s="3"/>
+      <c r="ED371" s="3"/>
+      <c r="EE371" s="3"/>
+      <c r="EF371" s="3"/>
+      <c r="EG371" s="3"/>
     </row>
-    <row r="372" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
       <c r="E372" s="3"/>
@@ -56917,8 +58483,12 @@
       <c r="EA372" s="3"/>
       <c r="EB372" s="3"/>
       <c r="EC372" s="3"/>
+      <c r="ED372" s="3"/>
+      <c r="EE372" s="3"/>
+      <c r="EF372" s="3"/>
+      <c r="EG372" s="3"/>
     </row>
-    <row r="373" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
       <c r="E373" s="3"/>
@@ -57050,8 +58620,12 @@
       <c r="EA373" s="3"/>
       <c r="EB373" s="3"/>
       <c r="EC373" s="3"/>
+      <c r="ED373" s="3"/>
+      <c r="EE373" s="3"/>
+      <c r="EF373" s="3"/>
+      <c r="EG373" s="3"/>
     </row>
-    <row r="374" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="3"/>
@@ -57183,8 +58757,12 @@
       <c r="EA374" s="3"/>
       <c r="EB374" s="3"/>
       <c r="EC374" s="3"/>
+      <c r="ED374" s="3"/>
+      <c r="EE374" s="3"/>
+      <c r="EF374" s="3"/>
+      <c r="EG374" s="3"/>
     </row>
-    <row r="375" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
       <c r="E375" s="3"/>
@@ -57316,8 +58894,12 @@
       <c r="EA375" s="3"/>
       <c r="EB375" s="3"/>
       <c r="EC375" s="3"/>
+      <c r="ED375" s="3"/>
+      <c r="EE375" s="3"/>
+      <c r="EF375" s="3"/>
+      <c r="EG375" s="3"/>
     </row>
-    <row r="376" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -57449,8 +59031,12 @@
       <c r="EA376" s="3"/>
       <c r="EB376" s="3"/>
       <c r="EC376" s="3"/>
+      <c r="ED376" s="3"/>
+      <c r="EE376" s="3"/>
+      <c r="EF376" s="3"/>
+      <c r="EG376" s="3"/>
     </row>
-    <row r="377" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="E377" s="3"/>
@@ -57582,8 +59168,12 @@
       <c r="EA377" s="3"/>
       <c r="EB377" s="3"/>
       <c r="EC377" s="3"/>
+      <c r="ED377" s="3"/>
+      <c r="EE377" s="3"/>
+      <c r="EF377" s="3"/>
+      <c r="EG377" s="3"/>
     </row>
-    <row r="378" spans="3:133" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:137" x14ac:dyDescent="0.2">
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
       <c r="E378" s="3"/>
@@ -57715,6 +59305,10 @@
       <c r="EA378" s="3"/>
       <c r="EB378" s="3"/>
       <c r="EC378" s="3"/>
+      <c r="ED378" s="3"/>
+      <c r="EE378" s="3"/>
+      <c r="EF378" s="3"/>
+      <c r="EG378" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/TPR.xlsx
+++ b/TPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805CB36A-A9AB-44A4-AEE7-B585B4F84CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D3CF28-CF98-40A1-AD12-17BF4276B3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{FE2400EE-DFF5-46AE-8520-2B6C3CEB7AD1}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Tapestry</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Tax Rate</t>
   </si>
   <si>
-    <t>FQ425</t>
-  </si>
-  <si>
     <t>Coach Stores</t>
   </si>
   <si>
@@ -265,13 +262,19 @@
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -342,40 +345,43 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -729,7 +735,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K6" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -751,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="J2" s="2">
-        <v>100.74</v>
+        <v>154.69999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -759,10 +765,10 @@
         <v>5</v>
       </c>
       <c r="J3" s="3">
-        <v>204.64975200000001</v>
+        <v>202.464223</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>44</v>
+      <c r="K3" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -774,7 +780,7 @@
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>20616.416016480001</v>
+        <v>31321.2152981</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -785,11 +791,11 @@
         <v>7</v>
       </c>
       <c r="J5" s="3">
-        <f>719.5+23.7</f>
-        <v>743.2</v>
+        <f>1053.3+24.4</f>
+        <v>1077.7</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>44</v>
+      <c r="K5" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -797,23 +803,23 @@
         <v>8</v>
       </c>
       <c r="J6" s="3">
-        <f>256.8+2378.6</f>
-        <v>2635.4</v>
+        <f>2379.3+17.1</f>
+        <v>2396.4</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>44</v>
+      <c r="K6" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>22508.616016480002</v>
+        <v>32639.915298100001</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -829,7 +835,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -852,7 +858,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -868,7 +874,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -909,42 +915,42 @@
         <v>18</v>
       </c>
       <c r="K2" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>65</v>
+      <c r="P2" s="4" t="s">
+        <v>50</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -975,7 +981,7 @@
     </row>
     <row r="4" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1006,7 +1012,7 @@
     </row>
     <row r="5" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1037,7 +1043,7 @@
     </row>
     <row r="6" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1068,7 +1074,7 @@
     </row>
     <row r="7" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1099,7 +1105,7 @@
     </row>
     <row r="8" spans="1:163" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -1190,7 +1196,9 @@
       <c r="K10" s="13">
         <v>1429.8</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="13">
+        <v>2142.4</v>
+      </c>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="3"/>
@@ -1382,7 +1390,9 @@
       <c r="K11" s="13">
         <v>260.2</v>
       </c>
-      <c r="L11" s="13"/>
+      <c r="L11" s="13">
+        <v>360</v>
+      </c>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="3"/>
@@ -1574,7 +1584,9 @@
       <c r="K12" s="13">
         <v>14.6</v>
       </c>
-      <c r="L12" s="13"/>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="3"/>
@@ -1766,7 +1778,9 @@
       <c r="K13" s="14">
         <v>1704.6</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="14">
+        <v>2502.4</v>
+      </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="3"/>
@@ -1958,7 +1972,9 @@
       <c r="K14" s="13">
         <v>404.1</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="13">
+        <v>614</v>
+      </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="3"/>
@@ -2157,7 +2173,10 @@
         <f t="shared" si="4"/>
         <v>1300.5</v>
       </c>
-      <c r="L15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="4"/>
+        <v>1888.4</v>
+      </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="3"/>
@@ -2364,7 +2383,9 @@
       <c r="K16" s="13">
         <v>972.3</v>
       </c>
-      <c r="L16" s="13"/>
+      <c r="L16" s="13">
+        <v>1172</v>
+      </c>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="3"/>
@@ -2564,7 +2585,10 @@
         <f t="shared" si="6"/>
         <v>328.20000000000005</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="13">
+        <f t="shared" si="6"/>
+        <v>716.40000000000009</v>
+      </c>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="3"/>
@@ -2772,7 +2796,9 @@
       <c r="K18" s="13">
         <v>12.8</v>
       </c>
-      <c r="L18" s="13"/>
+      <c r="L18" s="13">
+        <v>17.399999999999999</v>
+      </c>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="3"/>
@@ -2965,7 +2991,9 @@
       <c r="K19" s="13">
         <v>-3.3</v>
       </c>
-      <c r="L19" s="13"/>
+      <c r="L19" s="13">
+        <v>1.9</v>
+      </c>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="3"/>
@@ -3164,7 +3192,10 @@
         <f t="shared" si="8"/>
         <v>318.70000000000005</v>
       </c>
-      <c r="L20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="8"/>
+        <v>697.10000000000014</v>
+      </c>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="3"/>
@@ -3371,7 +3402,9 @@
       <c r="K21" s="13">
         <v>43.9</v>
       </c>
-      <c r="L21" s="13"/>
+      <c r="L21" s="13">
+        <v>135.80000000000001</v>
+      </c>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="3"/>
@@ -3570,7 +3603,10 @@
         <f t="shared" si="10"/>
         <v>274.80000000000007</v>
       </c>
-      <c r="L22" s="13"/>
+      <c r="L22" s="13">
+        <f t="shared" si="10"/>
+        <v>561.30000000000018</v>
+      </c>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="3"/>
@@ -3932,7 +3968,7 @@
         <v>0.80604751619870452</v>
       </c>
       <c r="H24" s="19">
-        <f t="shared" ref="H24:K25" si="12">+H22/H25</f>
+        <f t="shared" ref="H24:L24" si="12">+H22/H25</f>
         <v>1.4115507048658491</v>
       </c>
       <c r="I24" s="19">
@@ -3947,7 +3983,10 @@
         <f t="shared" si="12"/>
         <v>1.3236994219653182</v>
       </c>
-      <c r="L24" s="19"/>
+      <c r="L24" s="19">
+        <f t="shared" si="12"/>
+        <v>2.7501224889759932</v>
+      </c>
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
       <c r="O24" s="19"/>
@@ -4154,7 +4193,9 @@
       <c r="K25" s="3">
         <v>207.6</v>
       </c>
-      <c r="L25" s="3"/>
+      <c r="L25" s="3">
+        <v>204.1</v>
+      </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -4478,7 +4519,7 @@
     </row>
     <row r="27" spans="2:163" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -4688,7 +4729,10 @@
         <f>+K10/G10-1</f>
         <v>0.22142491030240907</v>
       </c>
-      <c r="L28" s="16"/>
+      <c r="L28" s="16">
+        <f>+L10/H10-1</f>
+        <v>0.25337857602527358</v>
+      </c>
       <c r="M28" s="16"/>
       <c r="N28" s="16"/>
       <c r="O28" s="3"/>
@@ -4876,7 +4920,7 @@
         <v>-9.5569070373588194E-2</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" ref="I29:K31" si="17">+I11/E11-1</f>
+        <f t="shared" ref="I29:L31" si="17">+I11/E11-1</f>
         <v>-0.12753829711435694</v>
       </c>
       <c r="J29" s="16">
@@ -4887,7 +4931,10 @@
         <f t="shared" si="17"/>
         <v>-8.1214689265536766E-2</v>
       </c>
-      <c r="L29" s="16"/>
+      <c r="L29" s="16">
+        <f t="shared" si="17"/>
+        <v>-0.13544668587896247</v>
+      </c>
       <c r="M29" s="16"/>
       <c r="N29" s="16"/>
       <c r="O29" s="3"/>
@@ -5086,7 +5133,10 @@
         <f t="shared" si="17"/>
         <v>-0.72811918063314707</v>
       </c>
-      <c r="L30" s="16"/>
+      <c r="L30" s="16">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
       <c r="M30" s="16"/>
       <c r="N30" s="16"/>
       <c r="O30" s="3"/>
@@ -5285,7 +5335,10 @@
         <f t="shared" si="17"/>
         <v>0.13074626865671646</v>
       </c>
-      <c r="L31" s="17"/>
+      <c r="L31" s="17">
+        <f t="shared" si="17"/>
+        <v>0.13983784276213895</v>
+      </c>
       <c r="M31" s="17"/>
       <c r="N31" s="17"/>
       <c r="O31" s="15"/>
@@ -5496,7 +5549,10 @@
         <f>+K15/K13</f>
         <v>0.76293558606124612</v>
       </c>
-      <c r="L32" s="16"/>
+      <c r="L32" s="16">
+        <f>+L15/L13</f>
+        <v>0.75463554987212278</v>
+      </c>
       <c r="M32" s="16"/>
       <c r="N32" s="16"/>
       <c r="O32" s="3"/>
@@ -5710,7 +5766,10 @@
         <f>+K17/K13</f>
         <v>0.19253783878915878</v>
       </c>
-      <c r="L33" s="16"/>
+      <c r="L33" s="16">
+        <f>+L17/L13</f>
+        <v>0.28628516624040923</v>
+      </c>
       <c r="M33" s="16"/>
       <c r="N33" s="16"/>
       <c r="O33" s="3"/>
@@ -5924,7 +5983,10 @@
         <f>+K21/K20</f>
         <v>0.13774709758393472</v>
       </c>
-      <c r="L34" s="16"/>
+      <c r="L34" s="16">
+        <f>+L21/L20</f>
+        <v>0.19480705781093097</v>
+      </c>
       <c r="M34" s="16"/>
       <c r="N34" s="16"/>
       <c r="O34" s="3"/>
